--- a/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Desviacion de esfuerzo" sheetId="1" r:id="rId1"/>
-    <sheet name="Desviacion de costos" sheetId="2" r:id="rId2"/>
-    <sheet name="Apego a Procesos" sheetId="3" r:id="rId3"/>
-    <sheet name="Apego a Productos" sheetId="4" r:id="rId4"/>
-    <sheet name="Física" sheetId="5" r:id="rId5"/>
-    <sheet name="Funcional" sheetId="6" r:id="rId6"/>
-    <sheet name="Crecimiento anual de ventas" sheetId="7" r:id="rId7"/>
-    <sheet name="Indice de Satisfacción" sheetId="8" r:id="rId8"/>
+    <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Desviacion de costos" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Apego a Procesos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Apego a Productos" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Física" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Funcional" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Crecimiento anual de ventas" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Indice de Satisfacción" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -26,9 +27,6 @@
     <t>Versión 1.0</t>
   </si>
   <si>
-    <t>&lt;Periodo&gt;</t>
-  </si>
-  <si>
     <t>Planeado</t>
   </si>
   <si>
@@ -36,9 +34,6 @@
   </si>
   <si>
     <t>Desviación</t>
-  </si>
-  <si>
-    <t>Prospectación</t>
   </si>
   <si>
     <t>Ventas</t>
@@ -59,6 +54,12 @@
     <t>Soporte</t>
   </si>
   <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>&lt;Periodo&gt;</t>
+  </si>
+  <si>
     <t>Nivel de Apego</t>
   </si>
   <si>
@@ -66,6 +67,9 @@
   </si>
   <si>
     <t>&lt;aammdd&gt;</t>
+  </si>
+  <si>
+    <t>Prospectación</t>
   </si>
   <si>
     <t>Garantía</t>
@@ -89,7 +93,13 @@
     <t>Estimación</t>
   </si>
   <si>
+    <t>Tickets de Servicio</t>
+  </si>
+  <si>
     <t>Carta de aceptación</t>
+  </si>
+  <si>
+    <t>Reporte de Monitoreo</t>
   </si>
   <si>
     <t>Febrero</t>
@@ -139,25 +149,23 @@
   <si>
     <t>&lt;cliente&gt;</t>
   </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Tickets de Servicio</t>
-  </si>
-  <si>
-    <t>Reporte de Monitoreo</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="9">
+    <numFmt numFmtId="164" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="GENERAL"/>
+    <numFmt numFmtId="167" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="DD\-MMM"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="\$#,##0.00;[RED]&quot;-$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -166,7 +174,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -180,14 +203,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -199,9 +220,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,37 +267,23 @@
         <bgColor rgb="FFE5E0EC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
-    <border>
+  <borders count="11">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -281,7 +296,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -296,31 +311,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin">
         <color rgb="FF604A7B"/>
@@ -329,7 +334,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -340,33 +345,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF604A7B"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF604A7B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF604A7B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin">
         <color rgb="FF604A7B"/>
@@ -377,594 +363,435 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+  <cellXfs count="48">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="14">
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1023,38 +850,20 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1071,13 +880,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1085,8 +893,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1141,20 +947,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1172,13 +964,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C0504D"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1186,8 +977,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1242,35 +1031,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187237120"/>
-        <c:axId val="187239808"/>
+        <c:overlap val="0"/>
+        <c:axId val="66597604"/>
+        <c:axId val="2237685"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187237120"/>
+        <c:axId val="66597604"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,15 +1055,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="187239808"/>
+        <c:crossAx val="2237685"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187239808"/>
+        <c:axId val="2237685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1078,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1323,13 +1089,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="187237120"/>
+        <c:crossAx val="66597604"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1338,7 +1103,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1348,51 +1112,38 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1400,8 +1151,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1424,7 +1173,7 @@
             <c:numRef>
               <c:f>Funcional!$G$4:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.67</c:v>
@@ -1433,40 +1182,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204847360"/>
-        <c:axId val="204857344"/>
+        <c:overlap val="0"/>
+        <c:axId val="26531676"/>
+        <c:axId val="49815176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204847360"/>
+        <c:axId val="26531676"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,15 +1211,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204857344"/>
+        <c:crossAx val="49815176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204857344"/>
+        <c:axId val="49815176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1508,7 +1235,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1520,19 +1246,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204847360"/>
+        <c:crossAx val="26531676"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1540,65 +1264,58 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Planeado</c:v>
+            <c:strRef>
+              <c:f>"Planeado"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1606,8 +1323,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1624,7 +1339,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$15</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>202000</c:v>
@@ -1632,47 +1347,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Real</c:v>
+            <c:strRef>
+              <c:f>"Real"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C0504D"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1680,8 +1386,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1698,43 +1402,22 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$C$15</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>130775.29999999999</c:v>
+                  <c:v>130775.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204873088"/>
-        <c:axId val="204907648"/>
+        <c:overlap val="0"/>
+        <c:axId val="85475275"/>
+        <c:axId val="80559131"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204873088"/>
+        <c:axId val="85475275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,15 +1434,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204907648"/>
+        <c:crossAx val="80559131"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204907648"/>
+        <c:axId val="80559131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,7 +1467,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-MX" sz="1000" b="1">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1797,9 +1479,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="1"/>
         </c:title>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1811,13 +1491,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204873088"/>
+        <c:crossAx val="85475275"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1825,39 +1504,27 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1874,24 +1541,21 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1899,16 +1563,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Crecimiento anual de ventas'!$G$13:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Monto Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1917,7 +1585,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$G$15</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>2424000</c:v>
@@ -1925,20 +1593,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1956,24 +1610,21 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C0504D"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1981,16 +1632,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Crecimiento anual de ventas'!$G$13:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Monto Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1999,43 +1654,22 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$H$15</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>392325.89999999997</c:v>
+                  <c:v>130775.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204929664"/>
-        <c:axId val="208802176"/>
+        <c:overlap val="0"/>
+        <c:axId val="76667871"/>
+        <c:axId val="1132918"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204929664"/>
+        <c:axId val="76667871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,15 +1686,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208802176"/>
+        <c:crossAx val="1132918"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208802176"/>
+        <c:axId val="1132918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +1719,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-MX" sz="1000" b="1">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2098,9 +1731,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="1"/>
         </c:title>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2112,13 +1743,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204929664"/>
+        <c:crossAx val="76667871"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2126,39 +1756,27 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2175,13 +1793,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2189,8 +1806,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2210,31 +1825,17 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$16:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
+                <c:pt idx="0">
                   <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54818.400000000001</c:v>
+                  <c:v>54818.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2252,13 +1853,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C0504D"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2266,8 +1866,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2287,47 +1885,25 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$17:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
+                <c:pt idx="0">
                   <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75956.899999999994</c:v>
+                  <c:v>75956.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="208848768"/>
-        <c:axId val="208850304"/>
+        <c:axId val="22047535"/>
+        <c:axId val="88925429"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208848768"/>
+        <c:axId val="22047535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,15 +1920,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208850304"/>
+        <c:crossAx val="88925429"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208850304"/>
+        <c:axId val="88925429"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,7 +1943,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2377,13 +1951,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208848768"/>
+        <c:crossAx val="22047535"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2392,7 +1965,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2402,40 +1974,27 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2452,13 +2011,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2466,8 +2024,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2490,40 +2046,28 @@
             <c:numRef>
               <c:f>'Indice de Satisfacción'!$E$4:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208925056"/>
-        <c:axId val="208926592"/>
+        <c:overlap val="0"/>
+        <c:axId val="54293765"/>
+        <c:axId val="38280187"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208925056"/>
+        <c:axId val="54293765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,15 +2084,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208926592"/>
+        <c:crossAx val="38280187"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208926592"/>
+        <c:axId val="38280187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2565,7 +2108,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2577,19 +2119,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208925056"/>
+        <c:crossAx val="54293765"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2597,39 +2137,27 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2639,20 +2167,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Desviación</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2660,8 +2187,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2693,10 +2218,10 @@
             <c:numRef>
               <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-2.8235294117647061</c:v>
+                  <c:v>-2.82352941176471</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2705,46 +2230,25 @@
                   <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.3913043478260869</c:v>
+                  <c:v>-5.39130434782609</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12676056338028169</c:v>
+                  <c:v>0.126760563380282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="201398144"/>
-        <c:axId val="201399680"/>
+        <c:overlap val="0"/>
+        <c:axId val="88966187"/>
+        <c:axId val="88321111"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201398144"/>
+        <c:axId val="88966187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,15 +2265,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="201399680"/>
+        <c:crossAx val="88321111"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201399680"/>
+        <c:axId val="88321111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2787,7 +2290,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2799,13 +2301,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="201398144"/>
+        <c:crossAx val="88966187"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2813,39 +2314,27 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2862,13 +2351,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2876,8 +2364,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2909,7 +2395,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$C$20:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>22.33</c:v>
@@ -2918,7 +2404,7 @@
                   <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>19.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.5</c:v>
@@ -2932,20 +2418,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2963,13 +2435,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C0504D"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2977,8 +2448,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3010,7 +2479,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$D$20:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>47.4</c:v>
@@ -3022,7 +2491,7 @@
                   <c:v>10.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>35.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3033,35 +2502,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202398336"/>
-        <c:axId val="202404224"/>
+        <c:overlap val="0"/>
+        <c:axId val="15804618"/>
+        <c:axId val="16028719"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202398336"/>
+        <c:axId val="15804618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,15 +2526,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202404224"/>
+        <c:crossAx val="16028719"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202404224"/>
+        <c:axId val="16028719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +2549,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3114,13 +2560,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202398336"/>
+        <c:crossAx val="15804618"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3129,7 +2574,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3139,39 +2583,27 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3188,13 +2620,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3202,8 +2633,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3235,19 +2664,19 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$E$20:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1.1227048813255711</c:v>
+                  <c:v>-1.12270488132557</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43608247422680413</c:v>
+                  <c:v>0.436082474226804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.4909090909090912</c:v>
+                  <c:v>-5.49090909090909</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -3258,35 +2687,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202429184"/>
-        <c:axId val="202430720"/>
+        <c:overlap val="0"/>
+        <c:axId val="71245217"/>
+        <c:axId val="6063734"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202429184"/>
+        <c:axId val="71245217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3303,15 +2711,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202430720"/>
+        <c:crossAx val="6063734"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202430720"/>
+        <c:axId val="6063734"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3329,7 +2736,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3341,13 +2747,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202429184"/>
+        <c:crossAx val="71245217"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3355,51 +2760,38 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3407,8 +2799,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3440,10 +2830,10 @@
             <c:numRef>
               <c:f>'Apego a Procesos'!$G$4:$G$9</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3458,40 +2848,19 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202791552"/>
-        <c:axId val="202797440"/>
+        <c:overlap val="0"/>
+        <c:axId val="7828885"/>
+        <c:axId val="65259803"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202791552"/>
+        <c:axId val="7828885"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3508,15 +2877,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202797440"/>
+        <c:crossAx val="65259803"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202797440"/>
+        <c:axId val="65259803"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,7 +2900,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3544,19 +2911,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202791552"/>
+        <c:crossAx val="7828885"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3564,51 +2929,38 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3616,8 +2968,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3640,49 +2990,28 @@
             <c:numRef>
               <c:f>'Apego a Procesos'!$G$13:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202831744"/>
-        <c:axId val="202833280"/>
+        <c:overlap val="0"/>
+        <c:axId val="89351905"/>
+        <c:axId val="47999787"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202831744"/>
+        <c:axId val="89351905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3699,15 +3028,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202833280"/>
+        <c:crossAx val="47999787"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202833280"/>
+        <c:axId val="47999787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3724,7 +3052,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3736,19 +3063,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202831744"/>
+        <c:crossAx val="89351905"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3756,51 +3081,38 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3808,8 +3120,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3838,55 +3148,34 @@
             <c:numRef>
               <c:f>'Apego a Productos'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.85699999999999998</c:v>
+                  <c:v>0.857</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="203059200"/>
-        <c:axId val="203060736"/>
+        <c:overlap val="0"/>
+        <c:axId val="33581245"/>
+        <c:axId val="11578033"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203059200"/>
+        <c:axId val="33581245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,15 +3192,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203060736"/>
+        <c:crossAx val="11578033"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203060736"/>
+        <c:axId val="11578033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3928,7 +3216,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3940,19 +3227,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203059200"/>
+        <c:crossAx val="33581245"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3960,51 +3245,38 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4012,8 +3284,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4036,49 +3306,28 @@
             <c:numRef>
               <c:f>'Apego a Productos'!$G$12:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="203074560"/>
-        <c:axId val="203088640"/>
+        <c:overlap val="0"/>
+        <c:axId val="62849316"/>
+        <c:axId val="55935409"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203074560"/>
+        <c:axId val="62849316"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4095,15 +3344,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203088640"/>
+        <c:crossAx val="55935409"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203088640"/>
+        <c:axId val="55935409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4120,7 +3368,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4132,19 +3379,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203074560"/>
+        <c:crossAx val="62849316"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -4152,51 +3397,38 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4204,8 +3436,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4228,7 +3458,7 @@
             <c:numRef>
               <c:f>Física!$G$4:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -4237,40 +3467,19 @@
                   <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="205027968"/>
-        <c:axId val="205037952"/>
+        <c:overlap val="0"/>
+        <c:axId val="8096856"/>
+        <c:axId val="27183761"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205027968"/>
+        <c:axId val="8096856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,15 +3496,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="205037952"/>
+        <c:crossAx val="27183761"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205037952"/>
+        <c:axId val="27183761"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4312,7 +3520,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4324,19 +3531,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="205027968"/>
+        <c:crossAx val="8096856"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -4344,48 +3549,41 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>663480</xdr:colOff>
+      <xdr:colOff>717480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381240</xdr:colOff>
+      <xdr:colOff>434520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="2 Gráfico"/>
+        <xdr:cNvPr id="0" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="920520" y="192600"/>
+        <a:ext cx="8988480" cy="2743920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4398,24 +3596,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>253080</xdr:colOff>
+      <xdr:colOff>307080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>497880</xdr:colOff>
+      <xdr:colOff>551160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>235370</xdr:rowOff>
+      <xdr:rowOff>216720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="4 Gráfico"/>
+        <xdr:cNvPr id="1" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7000560" y="3189600"/>
+        <a:ext cx="7851240" cy="3001680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4429,28 +3627,28 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>167760</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="330120" y="192600"/>
+        <a:ext cx="6172920" cy="2818080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4463,24 +3661,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>317520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>415080</xdr:colOff>
+      <xdr:colOff>468720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6599520" y="173520"/>
+        <a:ext cx="6031080" cy="2799000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4494,28 +3692,28 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>282600</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1129680</xdr:colOff>
+      <xdr:colOff>1182960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="336600" y="2954520"/>
+        <a:ext cx="9431280" cy="2855880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4528,24 +3726,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1225440</xdr:colOff>
+      <xdr:colOff>1279440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>91080</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>300</xdr:rowOff>
+      <xdr:colOff>144360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="6 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9864360" y="2926080"/>
+        <a:ext cx="6307200" cy="2846520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4559,28 +3757,28 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>282600</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32040</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>186480</xdr:colOff>
+      <xdr:colOff>239760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="336600" y="2668680"/>
+        <a:ext cx="6647400" cy="2856240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4593,24 +3791,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
+      <xdr:colOff>384120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>344520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8855640" y="2602080"/>
+        <a:ext cx="6500880" cy="2856240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4624,28 +3822,28 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>510480</xdr:colOff>
+      <xdr:colOff>563760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="412560" y="1344960"/>
+        <a:ext cx="5790600" cy="2855880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4659,28 +3857,28 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>275040</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495360</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="329040" y="1375560"/>
+        <a:ext cx="5859000" cy="2855880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4694,28 +3892,28 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>462750</xdr:colOff>
+      <xdr:colOff>515880</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="108000" y="40320"/>
+        <a:ext cx="6059880" cy="2399040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4728,24 +3926,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>117360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>700680</xdr:colOff>
+      <xdr:colOff>753840</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8538480" y="3135600"/>
+        <a:ext cx="5704560" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4758,24 +3956,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1054080</xdr:colOff>
+      <xdr:colOff>1108080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>567720</xdr:colOff>
+      <xdr:colOff>621000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="12" name="8 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9529200" y="49680"/>
+        <a:ext cx="5520600" cy="2084400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4789,68 +3987,28 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.70232</cdr:x>
-      <cdr:y>0.82165</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.94169</cdr:x>
-      <cdr:y>0.93584</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="1 CuadroTexto"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2822594" y="1713495"/>
-          <a:ext cx="962025" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100"/>
-            <a:t>Noviembre</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>107280</xdr:colOff>
+      <xdr:colOff>161280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="13" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="783360" y="1415520"/>
+        <a:ext cx="5751720" cy="2855880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4863,1774 +4021,1555 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625"/>
-    <col min="2" max="2" width="34.42578125"/>
-    <col min="3" max="3" width="10.140625"/>
-    <col min="4" max="4" width="9.7109375"/>
-    <col min="5" max="5" width="10.140625"/>
-    <col min="6" max="6" width="8.5703125"/>
-    <col min="7" max="7" width="10.140625"/>
-    <col min="8" max="8" width="9.7109375"/>
-    <col min="9" max="10" width="11.42578125"/>
-    <col min="11" max="16" width="10.7109375"/>
-    <col min="17" max="17" width="13"/>
-    <col min="18" max="1025" width="11.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4291497975709"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.4251012145749"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48">
+    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="n">
         <v>46692</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="3" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>195</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <f aca="false">(C20-D20)/C20</f>
+        <v>-2.82352941176471</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <f aca="false">(C21-D21)/C21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5">
-        <v>51</v>
-      </c>
-      <c r="D20" s="5">
-        <v>195</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" ref="E20:E25" si="0">(C20-D20)/C20</f>
-        <v>-2.8235294117647061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7" t="s">
+      <c r="C22" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <f aca="false">(C22-D22)/C22</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="8">
-        <v>35</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C23" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>147</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <f aca="false">(C23-D23)/C23</f>
+        <v>-5.39130434782609</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="D24" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="9">
-        <f t="shared" si="0"/>
+      <c r="E24" s="9" t="n">
+        <f aca="false">(C24-D24)/C24</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="8">
-        <v>80</v>
-      </c>
-      <c r="D22" s="8">
-        <v>45</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="8">
-        <v>23</v>
-      </c>
-      <c r="D23" s="8">
-        <v>147</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="0"/>
-        <v>-5.3913043478260869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="8">
-        <v>90</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="C25" s="8" t="n">
         <v>142</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="8" t="n">
         <v>124</v>
       </c>
-      <c r="E25" s="9">
-        <f t="shared" si="0"/>
-        <v>0.12676056338028169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E25" s="9" t="n">
+        <f aca="false">(C25-D25)/C25</f>
+        <v>0.126760563380282</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625"/>
-    <col min="2" max="2" width="34.42578125"/>
-    <col min="3" max="3" width="12.140625"/>
-    <col min="4" max="4" width="11.140625"/>
-    <col min="5" max="5" width="8.5703125"/>
-    <col min="6" max="6" width="10.140625"/>
-    <col min="7" max="7" width="9.7109375"/>
-    <col min="8" max="15" width="11.5703125"/>
-    <col min="16" max="16" width="13"/>
-    <col min="17" max="1025" width="11.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4291497975709"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="48">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="1" customFormat="true" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="n">
         <v>46692</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="11" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="11" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E20" s="12" t="n">
+        <f aca="false">(C20-D20)/C20</f>
+        <v>-1.12270488132557</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13" t="n">
+        <f aca="false">(C21-D21)/C21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="12">
-        <v>22.33</v>
-      </c>
-      <c r="D20" s="12">
-        <v>47.4</v>
-      </c>
-      <c r="E20" s="14">
-        <f t="shared" ref="E20:E25" si="0">(C20-D20)/C20</f>
-        <v>-1.1227048813255711</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7" t="s">
+      <c r="C22" s="11" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="E22" s="13" t="n">
+        <f aca="false">(C22-D22)/C22</f>
+        <v>0.436082474226804</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="12">
-        <v>3.96</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="C23" s="11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E23" s="12" t="n">
+        <f aca="false">(C23-D23)/C23</f>
+        <v>-5.49090909090909</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="D24" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="13">
-        <f t="shared" si="0"/>
+      <c r="E24" s="13" t="n">
+        <f aca="false">(C24-D24)/C24</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="12">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D22" s="12">
-        <v>10.94</v>
-      </c>
-      <c r="E22" s="13">
-        <f t="shared" si="0"/>
-        <v>0.43608247422680413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="D23" s="12">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="E23" s="14">
-        <f t="shared" si="0"/>
-        <v>-5.4909090909090912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="12">
-        <v>29</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11" t="n">
         <v>22.5</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="E25" s="14">
-        <f t="shared" si="0"/>
+      <c r="E25" s="12" t="n">
+        <f aca="false">(C25-D25)/C25</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125"/>
-    <col min="2" max="2" width="4.42578125"/>
-    <col min="3" max="3" width="19.7109375"/>
-    <col min="4" max="4" width="13.42578125" style="15"/>
-    <col min="5" max="5" width="13.42578125"/>
-    <col min="6" max="6" width="13.7109375"/>
-    <col min="7" max="7" width="23.28515625"/>
-    <col min="8" max="8" width="5.140625"/>
-    <col min="9" max="9" width="19.140625"/>
-    <col min="10" max="11" width="21.42578125"/>
-    <col min="12" max="12" width="21.7109375"/>
-    <col min="13" max="1025" width="11.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="e">
+        <f aca="false">AVERAGE(D4:F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22" t="n">
+        <f aca="false">AVERAGE(D5:F5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="n">
+        <f aca="false">AVERAGE(D6:F6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="n">
+        <f aca="false">AVERAGE(D7:F7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="n">
+        <f aca="false">AVERAGE(D8:F8)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="e">
+        <f aca="false">AVERAGE(D9:F9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="23"/>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="O11" s="24"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
+      <c r="G12" s="25"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(D4:F4)</f>
+      <c r="C13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="22" t="e">
+        <f aca="false">AVERAGE(D13:F13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="C14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="22" t="e">
+        <f aca="false">AVERAGE(D14:F14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23" t="e">
-        <f t="shared" si="0"/>
+      <c r="C15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="22" t="e">
+        <f aca="false">AVERAGE(D15:F15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="24"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="23" t="e">
-        <f>AVERAGE(D13:F13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
-        <v>2</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="23" t="e">
-        <f>AVERAGE(D14:F14)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="20">
-        <v>3</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="23" t="e">
-        <f>AVERAGE(D15:F15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="notEqual">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="notEqual">
+    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="notEqual">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="notEqual">
+    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:F15">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="notEqual">
+    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C15">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="notEqual">
+    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="notEqual">
+    <cfRule type="cellIs" priority="8" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F12">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="notEqual">
+    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="notEqual">
+    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="notEqual">
+    <cfRule type="cellIs" priority="11" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125"/>
-    <col min="2" max="2" width="4.42578125"/>
-    <col min="3" max="3" width="32.140625"/>
-    <col min="4" max="4" width="11.7109375" style="15"/>
-    <col min="5" max="5" width="11.7109375"/>
-    <col min="6" max="6" width="12.42578125"/>
-    <col min="7" max="7" width="19.42578125"/>
-    <col min="8" max="8" width="11.5703125"/>
-    <col min="9" max="9" width="15.7109375"/>
-    <col min="10" max="1025" width="11.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18" t="n">
+        <v>20151127</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="C4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="22" t="n">
+        <f aca="false">AVERAGE(D4:F4)</f>
+        <v>0.857</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="22" t="n">
+        <f aca="false">AVERAGE(D5:F5)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="22" t="e">
+        <f aca="false">AVERAGE(D6:F6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="22" t="n">
+        <f aca="false">AVERAGE(D7:F7)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="22" t="e">
+        <f aca="false">AVERAGE(D8:F8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="23"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="19">
-        <v>20151127</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="F11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="23">
-        <f>AVERAGE(D4:F4)</f>
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="C12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22" t="e">
+        <f aca="false">AVERAGE(D12:F12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="23">
-        <f>AVERAGE(D5:F5)</f>
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="C13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22" t="e">
+        <f aca="false">AVERAGE(D13:F13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="23" t="e">
-        <f>AVERAGE(D6:F6)</f>
+      <c r="C14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22" t="e">
+        <f aca="false">AVERAGE(D14:F14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="27">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="23">
-        <f>AVERAGE(D7:F7)</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="23" t="e">
-        <f>AVERAGE(D8:F8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23" t="e">
-        <f>AVERAGE(D12:F12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
-        <v>2</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23" t="e">
-        <f>AVERAGE(D13:F13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
-        <v>3</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23" t="e">
-        <f>AVERAGE(D14:F14)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="31"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="30"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="notEqual">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="notEqual">
+    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="notEqual">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="notEqual">
+    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="notEqual">
+    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="notEqual">
+    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="notEqual">
+    <cfRule type="cellIs" priority="8" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="notEqual">
+    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B14">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="notEqual">
+    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="notEqual">
+    <cfRule type="cellIs" priority="11" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="notEqual">
+    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F14">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="notEqual">
+    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="notEqual">
+    <cfRule type="cellIs" priority="14" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="notEqual">
+    <cfRule type="cellIs" priority="15" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125"/>
-    <col min="2" max="2" width="4.42578125"/>
-    <col min="3" max="3" width="32.140625"/>
-    <col min="4" max="4" width="11.7109375" style="15"/>
-    <col min="5" max="5" width="11.7109375"/>
-    <col min="6" max="6" width="12.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="11.5703125"/>
-    <col min="9" max="9" width="15.7109375"/>
-    <col min="10" max="1025" width="11.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="18" t="n">
+        <v>20151127</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="C4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="19">
-        <v>20151127</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="22" t="n">
+        <f aca="false">AVERAGE(D4:F4)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="27">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="23">
-        <f>AVERAGE(D4:F4)</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="C5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="26" t="n">
         <v>0.67</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="23">
-        <f>AVERAGE(D5:F5)</f>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="22" t="n">
+        <f aca="false">AVERAGE(D5:F5)</f>
         <v>0.67</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="23" t="e">
-        <f>AVERAGE(D6:F6)</f>
+      <c r="C6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="22" t="e">
+        <f aca="false">AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="24"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="31"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="23"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="30"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="notEqual">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="notEqual">
+    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="notEqual">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2"/>
-    <col min="2" max="2" width="4.42578125" style="2"/>
-    <col min="3" max="3" width="32.140625" style="2"/>
-    <col min="4" max="4" width="11.7109375" style="15"/>
-    <col min="5" max="5" width="11.7109375" style="2"/>
-    <col min="6" max="6" width="12.42578125" style="2"/>
-    <col min="7" max="7" width="19.140625" style="2"/>
-    <col min="8" max="8" width="11.5703125" style="2"/>
-    <col min="9" max="9" width="15.7109375" style="2"/>
-    <col min="10" max="1025" width="11.5703125" style="2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.42914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.42914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="18" t="n">
+        <v>20151127</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="22" t="n">
+        <f aca="false">AVERAGE(D4:F4)</f>
+        <v>0.67</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="19">
-        <v>20151127</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="22" t="n">
+        <f aca="false">AVERAGE(D5:F5)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.67</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="23">
-        <f>AVERAGE(D4:F4)</f>
-        <v>0.67</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
-        <v>2</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="27">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="23">
-        <f>AVERAGE(D5:F5)</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="23" t="e">
-        <f>AVERAGE(D6:F6)</f>
+      <c r="C6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="22" t="e">
+        <f aca="false">AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C7"/>
-      <c r="D7" s="24"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="31"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0"/>
+      <c r="D7" s="23"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="30"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="notEqual">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="notEqual">
+    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A13:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125"/>
-    <col min="2" max="2" width="15.28515625"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125"/>
-    <col min="6" max="6" width="20.5703125"/>
-    <col min="7" max="7" width="16"/>
-    <col min="8" max="8" width="15.42578125"/>
-    <col min="9" max="9" width="15"/>
-    <col min="10" max="1025" width="10.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5748987854251"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="38" t="n">
+        <v>202000</v>
+      </c>
+      <c r="C15" s="38" t="n">
+        <f aca="false">SUM(C16:C17)</f>
+        <v>130775.3</v>
+      </c>
+      <c r="D15" s="39" t="n">
+        <f aca="false">(C15 * 100)/B15</f>
+        <v>64.7402475247525</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41" t="n">
+        <v>2424000</v>
+      </c>
+      <c r="H15" s="38" t="n">
+        <v>130775.3</v>
+      </c>
+      <c r="I15" s="42" t="n">
+        <f aca="false">(H15 * 100)/G15</f>
+        <v>5.39502062706271</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="37">
-        <v>202000</v>
-      </c>
-      <c r="C15" s="37">
-        <f>SUM(C16:C17)</f>
-        <v>130775.29999999999</v>
-      </c>
-      <c r="D15" s="38">
-        <f>(C15 * 100)/B15</f>
-        <v>64.740247524752462</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40">
-        <v>2424000</v>
-      </c>
-      <c r="H15" s="41">
-        <f>C15+SUM(C:C)</f>
-        <v>392325.89999999997</v>
-      </c>
-      <c r="I15" s="42">
-        <f>(H15 * 100)/G15</f>
-        <v>16.185061881188119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="40">
-        <f>B15/2</f>
+      <c r="B16" s="41" t="n">
+        <f aca="false">B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C16" s="47">
-        <v>54818.400000000001</v>
-      </c>
-      <c r="D16" s="45">
-        <f>(C16 * 100)/B16</f>
-        <v>54.275643564356436</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="43" t="n">
+        <v>54818.4</v>
+      </c>
+      <c r="D16" s="44" t="n">
+        <f aca="false">(C16 * 100)/B16</f>
+        <v>54.2756435643564</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="40">
-        <f>B15/2</f>
+        <v>40</v>
+      </c>
+      <c r="B17" s="41" t="n">
+        <f aca="false">B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C17" s="47">
-        <v>75956.899999999994</v>
-      </c>
-      <c r="D17" s="46">
-        <f>(C17 * 100)/B17</f>
-        <v>75.204851485148509</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="43" t="n">
+        <v>75956.9</v>
+      </c>
+      <c r="D17" s="47" t="n">
+        <f aca="false">(C17 * 100)/B17</f>
+        <v>75.2048514851485</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G13:I13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C1:G6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" style="2"/>
-    <col min="2" max="2" width="4" style="2"/>
-    <col min="3" max="1025" width="11.5703125" style="2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-    </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="n">
+        <v>20151127</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19">
-        <v>20151127</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="19">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="19">
+      <c r="D4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="19">
+      <c r="D5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G3">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="notEqual">
+    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Desviacion de costos" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Apego a Procesos" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Apego a Productos" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Física" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Funcional" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Crecimiento anual de ventas" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Indice de Satisfacción" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Desviacion de esfuerzo" sheetId="1" r:id="rId1"/>
+    <sheet name="Desviacion de costos" sheetId="2" r:id="rId2"/>
+    <sheet name="Apego a Procesos" sheetId="3" r:id="rId3"/>
+    <sheet name="Apego a Productos" sheetId="4" r:id="rId4"/>
+    <sheet name="Física" sheetId="5" r:id="rId5"/>
+    <sheet name="Funcional" sheetId="6" r:id="rId6"/>
+    <sheet name="Crecimiento anual de ventas" sheetId="7" r:id="rId7"/>
+    <sheet name="Indice de Satisfacción" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
   <si>
     <t>Versión 1.0</t>
   </si>
@@ -147,25 +146,27 @@
     <t>Marisol</t>
   </si>
   <si>
-    <t>&lt;cliente&gt;</t>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>204/60*sueldo de involucrados en el proceso</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>Cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="0%"/>
-    <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="GENERAL"/>
-    <numFmt numFmtId="167" formatCode="MMM\-YY"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="DD\-MMM"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="\$#,##0.00;[RED]&quot;-$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]&quot;-$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -174,22 +175,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -203,12 +189,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -223,11 +204,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -269,21 +250,29 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -296,7 +285,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -311,21 +300,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF604A7B"/>
@@ -334,7 +333,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -345,14 +344,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF604A7B"/>
@@ -363,435 +368,490 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="51">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="33">
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -850,20 +910,38 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -880,12 +958,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -893,6 +972,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -947,6 +1028,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -964,12 +1059,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -977,6 +1073,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1031,14 +1129,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="66597604"/>
-        <c:axId val="2237685"/>
+        <c:axId val="103958784"/>
+        <c:axId val="103972864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66597604"/>
+        <c:axId val="103958784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,14 +1174,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2237685"/>
+        <c:crossAx val="103972864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2237685"/>
+        <c:axId val="103972864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,6 +1198,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1089,12 +1210,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66597604"/>
+        <c:crossAx val="103958784"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1103,6 +1225,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1112,38 +1235,51 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1151,50 +1287,73 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Funcional!$C$4:$C$6</c:f>
+              <c:f>'Apego a Procesos'!$C$13:$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Línea Base</c:v>
+                  <c:v>Metricas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Entregables</c:v>
+                  <c:v>Calidad</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Control de Cambios</c:v>
+                  <c:v>Cambios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Funcional!$G$4:$G$6</c:f>
+              <c:f>'Apego a Procesos'!$G$13:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="26531676"/>
-        <c:axId val="49815176"/>
+        <c:axId val="106959232"/>
+        <c:axId val="106960768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26531676"/>
+        <c:axId val="106959232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,14 +1370,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49815176"/>
+        <c:crossAx val="106960768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49815176"/>
+        <c:axId val="106960768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1235,6 +1395,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1246,17 +1407,19 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="26531676"/>
+        <c:crossAx val="106959232"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1264,160 +1427,137 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"Planeado"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$A$14</c:f>
+              <c:f>'Apego a Productos'!$C$4:$C$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Noviembre</c:v>
+                  <c:v>Plan de Proyecto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Estimación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tickets de Servicio</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Carta de aceptación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Reporte de Monitoreo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Crecimiento anual de ventas'!$B$15</c:f>
+              <c:f>'Apego a Productos'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>202000</c:v>
+                  <c:v>0.86230000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"Real"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Noviembre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Crecimiento anual de ventas'!$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>130775.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="85475275"/>
-        <c:axId val="80559131"/>
+        <c:axId val="107056512"/>
+        <c:axId val="107062400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85475275"/>
+        <c:axId val="107056512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,14 +1574,859 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80559131"/>
+        <c:crossAx val="107062400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80559131"/>
+        <c:axId val="107062400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="107056512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Productos'!$C$12:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Plan de métricas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plan de configuración</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plan de Calidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Productos'!$G$12:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="107619456"/>
+        <c:axId val="107620992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="107619456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="107620992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107620992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="107619456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Física!$C$4:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Elementos de Configuración</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Línea Base</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cambios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Física!$G$4:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75124999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="107668224"/>
+        <c:axId val="107669760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="107668224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="107669760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107669760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="107668224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Funcional!$C$4:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Línea Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entregables</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Control de Cambios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Funcional!$G$4:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="113566080"/>
+        <c:axId val="113567616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113566080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="113567616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113567616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="113566080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Planeado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+            </c:dLbl>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Crecimiento anual de ventas'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Crecimiento anual de ventas'!$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>202000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C0504D"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+            </c:dLbl>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Crecimiento anual de ventas'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Crecimiento anual de ventas'!$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>130775.29999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="108799104"/>
+        <c:axId val="108800640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="108799104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="108800640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108800640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +2452,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000">
+                  <a:rPr lang="es-MX" sz="1000" b="1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1479,7 +2464,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1491,12 +2478,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85475275"/>
+        <c:crossAx val="108799104"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1504,27 +2492,39 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1541,21 +2541,24 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1563,20 +2566,16 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Crecimiento anual de ventas'!$G$13:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Monto Total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1585,7 +2584,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>2424000</c:v>
@@ -1593,6 +2592,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1610,21 +2623,24 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1632,20 +2648,16 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Crecimiento anual de ventas'!$G$13:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Monto Total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1654,7 +2666,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>130775.3</c:v>
@@ -1662,14 +2674,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="76667871"/>
-        <c:axId val="1132918"/>
+        <c:axId val="108847488"/>
+        <c:axId val="108849024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76667871"/>
+        <c:axId val="108847488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,14 +2719,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1132918"/>
+        <c:crossAx val="108849024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1132918"/>
+        <c:axId val="108849024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,7 +2753,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000">
+                  <a:rPr lang="es-MX" sz="1000" b="1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1731,7 +2765,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1743,12 +2779,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="76667871"/>
+        <c:crossAx val="108847488"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1756,27 +2793,39 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1793,12 +2842,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1806,6 +2856,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1825,17 +2877,31 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$16:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.00;[Red]"-$"#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
                   <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54818.4</c:v>
+                  <c:v>54818.400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1853,12 +2919,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1866,6 +2933,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1885,25 +2954,47 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$17:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.00;[Red]"-$"#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
                   <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75956.9</c:v>
+                  <c:v>75956.899999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="22047535"/>
-        <c:axId val="88925429"/>
+        <c:axId val="108948864"/>
+        <c:axId val="108954752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22047535"/>
+        <c:axId val="108948864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,14 +3011,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88925429"/>
+        <c:crossAx val="108954752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88925429"/>
+        <c:axId val="108954752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,6 +3035,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1951,12 +3044,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22047535"/>
+        <c:crossAx val="108948864"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1965,6 +3059,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1974,190 +3069,343 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Indice de Satisfacción'!$E$2</c:f>
+              <c:f>'Crecimiento anual de ventas'!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Noviembre</c:v>
+                  <c:v>Planeado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Indice de Satisfacción'!$D$4:$D$6</c:f>
+              <c:f>('Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>&lt;cliente&gt;</c:v>
+                  <c:v>Diciembre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&lt;cliente&gt;</c:v>
+                  <c:v>Oriana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>&lt;cliente&gt;</c:v>
+                  <c:v>Marisol</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Indice de Satisfacción'!$E$4:$E$6</c:f>
+              <c:f>'Crecimiento anual de ventas'!$B$34:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>202000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>101000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Crecimiento anual de ventas'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oriana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marisol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Crecimiento anual de ventas'!$C$34:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>\$#,##0.00;[Red]"-$"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
+                  <c:v>32780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="54293765"/>
-        <c:axId val="38280187"/>
+        <c:axId val="58915840"/>
+        <c:axId val="61940480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54293765"/>
+        <c:axId val="58915840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="38280187"/>
+        <c:crossAx val="61940480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38280187"/>
+        <c:axId val="61940480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="54293765"/>
+        <c:crossAx val="58915840"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Crecimiento anual de ventas'!$G$34:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Crecimiento anual de ventas'!$G$35:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2424000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2220588.2000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="58837632"/>
+        <c:axId val="58954112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="58837632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58954112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58954112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58837632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2167,19 +3415,20 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Desviación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2187,6 +3436,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2218,10 +3469,10 @@
             <c:numRef>
               <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-2.82352941176471</c:v>
+                  <c:v>-2.8235294117647061</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2230,25 +3481,46 @@
                   <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.39130434782609</c:v>
+                  <c:v>-5.3913043478260869</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.126760563380282</c:v>
+                  <c:v>0.12676056338028169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="88966187"/>
-        <c:axId val="88321111"/>
+        <c:axId val="104075648"/>
+        <c:axId val="104077184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88966187"/>
+        <c:axId val="104075648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,14 +3537,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88321111"/>
+        <c:crossAx val="104077184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88321111"/>
+        <c:axId val="104077184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2290,6 +3563,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2301,12 +3575,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88966187"/>
+        <c:crossAx val="104075648"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2314,27 +3589,631 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$D$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Indice de Satisfacción'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$D$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Indice de Satisfacción'!$D$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$D$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diciembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Indice de Satisfacción'!$D$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="132798336"/>
+        <c:axId val="132799872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="132798336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132799872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132799872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132798336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$E$37:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.63725490196078427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51086956521739135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18485915492957747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171997824"/>
+        <c:axId val="172408832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171997824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172408832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172408832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171997824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$C$37:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$D$37:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="114665344"/>
+        <c:axId val="114666880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="114665344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114666880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114666880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114665344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2351,12 +4230,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2364,6 +4244,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2395,7 +4277,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$C$20:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>22.33</c:v>
@@ -2404,7 +4286,7 @@
                   <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.4</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.5</c:v>
@@ -2418,6 +4300,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2435,12 +4331,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2448,6 +4345,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2479,7 +4378,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$D$20:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>47.4</c:v>
@@ -2491,7 +4390,7 @@
                   <c:v>10.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.7</c:v>
+                  <c:v>35.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2502,14 +4401,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="15804618"/>
-        <c:axId val="16028719"/>
+        <c:axId val="105336192"/>
+        <c:axId val="105350272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15804618"/>
+        <c:axId val="105336192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,14 +4446,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16028719"/>
+        <c:crossAx val="105350272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16028719"/>
+        <c:axId val="105350272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,6 +4470,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2560,12 +4482,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15804618"/>
+        <c:crossAx val="105336192"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2574,6 +4497,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2583,27 +4507,39 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2620,12 +4556,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2633,6 +4570,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2664,19 +4603,19 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$E$20:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1.12270488132557</c:v>
+                  <c:v>-1.1227048813255711</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.436082474226804</c:v>
+                  <c:v>0.43608247422680413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.49090909090909</c:v>
+                  <c:v>-5.4909090909090912</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2687,14 +4626,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="71245217"/>
-        <c:axId val="6063734"/>
+        <c:axId val="105371136"/>
+        <c:axId val="105372672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71245217"/>
+        <c:axId val="105371136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,14 +4671,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="6063734"/>
+        <c:crossAx val="105372672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6063734"/>
+        <c:axId val="105372672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2736,6 +4697,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2747,12 +4709,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71245217"/>
+        <c:crossAx val="105371136"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2760,38 +4723,430 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$C$31:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>89.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$D$31:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17.933399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="132891008"/>
+        <c:axId val="132892544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="132891008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132892544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132892544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132891008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$E$31:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.79922301836094933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1715909090909091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50295454545454543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.56860689655172425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.17111111111111119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="115671040"/>
+        <c:axId val="115672576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="115671040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115672576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115672576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115671040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2799,6 +5154,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2830,37 +5187,58 @@
             <c:numRef>
               <c:f>'Apego a Procesos'!$G$4:$G$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.90625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="7828885"/>
-        <c:axId val="65259803"/>
+        <c:axId val="105415808"/>
+        <c:axId val="105417344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="7828885"/>
+        <c:axId val="105415808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,14 +5255,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="65259803"/>
+        <c:crossAx val="105417344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65259803"/>
+        <c:axId val="105417344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,6 +5279,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2911,17 +5291,19 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7828885"/>
+        <c:crossAx val="105415808"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2929,640 +5311,27 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Apego a Procesos'!$C$13:$C$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Metricas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cambios</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Apego a Procesos'!$G$13:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="89351905"/>
-        <c:axId val="47999787"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="89351905"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="47999787"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="47999787"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="89351905"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Apego a Productos'!$C$4:$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Plan de Proyecto</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Estimación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tickets de Servicio</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Carta de aceptación</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Reporte de Monitoreo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Apego a Productos'!$G$4:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.857</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="33581245"/>
-        <c:axId val="11578033"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="33581245"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="11578033"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="11578033"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="33581245"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Apego a Productos'!$C$12:$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Plan de métricas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Plan de configuración</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Plan de Calidad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Apego a Productos'!$G$12:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="62849316"/>
-        <c:axId val="55935409"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="62849316"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="55935409"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="55935409"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="62849316"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Física!$C$4:$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Elementos de Configuración</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Línea Base</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cambios</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Física!$G$4:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="8096856"/>
-        <c:axId val="27183761"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="8096856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="27183761"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="27183761"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="8096856"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3576,14 +5345,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="2 Gráfico"/>
+        <xdr:cNvPr id="2" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="920520" y="192600"/>
-        <a:ext cx="8988480" cy="2743920"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3596,24 +5365,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>307080</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:colOff>328247</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>551160</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:colOff>572327</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132053</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="4 Gráfico"/>
+        <xdr:cNvPr id="3" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7000560" y="3189600"/>
-        <a:ext cx="7851240" cy="3001680"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3623,11 +5392,71 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518583</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="7 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="8 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3641,14 +5470,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="330120" y="192600"/>
-        <a:ext cx="6172920" cy="2818080"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3671,14 +5500,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6599520" y="173520"/>
-        <a:ext cx="6031080" cy="2799000"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3688,11 +5517,71 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137582</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>178859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137582</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>64559</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>189441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>75141</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3701,19 +5590,19 @@
       <xdr:rowOff>97200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1182960</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363810</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="336600" y="2954520"/>
-        <a:ext cx="9431280" cy="2855880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3731,19 +5620,19 @@
       <xdr:rowOff>68760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>144360</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>134835</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="6 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9864360" y="2926080"/>
-        <a:ext cx="6307200" cy="2846520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3757,7 +5646,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3771,14 +5660,14 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="336600" y="2668680"/>
-        <a:ext cx="6647400" cy="2856240"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3791,24 +5680,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>384120</xdr:colOff>
+      <xdr:colOff>365070</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>163935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>344520</xdr:colOff>
+      <xdr:colOff>325470</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>162495</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8855640" y="2602080"/>
-        <a:ext cx="6500880" cy="2856240"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3822,7 +5711,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3836,14 +5725,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="412560" y="1344960"/>
-        <a:ext cx="5790600" cy="2855880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3857,7 +5746,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3871,14 +5760,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="329040" y="1375560"/>
-        <a:ext cx="5859000" cy="2855880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3892,7 +5781,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3906,14 +5795,14 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="108000" y="40320"/>
-        <a:ext cx="6059880" cy="2399040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3931,19 +5820,19 @@
       <xdr:rowOff>141120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>753840</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1365</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8538480" y="3135600"/>
-        <a:ext cx="5704560" cy="2742120"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3966,14 +5855,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="12" name="8 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9529200" y="49680"/>
-        <a:ext cx="5520600" cy="2084400"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3983,32 +5872,92 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="1 Gráfico"/>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="783360" y="1415520"/>
-        <a:ext cx="5751720" cy="2855880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4021,1353 +5970,1858 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4291497975709"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.4251012145749"/>
+    <col min="1" max="1" width="2.28515625"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="10.140625"/>
+    <col min="4" max="4" width="9.7109375"/>
+    <col min="5" max="5" width="10.140625"/>
+    <col min="6" max="6" width="8.5703125"/>
+    <col min="7" max="7" width="10.140625"/>
+    <col min="8" max="8" width="9.7109375"/>
+    <col min="9" max="10" width="11.42578125"/>
+    <col min="11" max="16" width="10.7109375"/>
+    <col min="17" max="17" width="13"/>
+    <col min="18" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="n">
+      <c r="K17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3">
         <v>46692</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="6">
         <v>51</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="6">
         <v>195</v>
       </c>
-      <c r="E20" s="6" t="n">
-        <f aca="false">(C20-D20)/C20</f>
-        <v>-2.82352941176471</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:E25" si="0">(C20-D20)/C20</f>
+        <v>-2.8235294117647061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="9">
         <v>35</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" s="9" t="n">
-        <f aca="false">(C21-D21)/C21</f>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="9">
         <v>80</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="9">
         <v>45</v>
       </c>
-      <c r="E22" s="9" t="n">
-        <f aca="false">(C22-D22)/C22</f>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="9">
         <v>23</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="9">
         <v>147</v>
       </c>
-      <c r="E23" s="9" t="n">
-        <f aca="false">(C23-D23)/C23</f>
-        <v>-5.39130434782609</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="7" t="s">
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>-5.3913043478260869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="9">
         <v>90</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="9">
         <v>0</v>
       </c>
-      <c r="E24" s="9" t="n">
-        <f aca="false">(C24-D24)/C24</f>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="9">
         <v>142</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="9">
         <v>124</v>
       </c>
-      <c r="E25" s="9" t="n">
-        <f aca="false">(C25-D25)/C25</f>
-        <v>0.126760563380282</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12676056338028169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+    </row>
+    <row r="30" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>40878</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6">
+        <f>51*4</f>
+        <v>204</v>
+      </c>
+      <c r="D37" s="6">
+        <v>74</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" ref="E37:E42" si="1">(C37-D37)/C37</f>
+        <v>0.63725490196078427</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="9">
+        <f>35*4</f>
+        <v>140</v>
+      </c>
+      <c r="D38" s="9">
+        <v>54</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="1"/>
+        <v>0.61428571428571432</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="9">
+        <v>80</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="9">
+        <f>23*4</f>
+        <v>92</v>
+      </c>
+      <c r="D40" s="9">
+        <v>45</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="1"/>
+        <v>0.51086956521739135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="9">
+        <v>90</v>
+      </c>
+      <c r="D41" s="9">
+        <v>187</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.0777777777777777</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="9">
+        <f>142*4</f>
+        <v>568</v>
+      </c>
+      <c r="D42" s="9">
+        <v>463</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="1"/>
+        <v>0.18485915492957747</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4291497975709"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5708502024291"/>
+    <col min="1" max="1" width="2.28515625"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="12.140625"/>
+    <col min="4" max="4" width="11.140625"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="6" width="10.140625"/>
+    <col min="7" max="7" width="9.7109375"/>
+    <col min="8" max="15" width="11.5703125"/>
+    <col min="16" max="16" width="13"/>
+    <col min="17" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="1" customFormat="true" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="n">
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3">
         <v>46692</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="12">
         <v>22.33</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="12">
         <v>47.4</v>
       </c>
-      <c r="E20" s="12" t="n">
-        <f aca="false">(C20-D20)/C20</f>
-        <v>-1.12270488132557</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
+      <c r="E20" s="13">
+        <f t="shared" ref="E20:E25" si="0">(C20-D20)/C20</f>
+        <v>-1.1227048813255711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="12">
         <v>3.96</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="12">
         <v>0</v>
       </c>
-      <c r="E21" s="13" t="n">
-        <f aca="false">(C21-D21)/C21</f>
+      <c r="E21" s="14">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="11" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D22" s="11" t="n">
+      <c r="C22" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D22" s="12">
         <v>10.94</v>
       </c>
-      <c r="E22" s="13" t="n">
-        <f aca="false">(C22-D22)/C22</f>
-        <v>0.436082474226804</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="7" t="s">
+      <c r="E22" s="14">
+        <f t="shared" si="0"/>
+        <v>0.43608247422680413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="12">
         <v>5.5</v>
       </c>
-      <c r="D23" s="11" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="E23" s="12" t="n">
-        <f aca="false">(C23-D23)/C23</f>
-        <v>-5.49090909090909</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="7" t="s">
+      <c r="D23" s="12">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="0"/>
+        <v>-5.4909090909090912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="12">
         <v>29</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="12">
         <v>0</v>
       </c>
-      <c r="E24" s="13" t="n">
-        <f aca="false">(C24-D24)/C24</f>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="12">
         <v>22.5</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="12">
         <v>18</v>
       </c>
-      <c r="E25" s="12" t="n">
-        <f aca="false">(C25-D25)/C25</f>
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="50"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>40878</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="12">
+        <f>22.33*4</f>
+        <v>89.32</v>
+      </c>
+      <c r="D31" s="12">
+        <f>1.23*14.58</f>
+        <v>17.933399999999999</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" ref="E31:E36" si="1">(C31-D31)/C31</f>
+        <v>0.79922301836094933</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="12">
+        <f>3.96*4</f>
+        <v>15.84</v>
+      </c>
+      <c r="D32" s="12">
+        <f>0.9*14.58</f>
+        <v>13.122</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="1"/>
+        <v>0.1715909090909091</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="12">
+        <f>5.5*4</f>
+        <v>22</v>
+      </c>
+      <c r="D34" s="12">
+        <f>0.75*14.58</f>
+        <v>10.935</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>0.50295454545454543</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="12">
+        <v>29</v>
+      </c>
+      <c r="D35" s="12">
+        <f>3.12*14.58</f>
+        <v>45.489600000000003</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.56860689655172425</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12">
+        <f>22.5*4</f>
+        <v>90</v>
+      </c>
+      <c r="D36" s="12">
+        <v>105.4</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.17111111111111119</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5708502024291"/>
+    <col min="1" max="1" width="3.42578125"/>
+    <col min="2" max="2" width="4.42578125"/>
+    <col min="3" max="3" width="19.7109375"/>
+    <col min="4" max="4" width="13.42578125" style="15"/>
+    <col min="5" max="5" width="13.42578125"/>
+    <col min="6" max="6" width="13.7109375"/>
+    <col min="7" max="7" width="23.28515625"/>
+    <col min="8" max="8" width="5.140625"/>
+    <col min="9" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="15" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="19">
+        <v>20151127</v>
+      </c>
+      <c r="E3" s="20">
+        <v>20151211</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23" t="e">
+        <f t="shared" ref="G4:G9" si="0">AVERAGE(D4:F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="20">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="20">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.8125</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23">
+        <f t="shared" si="0"/>
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="24"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="F11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19" t="n">
+      <c r="G12" s="26"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22" t="e">
-        <f aca="false">AVERAGE(D4:F4)</f>
+      <c r="C13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="23" t="e">
+        <f>AVERAGE(D13:F13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19" t="n">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22" t="n">
-        <f aca="false">AVERAGE(D5:F5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="19" t="n">
+      <c r="C14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="23" t="e">
+        <f>AVERAGE(D14:F14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22" t="n">
-        <f aca="false">AVERAGE(D6:F6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22" t="n">
-        <f aca="false">AVERAGE(D7:F7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="21" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="n">
-        <f aca="false">AVERAGE(D8:F8)</f>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22" t="e">
-        <f aca="false">AVERAGE(D9:F9)</f>
+      <c r="C15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="23" t="e">
+        <f>AVERAGE(D15:F15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="23"/>
-      <c r="O10" s="24"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="24"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="O12" s="24"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="22" t="e">
-        <f aca="false">AVERAGE(D13:F13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="22" t="e">
-        <f aca="false">AVERAGE(D14:F14)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="22" t="e">
-        <f aca="false">AVERAGE(D15:F15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:F15">
-    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C15">
-    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" priority="8" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F12">
-    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" priority="11" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5708502024291"/>
+    <col min="1" max="1" width="3.42578125"/>
+    <col min="2" max="2" width="4.42578125"/>
+    <col min="3" max="3" width="32.140625"/>
+    <col min="4" max="4" width="11.7109375" style="15"/>
+    <col min="5" max="5" width="11.7109375"/>
+    <col min="6" max="6" width="12.42578125"/>
+    <col min="7" max="7" width="19.42578125"/>
+    <col min="8" max="8" width="11.5703125"/>
+    <col min="9" max="9" width="15.7109375"/>
+    <col min="10" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="15" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="19">
+        <v>20151127</v>
+      </c>
+      <c r="E3" s="18">
+        <v>20151211</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="23">
+        <f>AVERAGE(D4:F4)</f>
+        <v>0.86230000000000007</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="23">
+        <f>AVERAGE(D5:F5)</f>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="23" t="e">
+        <f>AVERAGE(D6:F6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="23">
+        <f>AVERAGE(D7:F7)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="23" t="e">
+        <f>AVERAGE(D8:F8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="24"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="F10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="18" t="n">
-        <v>20151127</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="n">
+      <c r="F11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="26" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="22" t="n">
-        <f aca="false">AVERAGE(D4:F4)</f>
-        <v>0.857</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="n">
+      <c r="C12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23" t="e">
+        <f>AVERAGE(D12:F12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="26" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="22" t="n">
-        <f aca="false">AVERAGE(D5:F5)</f>
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17" t="n">
+      <c r="C13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23" t="e">
+        <f>AVERAGE(D13:F13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22" t="e">
-        <f aca="false">AVERAGE(D6:F6)</f>
+      <c r="C14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23" t="e">
+        <f>AVERAGE(D14:F14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="22" t="n">
-        <f aca="false">AVERAGE(D7:F7)</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="22" t="e">
-        <f aca="false">AVERAGE(D8:F8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="23"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22" t="e">
-        <f aca="false">AVERAGE(D12:F12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22" t="e">
-        <f aca="false">AVERAGE(D13:F13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22" t="e">
-        <f aca="false">AVERAGE(D14:F14)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="30"/>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="31"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" priority="8" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B14">
-    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" priority="11" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F14">
-    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" priority="14" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" priority="15" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5708502024291"/>
+    <col min="1" max="1" width="3.42578125"/>
+    <col min="2" max="2" width="4.42578125"/>
+    <col min="3" max="3" width="32.140625"/>
+    <col min="4" max="4" width="11.7109375" style="15"/>
+    <col min="5" max="5" width="11.7109375"/>
+    <col min="6" max="6" width="12.42578125"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="11.5703125"/>
+    <col min="9" max="9" width="15.7109375"/>
+    <col min="10" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="15" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="19">
         <v>20151127</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18">
+        <v>20151211</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="n">
+      <c r="G3" s="21"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="26" t="n">
+      <c r="D4" s="27">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="22" t="n">
-        <f aca="false">AVERAGE(D4:F4)</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="n">
+      <c r="E4" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="23">
+        <f>AVERAGE(D4:F4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="26" t="n">
+      <c r="D5" s="27">
         <v>0.67</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="22" t="n">
-        <f aca="false">AVERAGE(D5:F5)</f>
-        <v>0.67</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17" t="n">
+      <c r="E5" s="27">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="23">
+        <f>AVERAGE(D5:F5)</f>
+        <v>0.75124999999999997</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22" t="e">
-        <f aca="false">AVERAGE(D6:F6)</f>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="23" t="e">
+        <f>AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="23"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="30"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="24"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="31"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.5708502024291"/>
+    <col min="1" max="1" width="3.42578125" style="2"/>
+    <col min="2" max="2" width="4.42578125" style="2"/>
+    <col min="3" max="3" width="32.140625" style="2"/>
+    <col min="4" max="4" width="11.7109375" style="15"/>
+    <col min="5" max="5" width="11.7109375" style="2"/>
+    <col min="6" max="6" width="12.42578125" style="2"/>
+    <col min="7" max="7" width="19.140625" style="2"/>
+    <col min="8" max="8" width="11.5703125" style="2"/>
+    <col min="9" max="9" width="15.7109375" style="2"/>
+    <col min="10" max="1025" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="15" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="19">
         <v>20151127</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18">
+        <v>2015121</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="n">
+      <c r="G3" s="21"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="26" t="n">
+      <c r="D4" s="27">
         <v>0.67</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="22" t="n">
-        <f aca="false">AVERAGE(D4:F4)</f>
+      <c r="E4" s="27">
         <v>0.67</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="n">
+      <c r="F4" s="27"/>
+      <c r="G4" s="23">
+        <f>AVERAGE(D4:F4)</f>
+        <v>0.67</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="26" t="n">
+      <c r="D5" s="27">
         <v>1</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="22" t="n">
-        <f aca="false">AVERAGE(D5:F5)</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17" t="n">
+      <c r="E5" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="23">
+        <f>AVERAGE(D5:F5)</f>
+        <v>0.875</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22" t="e">
-        <f aca="false">AVERAGE(D6:F6)</f>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="23" t="e">
+        <f>AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0"/>
-      <c r="D7" s="23"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="30"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7"/>
+      <c r="D7" s="24"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="31"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A13:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13:I36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5708502024292"/>
+    <col min="1" max="1" width="23.5703125"/>
+    <col min="2" max="2" width="15.28515625"/>
+    <col min="3" max="3" width="14.140625"/>
+    <col min="4" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="20.5703125"/>
+    <col min="7" max="7" width="16"/>
+    <col min="8" max="8" width="15.42578125"/>
+    <col min="9" max="9" width="15"/>
+    <col min="10" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="31" t="s">
+    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="33"/>
@@ -5381,195 +7835,261 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="38" t="n">
+      <c r="B15" s="38">
         <v>202000</v>
       </c>
-      <c r="C15" s="38" t="n">
-        <f aca="false">SUM(C16:C17)</f>
+      <c r="C15" s="38">
+        <f>SUM(C16:C17)</f>
+        <v>130775.29999999999</v>
+      </c>
+      <c r="D15" s="39">
+        <f>(C15 * 100)/B15</f>
+        <v>64.740247524752462</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41">
+        <v>2424000</v>
+      </c>
+      <c r="H15" s="38">
         <v>130775.3</v>
       </c>
-      <c r="D15" s="39" t="n">
-        <f aca="false">(C15 * 100)/B15</f>
-        <v>64.7402475247525</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41" t="n">
-        <v>2424000</v>
-      </c>
-      <c r="H15" s="38" t="n">
-        <v>130775.3</v>
-      </c>
-      <c r="I15" s="42" t="n">
-        <f aca="false">(H15 * 100)/G15</f>
-        <v>5.39502062706271</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="I15" s="42">
+        <f>(H15 * 100)/G15</f>
+        <v>5.3950206270627064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="41" t="n">
-        <f aca="false">B15/2</f>
+      <c r="B16" s="41">
+        <f>B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C16" s="43" t="n">
-        <v>54818.4</v>
-      </c>
-      <c r="D16" s="44" t="n">
-        <f aca="false">(C16 * 100)/B16</f>
-        <v>54.2756435643564</v>
+      <c r="C16" s="43">
+        <v>54818.400000000001</v>
+      </c>
+      <c r="D16" s="44">
+        <f>(C16 * 100)/B16</f>
+        <v>54.275643564356436</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="41" t="n">
-        <f aca="false">B15/2</f>
+      <c r="B17" s="41">
+        <f>B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C17" s="43" t="n">
-        <v>75956.9</v>
-      </c>
-      <c r="D17" s="47" t="n">
-        <f aca="false">(C17 * 100)/B17</f>
-        <v>75.2048514851485</v>
+      <c r="C17" s="43">
+        <v>75956.899999999994</v>
+      </c>
+      <c r="D17" s="47">
+        <f>(C17 * 100)/B17</f>
+        <v>75.204851485148509</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
       <c r="I17" s="46"/>
     </row>
+    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="38">
+        <v>202000</v>
+      </c>
+      <c r="C34" s="38">
+        <f>SUM(C35:C36)</f>
+        <v>32780</v>
+      </c>
+      <c r="D34" s="39">
+        <f>(C34 * 100)/B34</f>
+        <v>16.227722772277229</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="41">
+        <f>B34/2</f>
+        <v>101000</v>
+      </c>
+      <c r="C35" s="43">
+        <v>10775</v>
+      </c>
+      <c r="D35" s="44">
+        <f>(C35 * 100)/B35</f>
+        <v>10.668316831683168</v>
+      </c>
+      <c r="G35" s="41">
+        <v>2424000</v>
+      </c>
+      <c r="H35" s="38">
+        <v>2220588.2000000002</v>
+      </c>
+      <c r="I35" s="42">
+        <f>(H35 * 100)/G35</f>
+        <v>91.608424092409251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="41">
+        <f>B34/2</f>
+        <v>101000</v>
+      </c>
+      <c r="C36" s="43">
+        <v>22005</v>
+      </c>
+      <c r="D36" s="47">
+        <f>(C36 * 100)/B36</f>
+        <v>21.787128712871286</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G33:I33"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="11.5708502024291"/>
+    <col min="1" max="1" width="3" style="2"/>
+    <col min="2" max="2" width="4" style="2"/>
+    <col min="3" max="1024" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="15" t="s">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2"/>
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="n">
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="19">
         <v>20151127</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="18">
+        <v>20151211</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="18" t="n">
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="19">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="18" t="n">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="19">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="18" t="n">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="19">
         <v>3</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:G3">
-    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="E3:F3">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="989" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Desviacion de esfuerzo" sheetId="1" r:id="rId1"/>
-    <sheet name="Desviacion de costos" sheetId="2" r:id="rId2"/>
-    <sheet name="Apego a Procesos" sheetId="3" r:id="rId3"/>
-    <sheet name="Apego a Productos" sheetId="4" r:id="rId4"/>
-    <sheet name="Física" sheetId="5" r:id="rId5"/>
-    <sheet name="Funcional" sheetId="6" r:id="rId6"/>
-    <sheet name="Crecimiento anual de ventas" sheetId="7" r:id="rId7"/>
-    <sheet name="Indice de Satisfacción" sheetId="8" r:id="rId8"/>
+    <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Desviacion de costos" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Apego a Procesos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Apego a Productos" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Física" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Funcional" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Crecimiento anual de ventas" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Indice de Satisfacción" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
   <si>
     <t>Versión 1.0</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE</t>
   </si>
   <si>
     <t>Planeado</t>
@@ -53,7 +57,13 @@
     <t>Soporte</t>
   </si>
   <si>
+    <t>204/60*sueldo de involucrados en el proceso</t>
+  </si>
+  <si>
     <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
   </si>
   <si>
     <t>&lt;Periodo&gt;</t>
@@ -145,28 +155,24 @@
   <si>
     <t>Marisol</t>
   </si>
-  <si>
-    <t>Diciembre</t>
-  </si>
-  <si>
-    <t>204/60*sueldo de involucrados en el proceso</t>
-  </si>
-  <si>
-    <t>NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]&quot;-$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="GENERAL"/>
+    <numFmt numFmtId="167" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="168" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
+    <numFmt numFmtId="171" formatCode="DD\-MMM"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="\$#,##0.00;[RED]&quot;-$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -175,7 +181,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -189,7 +210,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -204,11 +238,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -250,29 +284,21 @@
     </fill>
   </fills>
   <borders count="11">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -285,7 +311,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -300,31 +326,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin">
         <color rgb="FF604A7B"/>
@@ -333,7 +349,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -344,20 +360,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin">
         <color rgb="FF604A7B"/>
@@ -368,490 +378,607 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="51">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="5" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="5" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="32">
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+      <numFmt numFmtId="164" formatCode="0%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+      <numFmt numFmtId="164" formatCode="0%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -896,7 +1023,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF9BBB59"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -910,38 +1037,20 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -958,13 +1067,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -972,8 +1080,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1028,20 +1134,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1059,13 +1151,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C0504D"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1073,8 +1164,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1129,35 +1218,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103958784"/>
-        <c:axId val="103972864"/>
+        <c:overlap val="0"/>
+        <c:axId val="41402102"/>
+        <c:axId val="84788040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103958784"/>
+        <c:axId val="41402102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,15 +1242,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="103972864"/>
+        <c:crossAx val="84788040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103972864"/>
+        <c:axId val="84788040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1265,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1210,13 +1276,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="103958784"/>
+        <c:crossAx val="41402102"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1225,7 +1290,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1235,51 +1299,38 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1287,8 +1338,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1311,49 +1360,28 @@
             <c:numRef>
               <c:f>'Apego a Procesos'!$G$13:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106959232"/>
-        <c:axId val="106960768"/>
+        <c:overlap val="0"/>
+        <c:axId val="79371479"/>
+        <c:axId val="93097140"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106959232"/>
+        <c:axId val="79371479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,15 +1398,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="106960768"/>
+        <c:crossAx val="93097140"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106960768"/>
+        <c:axId val="93097140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1395,7 +1422,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1407,19 +1433,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="106959232"/>
+        <c:crossAx val="79371479"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1427,51 +1451,38 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1479,8 +1490,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1509,55 +1518,34 @@
             <c:numRef>
               <c:f>'Apego a Productos'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.86230000000000007</c:v>
+                  <c:v>0.8623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77499999999999991</c:v>
+                  <c:v>0.775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.8571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107056512"/>
-        <c:axId val="107062400"/>
+        <c:overlap val="0"/>
+        <c:axId val="52984951"/>
+        <c:axId val="98292936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107056512"/>
+        <c:axId val="52984951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,15 +1562,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="107062400"/>
+        <c:crossAx val="98292936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107062400"/>
+        <c:axId val="98292936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1599,7 +1586,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1611,19 +1597,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="107056512"/>
+        <c:crossAx val="52984951"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1631,51 +1615,38 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1683,8 +1654,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1707,49 +1676,28 @@
             <c:numRef>
               <c:f>'Apego a Productos'!$G$12:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107619456"/>
-        <c:axId val="107620992"/>
+        <c:overlap val="0"/>
+        <c:axId val="70344810"/>
+        <c:axId val="73766238"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107619456"/>
+        <c:axId val="70344810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,15 +1714,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="107620992"/>
+        <c:crossAx val="73766238"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107620992"/>
+        <c:axId val="73766238"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1791,7 +1738,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1803,19 +1749,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="107619456"/>
+        <c:crossAx val="70344810"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1823,51 +1767,38 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1875,8 +1806,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1899,49 +1828,28 @@
             <c:numRef>
               <c:f>Física!$G$4:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75124999999999997</c:v>
+                  <c:v>0.75125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107668224"/>
-        <c:axId val="107669760"/>
+        <c:overlap val="0"/>
+        <c:axId val="72326397"/>
+        <c:axId val="79024392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107668224"/>
+        <c:axId val="72326397"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,15 +1866,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="107669760"/>
+        <c:crossAx val="79024392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107669760"/>
+        <c:axId val="79024392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1983,7 +1890,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1995,19 +1901,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="107668224"/>
+        <c:crossAx val="72326397"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2015,51 +1919,38 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2067,8 +1958,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2091,7 +1980,7 @@
             <c:numRef>
               <c:f>Funcional!$G$4:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.67</c:v>
@@ -2100,40 +1989,19 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="113566080"/>
-        <c:axId val="113567616"/>
+        <c:overlap val="0"/>
+        <c:axId val="37213918"/>
+        <c:axId val="79468550"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113566080"/>
+        <c:axId val="37213918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,15 +2018,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="113567616"/>
+        <c:crossAx val="79468550"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113567616"/>
+        <c:axId val="79468550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2175,7 +2042,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2187,19 +2053,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="113566080"/>
+        <c:crossAx val="37213918"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2207,65 +2071,58 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Planeado</c:v>
+            <c:strRef>
+              <c:f>"Planeado"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2273,8 +2130,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2291,7 +2146,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$15</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>202000</c:v>
@@ -2299,47 +2154,38 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Real</c:v>
+            <c:strRef>
+              <c:f>"Real"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C0504D"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2347,8 +2193,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2365,43 +2209,22 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$C$15</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>130775.29999999999</c:v>
+                  <c:v>130775.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108799104"/>
-        <c:axId val="108800640"/>
+        <c:overlap val="0"/>
+        <c:axId val="73575000"/>
+        <c:axId val="16305565"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108799104"/>
+        <c:axId val="73575000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,15 +2241,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108800640"/>
+        <c:crossAx val="16305565"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108800640"/>
+        <c:axId val="16305565"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2452,7 +2274,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-MX" sz="1000" b="1">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2464,9 +2286,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="1"/>
         </c:title>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2478,13 +2298,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108799104"/>
+        <c:crossAx val="73575000"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2492,39 +2311,27 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2541,24 +2348,21 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2566,16 +2370,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Crecimiento anual de ventas'!$G$13:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Monto Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2584,7 +2392,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$G$15</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>2424000</c:v>
@@ -2592,20 +2400,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2623,24 +2417,21 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C0504D"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2648,16 +2439,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Crecimiento anual de ventas'!$G$13:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Monto Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2666,7 +2461,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$H$15</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>130775.3</c:v>
@@ -2674,35 +2469,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108847488"/>
-        <c:axId val="108849024"/>
+        <c:overlap val="0"/>
+        <c:axId val="71059607"/>
+        <c:axId val="22254425"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108847488"/>
+        <c:axId val="71059607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,15 +2493,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108849024"/>
+        <c:crossAx val="22254425"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108849024"/>
+        <c:axId val="22254425"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,7 +2526,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-MX" sz="1000" b="1">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2765,9 +2538,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="1"/>
         </c:title>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2779,13 +2550,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108847488"/>
+        <c:crossAx val="71059607"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2793,39 +2563,27 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2842,13 +2600,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2856,8 +2613,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2877,31 +2632,17 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$16:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>\$#,##0.00;[Red]"-$"#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
+                <c:pt idx="0">
                   <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54818.400000000001</c:v>
+                  <c:v>54818.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2919,13 +2660,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C0504D"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2933,8 +2673,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2954,47 +2692,25 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$17:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>\$#,##0.00;[Red]"-$"#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
+                <c:pt idx="0">
                   <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75956.899999999994</c:v>
+                  <c:v>75956.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="108948864"/>
-        <c:axId val="108954752"/>
+        <c:axId val="93444083"/>
+        <c:axId val="56979944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108948864"/>
+        <c:axId val="93444083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,15 +2727,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108954752"/>
+        <c:crossAx val="56979944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108954752"/>
+        <c:axId val="56979944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,7 +2750,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3044,13 +2758,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108948864"/>
+        <c:crossAx val="93444083"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3059,7 +2772,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3069,46 +2781,27 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3123,10 +2816,25 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36)</c:f>
+              <c:f>'Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3145,7 +2853,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$34:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>202000</c:v>
@@ -3174,10 +2882,25 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36)</c:f>
+              <c:f>'Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3196,9 +2919,9 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$C$34:$C$36</c:f>
               <c:numCache>
-                <c:formatCode>\$#,##0.00;[Red]"-$"#,##0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
+                <c:pt idx="0">
                   <c:v>32780</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3211,316 +2934,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="58915840"/>
-        <c:axId val="61940480"/>
+        <c:overlap val="0"/>
+        <c:axId val="59229479"/>
+        <c:axId val="52845014"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58915840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61940480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="61940480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58915840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$G$34:$H$34</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Planeado</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Crecimiento anual de ventas'!$G$35:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2424000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2220588.2000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="58837632"/>
-        <c:axId val="58954112"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="58837632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58954112"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="58954112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58837632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$F$18:$F$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$20:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-2.8235294117647061</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.3913043478260869</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12676056338028169</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="104075648"/>
-        <c:axId val="104077184"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="104075648"/>
+        <c:axId val="59229479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,15 +2957,349 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="104077184"/>
+        <c:crossAx val="52845014"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104077184"/>
+        <c:axId val="52845014"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="59229479"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Crecimiento anual de ventas'!$G$34:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Crecimiento anual de ventas'!$G$35:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2424000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2220588.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="15995124"/>
+        <c:axId val="37667920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="15995124"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="37667920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37667920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="15995124"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$F$18:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$20:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.82352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.39130434782609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126760563380282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="384040"/>
+        <c:axId val="19708082"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="384040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="19708082"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="19708082"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3563,7 +3317,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3575,13 +3328,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="104075648"/>
+        <c:crossAx val="384040"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3589,46 +3341,27 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3638,15 +3371,30 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Indice de Satisfacción'!$D$2:$E$2</c:f>
+              <c:f>'Indice de Satisfacción'!$C$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3660,12 +3408,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Indice de Satisfacción'!$D$2</c:f>
+              <c:f>'Indice de Satisfacción'!$C$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3680,15 +3428,30 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Indice de Satisfacción'!$D$2:$E$2</c:f>
+              <c:f>'Indice de Satisfacción'!$C$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3702,15 +3465,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Indice de Satisfacción'!$D$2:$E$2</c:f>
+              <c:f>'Indice de Satisfacción'!$C$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3725,15 +3488,30 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9bbb59"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Indice de Satisfacción'!$D$2:$E$2</c:f>
+              <c:f>'Indice de Satisfacción'!$C$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3747,10 +3525,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Indice de Satisfacción'!$D$4:$E$4</c:f>
+              <c:f>'Indice de Satisfacción'!$C$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3758,20 +3539,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="132798336"/>
-        <c:axId val="132799872"/>
+        <c:overlap val="0"/>
+        <c:axId val="29824300"/>
+        <c:axId val="55806363"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132798336"/>
+        <c:axId val="29824300"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3780,72 +3554,115 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132799872"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="55806363"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132799872"/>
+        <c:axId val="55806363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132798336"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="29824300"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Desviación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3860,7 +3677,22 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
@@ -3891,44 +3723,37 @@
             <c:numRef>
               <c:f>'Desviacion de esfuerzo'!$E$37:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.63725490196078427</c:v>
+                  <c:v>0.637254901960784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61428571428571432</c:v>
+                  <c:v>0.614285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51086956521739135</c:v>
+                  <c:v>0.510869565217391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0777777777777777</c:v>
+                  <c:v>-1.07777777777778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18485915492957747</c:v>
+                  <c:v>0.184859154929577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171997824"/>
-        <c:axId val="172408832"/>
+        <c:overlap val="0"/>
+        <c:axId val="73996970"/>
+        <c:axId val="8614310"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171997824"/>
+        <c:axId val="73996970"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3937,68 +3762,92 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172408832"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="8614310"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172408832"/>
+        <c:axId val="8614310"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171997824"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="73996970"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4013,7 +3862,22 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
@@ -4082,7 +3946,22 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
@@ -4122,7 +4001,7 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45</c:v>
@@ -4137,20 +4016,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="114665344"/>
-        <c:axId val="114666880"/>
+        <c:overlap val="0"/>
+        <c:axId val="1926703"/>
+        <c:axId val="83276172"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114665344"/>
+        <c:axId val="1926703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4159,61 +4031,92 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114666880"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="83276172"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114666880"/>
+        <c:axId val="83276172"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114665344"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="1926703"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4230,13 +4133,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4244,8 +4146,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4277,7 +4177,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$C$20:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>22.33</c:v>
@@ -4286,7 +4186,7 @@
                   <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>19.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.5</c:v>
@@ -4300,20 +4200,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4331,13 +4217,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C0504D"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4345,8 +4230,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4378,7 +4261,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$D$20:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>47.4</c:v>
@@ -4390,7 +4273,7 @@
                   <c:v>10.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>35.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4401,35 +4284,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105336192"/>
-        <c:axId val="105350272"/>
+        <c:overlap val="0"/>
+        <c:axId val="17265608"/>
+        <c:axId val="1419233"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105336192"/>
+        <c:axId val="17265608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,15 +4308,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="105350272"/>
+        <c:crossAx val="1419233"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105350272"/>
+        <c:axId val="1419233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,7 +4331,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4482,13 +4342,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="105336192"/>
+        <c:crossAx val="17265608"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -4497,7 +4356,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4507,39 +4365,27 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4556,13 +4402,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4570,8 +4415,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4603,19 +4446,19 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$E$20:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1.1227048813255711</c:v>
+                  <c:v>-1.12270488132557</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43608247422680413</c:v>
+                  <c:v>0.436082474226804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.4909090909090912</c:v>
+                  <c:v>-5.49090909090909</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -4626,35 +4469,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105371136"/>
-        <c:axId val="105372672"/>
+        <c:overlap val="0"/>
+        <c:axId val="37839398"/>
+        <c:axId val="56119294"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105371136"/>
+        <c:axId val="37839398"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,15 +4493,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="105372672"/>
+        <c:crossAx val="56119294"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105372672"/>
+        <c:axId val="56119294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4697,7 +4518,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4709,13 +4529,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="105371136"/>
+        <c:crossAx val="37839398"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -4723,46 +4542,27 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4777,7 +4577,22 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
@@ -4808,7 +4623,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$C$31:$C$36</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>89.32</c:v>
@@ -4817,7 +4632,7 @@
                   <c:v>15.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>19.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22</c:v>
@@ -4846,7 +4661,22 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
@@ -4877,22 +4707,22 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$D$31:$D$36</c:f>
               <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.933399999999999</c:v>
+                  <c:v>17.9334</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.7686</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.489600000000003</c:v>
+                  <c:v>45.4896</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>105.4</c:v>
@@ -4901,20 +4731,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="132891008"/>
-        <c:axId val="132892544"/>
+        <c:overlap val="0"/>
+        <c:axId val="29928376"/>
+        <c:axId val="19284038"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132891008"/>
+        <c:axId val="29928376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4923,72 +4746,115 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132892544"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="19284038"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132892544"/>
+        <c:axId val="19284038"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132891008"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="29928376"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Desviación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5003,7 +4869,22 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
@@ -5034,44 +4915,37 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$E$31:$E$36</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.79922301836094933</c:v>
+                  <c:v>0.799223018360949</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1715909090909091</c:v>
+                  <c:v>0.171590909090909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.496463917525773</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50295454545454543</c:v>
+                  <c:v>0.502954545454545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.56860689655172425</c:v>
+                  <c:v>-0.568606896551724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.17111111111111119</c:v>
+                  <c:v>-0.171111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115671040"/>
-        <c:axId val="115672576"/>
+        <c:overlap val="0"/>
+        <c:axId val="73481343"/>
+        <c:axId val="16046824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115671040"/>
+        <c:axId val="73481343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5080,73 +4954,103 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115672576"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="16046824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115672576"/>
+        <c:axId val="16046824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115671040"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="73481343"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
+              <a:srgbClr val="4f81bd"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -5154,8 +5058,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5187,10 +5089,10 @@
             <c:numRef>
               <c:f>'Apego a Procesos'!$G$4:$G$9</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -5202,43 +5104,22 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>0.665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105415808"/>
-        <c:axId val="105417344"/>
+        <c:overlap val="0"/>
+        <c:axId val="77088402"/>
+        <c:axId val="48722070"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105415808"/>
+        <c:axId val="77088402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5255,15 +5136,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="105417344"/>
+        <c:crossAx val="48722070"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105417344"/>
+        <c:axId val="48722070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5159,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5291,19 +5170,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="105415808"/>
+        <c:crossAx val="77088402"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5311,48 +5188,41 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>717480</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>744480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>183600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>434520</xdr:colOff>
+      <xdr:colOff>461160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="2 Gráfico"/>
+        <xdr:cNvPr id="0" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="947520" y="183600"/>
+        <a:ext cx="8988120" cy="2743560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5365,24 +5235,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>328247</xdr:colOff>
+      <xdr:colOff>355320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>110090</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>572327</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>132053</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="4 Gráfico"/>
+        <xdr:cNvPr id="1" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7048800" y="3339360"/>
+        <a:ext cx="7850880" cy="2995920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5392,27 +5262,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>232833</xdr:colOff>
+      <xdr:colOff>259920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>518583</xdr:colOff>
+      <xdr:colOff>545400</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="7 Gráfico"/>
+        <xdr:cNvPr id="2" name="7 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6953400" y="8622720"/>
+        <a:ext cx="5987520" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5422,27 +5292,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>21166</xdr:colOff>
+      <xdr:colOff>48240</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
+      <xdr:colOff>322920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="8 Gráfico"/>
+        <xdr:cNvPr id="3" name="8 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="251280" y="8622720"/>
+        <a:ext cx="6003000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5456,28 +5326,28 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>154080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>183600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>221040</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="4" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="357120" y="183600"/>
+        <a:ext cx="6177600" cy="2817720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5490,24 +5360,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>344520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>468720</xdr:colOff>
+      <xdr:colOff>495360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="5" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6631560" y="164520"/>
+        <a:ext cx="6030720" cy="2798640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5517,27 +5387,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>137582</xdr:colOff>
+      <xdr:colOff>164520</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>178859</xdr:rowOff>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>137582</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>64559</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvPr id="6" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="367560" y="7551720"/>
+        <a:ext cx="6083640" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5547,27 +5417,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>189441</xdr:rowOff>
+      <xdr:colOff>58680</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:colOff>121680</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>75141</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvPr id="7" name="5 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7247160" y="7562160"/>
+        <a:ext cx="6070320" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5581,28 +5451,28 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
+      <xdr:colOff>59040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>363810</xdr:colOff>
+      <xdr:colOff>390600</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="4 Gráfico"/>
+        <xdr:cNvPr id="8" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="363600" y="2945520"/>
+        <a:ext cx="9704160" cy="2855520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5614,25 +5484,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1279440</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>468000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>134835</xdr:colOff>
+      <xdr:colOff>961560</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="6 Gráfico"/>
+        <xdr:cNvPr id="9" name="6 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="10691280" y="2822040"/>
+        <a:ext cx="5154480" cy="2846160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5646,28 +5516,28 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
+      <xdr:colOff>59040</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>239760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>266400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="1 Gráfico"/>
+        <xdr:cNvPr id="10" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="363600" y="2659680"/>
+        <a:ext cx="6647040" cy="2855880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5680,24 +5550,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>365070</xdr:colOff>
+      <xdr:colOff>392040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>163935</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>325470</xdr:colOff>
+      <xdr:colOff>352080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>162495</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="4 Gráfico"/>
+        <xdr:cNvPr id="11" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8863560" y="2621520"/>
+        <a:ext cx="6500520" cy="2855880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5711,28 +5581,28 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>563760</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>590400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="1 Gráfico"/>
+        <xdr:cNvPr id="12" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="439560" y="1335960"/>
+        <a:ext cx="5790240" cy="2855520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5746,28 +5616,28 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>24480</xdr:colOff>
+      <xdr:colOff>51480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>575280</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="1 Gráfico"/>
+        <xdr:cNvPr id="13" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="356040" y="1366560"/>
+        <a:ext cx="5858640" cy="2855520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5781,28 +5651,28 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>515880</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="1 Gráfico"/>
+        <xdr:cNvPr id="14" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="135000" y="31320"/>
+        <a:ext cx="6059520" cy="2398680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5815,24 +5685,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
+      <xdr:colOff>144360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1365</xdr:colOff>
+      <xdr:colOff>28080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="2 Gráfico"/>
+        <xdr:cNvPr id="15" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8565480" y="3141720"/>
+        <a:ext cx="5891400" cy="2772360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5845,24 +5715,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1108080</xdr:colOff>
+      <xdr:colOff>1135080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>621000</xdr:colOff>
+      <xdr:colOff>647640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="8 Gráfico"/>
+        <xdr:cNvPr id="16" name="8 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9556200" y="40680"/>
+        <a:ext cx="5520240" cy="2084040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5872,27 +5742,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>579600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>207720</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="17" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="579600" y="7587000"/>
+        <a:ext cx="6219720" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5902,27 +5772,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:colOff>1055880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>455400</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="18" name="3 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7647480" y="7672680"/>
+        <a:ext cx="6297120" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5936,28 +5806,28 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>712800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="19" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="531720" y="1529280"/>
+        <a:ext cx="4917960" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5970,2022 +5840,1791 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625"/>
-    <col min="2" max="2" width="34.42578125"/>
-    <col min="3" max="3" width="10.140625"/>
-    <col min="4" max="4" width="9.7109375"/>
-    <col min="5" max="5" width="10.140625"/>
-    <col min="6" max="6" width="8.5703125"/>
-    <col min="7" max="7" width="10.140625"/>
-    <col min="8" max="8" width="9.7109375"/>
-    <col min="9" max="10" width="11.42578125"/>
-    <col min="11" max="16" width="10.7109375"/>
-    <col min="17" max="17" width="13"/>
-    <col min="18" max="1025" width="11.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4291497975709"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.4251012145749"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3">
+      <c r="K17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="n">
         <v>46692</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>195</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <f aca="false">(C20-D20)/C20</f>
+        <v>-2.82352941176471</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <f aca="false">(C21-D21)/C21</f>
         <v>1</v>
       </c>
-      <c r="D19" s="4" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <f aca="false">(C22-D22)/C22</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>147</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <f aca="false">(C23-D23)/C23</f>
+        <v>-5.39130434782609</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <f aca="false">(C24-D24)/C24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>142</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>124</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <f aca="false">(C25-D25)/C25</f>
+        <v>0.126760563380282</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="E36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="6">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6">
-        <v>195</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" ref="E20:E25" si="0">(C20-D20)/C20</f>
-        <v>-2.8235294117647061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="9">
-        <v>35</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8" t="s">
+      <c r="C37" s="5" t="n">
+        <f aca="false">51*4</f>
+        <v>204</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <f aca="false">(C37-D37)/C37</f>
+        <v>0.637254901960784</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C38" s="8" t="n">
+        <f aca="false">35*4</f>
+        <v>140</v>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="E38" s="9" t="n">
+        <f aca="false">(C38-D38)/C38</f>
+        <v>0.614285714285714</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D39" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <f aca="false">(C39-D39)/C39</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="8" t="n">
+        <f aca="false">23*4</f>
+        <v>92</v>
+      </c>
+      <c r="D40" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="9">
-        <v>23</v>
-      </c>
-      <c r="D23" s="9">
-        <v>147</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>-5.3913043478260869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="E40" s="9" t="n">
+        <f aca="false">(C40-D40)/C40</f>
+        <v>0.510869565217391</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="9">
-        <v>142</v>
-      </c>
-      <c r="D25" s="9">
-        <v>124</v>
-      </c>
-      <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>0.12676056338028169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-    </row>
-    <row r="30" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
-        <v>40878</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="6">
-        <f>51*4</f>
-        <v>204</v>
-      </c>
-      <c r="D37" s="6">
-        <v>74</v>
-      </c>
-      <c r="E37" s="7">
-        <f t="shared" ref="E37:E42" si="1">(C37-D37)/C37</f>
-        <v>0.63725490196078427</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="9">
-        <f>35*4</f>
-        <v>140</v>
-      </c>
-      <c r="D38" s="9">
-        <v>54</v>
-      </c>
-      <c r="E38" s="10">
-        <f t="shared" si="1"/>
-        <v>0.61428571428571432</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="9">
-        <v>80</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="9">
-        <f>23*4</f>
-        <v>92</v>
-      </c>
-      <c r="D40" s="9">
-        <v>45</v>
-      </c>
-      <c r="E40" s="10">
-        <f t="shared" si="1"/>
-        <v>0.51086956521739135</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="9">
-        <v>90</v>
-      </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8" t="n">
         <v>187</v>
       </c>
-      <c r="E41" s="10">
-        <f t="shared" si="1"/>
-        <v>-1.0777777777777777</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="9">
-        <f>142*4</f>
+      <c r="E41" s="9" t="n">
+        <f aca="false">(C41-D41)/C41</f>
+        <v>-1.07777777777778</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="8" t="n">
+        <f aca="false">142*4</f>
         <v>568</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8" t="n">
         <v>463</v>
       </c>
-      <c r="E42" s="10">
-        <f t="shared" si="1"/>
-        <v>0.18485915492957747</v>
+      <c r="E42" s="9" t="n">
+        <f aca="false">(C42-D42)/C42</f>
+        <v>0.184859154929577</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.28515625"/>
-    <col min="2" max="2" width="34.42578125"/>
-    <col min="3" max="3" width="12.140625"/>
-    <col min="4" max="4" width="11.140625"/>
-    <col min="5" max="5" width="10.7109375"/>
-    <col min="6" max="6" width="10.140625"/>
-    <col min="7" max="7" width="9.7109375"/>
-    <col min="8" max="15" width="11.5703125"/>
-    <col min="16" max="16" width="13"/>
-    <col min="17" max="1025" width="11.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4291497975709"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="1" customFormat="true" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="n">
         <v>46692</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="D20" s="13" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <f aca="false">(C20-D20)/C20</f>
+        <v>-1.12270488132557</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <f aca="false">(C21-D21)/C21</f>
         <v>1</v>
       </c>
-      <c r="D19" s="11" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D22" s="13" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <f aca="false">(C22-D22)/C22</f>
+        <v>0.436082474226804</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D23" s="13" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <f aca="false">(C23-D23)/C23</f>
+        <v>-5.49090909090909</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="D24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <f aca="false">(C24-D24)/C24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <f aca="false">(C25-D25)/C25</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D27" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="E30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="12">
-        <v>22.33</v>
-      </c>
-      <c r="D20" s="12">
-        <v>47.4</v>
-      </c>
-      <c r="E20" s="13">
-        <f t="shared" ref="E20:E25" si="0">(C20-D20)/C20</f>
-        <v>-1.1227048813255711</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="12">
-        <v>3.96</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8" t="s">
+      <c r="C31" s="13" t="n">
+        <f aca="false">22.33*4</f>
+        <v>89.32</v>
+      </c>
+      <c r="D31" s="13" t="n">
+        <f aca="false">1.23*14.58</f>
+        <v>17.9334</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <f aca="false">(C31-D31)/C31</f>
+        <v>0.799223018360949</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="12">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D22" s="12">
-        <v>10.94</v>
-      </c>
-      <c r="E22" s="14">
-        <f t="shared" si="0"/>
-        <v>0.43608247422680413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8" t="s">
+      <c r="C32" s="13" t="n">
+        <f aca="false">3.96*4</f>
+        <v>15.84</v>
+      </c>
+      <c r="D32" s="13" t="n">
+        <f aca="false">0.9*14.58</f>
+        <v>13.122</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <f aca="false">(C32-D32)/C32</f>
+        <v>0.171590909090909</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="D23" s="12">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="E23" s="13">
-        <f t="shared" si="0"/>
-        <v>-5.4909090909090912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8" t="s">
+      <c r="C33" s="13" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D33" s="13" t="n">
+        <f aca="false">0.67 * 14.58</f>
+        <v>9.7686</v>
+      </c>
+      <c r="E33" s="15" t="n">
+        <f aca="false">(C33-D33)/C33</f>
+        <v>0.496463917525773</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C34" s="13" t="n">
+        <f aca="false">5.5*4</f>
+        <v>22</v>
+      </c>
+      <c r="D34" s="13" t="n">
+        <f aca="false">0.75*14.58</f>
+        <v>10.935</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <f aca="false">(C34-D34)/C34</f>
+        <v>0.502954545454545</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="12">
-        <v>22.5</v>
-      </c>
-      <c r="D25" s="12">
-        <v>18</v>
-      </c>
-      <c r="E25" s="13">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="50"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <v>40878</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="12">
-        <f>22.33*4</f>
-        <v>89.32</v>
-      </c>
-      <c r="D31" s="12">
-        <f>1.23*14.58</f>
-        <v>17.933399999999999</v>
-      </c>
-      <c r="E31" s="13">
-        <f t="shared" ref="E31:E36" si="1">(C31-D31)/C31</f>
-        <v>0.79922301836094933</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="12">
-        <f>3.96*4</f>
-        <v>15.84</v>
-      </c>
-      <c r="D32" s="12">
-        <f>0.9*14.58</f>
-        <v>13.122</v>
-      </c>
-      <c r="E32" s="14">
-        <f t="shared" si="1"/>
-        <v>0.1715909090909091</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="12">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="E33" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="12">
-        <f>5.5*4</f>
-        <v>22</v>
-      </c>
-      <c r="D34" s="12">
-        <f>0.75*14.58</f>
-        <v>10.935</v>
-      </c>
-      <c r="E34" s="13">
-        <f t="shared" si="1"/>
-        <v>0.50295454545454543</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="12">
-        <v>29</v>
-      </c>
-      <c r="D35" s="12">
-        <f>3.12*14.58</f>
-        <v>45.489600000000003</v>
-      </c>
-      <c r="E35" s="14">
-        <f t="shared" si="1"/>
-        <v>-0.56860689655172425</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="12">
-        <f>22.5*4</f>
+      <c r="D35" s="13" t="n">
+        <f aca="false">3.12*14.58</f>
+        <v>45.4896</v>
+      </c>
+      <c r="E35" s="15" t="n">
+        <f aca="false">(C35-D35)/C35</f>
+        <v>-0.568606896551724</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="13" t="n">
+        <f aca="false">22.5*4</f>
         <v>90</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="13" t="n">
         <v>105.4</v>
       </c>
-      <c r="E36" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.17111111111111119</v>
-      </c>
-    </row>
+      <c r="E36" s="14" t="n">
+        <f aca="false">(C36-D36)/C36</f>
+        <v>-0.171111111111111</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125"/>
-    <col min="2" max="2" width="4.42578125"/>
-    <col min="3" max="3" width="19.7109375"/>
-    <col min="4" max="4" width="13.42578125" style="15"/>
-    <col min="5" max="5" width="13.42578125"/>
-    <col min="6" max="6" width="13.7109375"/>
-    <col min="7" max="7" width="23.28515625"/>
-    <col min="8" max="8" width="5.140625"/>
-    <col min="9" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="1025" width="11.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.1417004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="6.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="19">
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21" t="n">
         <v>20151127</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="22" t="n">
         <v>20151211</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25" t="e">
+        <f aca="false">AVERAGE(D4:F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25" t="n">
+        <f aca="false">AVERAGE(D5:F5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="n">
+        <f aca="false">AVERAGE(D6:F6)</f>
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25" t="n">
+        <f aca="false">AVERAGE(D7:F7)</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25" t="n">
+        <f aca="false">AVERAGE(D8:F8)</f>
+        <v>0.665</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25" t="e">
+        <f aca="false">AVERAGE(D9:F9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="26"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
+      <c r="F11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="O12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(D4:F4)</f>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="25" t="e">
+        <f aca="false">AVERAGE(D13:F13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="C14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="25" t="e">
+        <f aca="false">AVERAGE(D14:F14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.8125</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23">
-        <f t="shared" si="0"/>
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23" t="e">
-        <f t="shared" si="0"/>
+      <c r="C15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="25" t="e">
+        <f aca="false">AVERAGE(D15:F15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="24"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="23" t="e">
-        <f>AVERAGE(D13:F13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
-        <v>2</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="23" t="e">
-        <f>AVERAGE(D14:F14)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="20">
-        <v>3</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="23" t="e">
-        <f>AVERAGE(D15:F15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="notEqual">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="notEqual">
+    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="notEqual">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="notEqual">
+    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:F15">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="notEqual">
+    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C15">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="notEqual">
+    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="notEqual">
+    <cfRule type="cellIs" priority="8" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F12">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="notEqual">
+    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="notEqual">
+    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="notEqual">
+    <cfRule type="cellIs" priority="11" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125"/>
-    <col min="2" max="2" width="4.42578125"/>
-    <col min="3" max="3" width="32.140625"/>
-    <col min="4" max="4" width="11.7109375" style="15"/>
-    <col min="5" max="5" width="11.7109375"/>
-    <col min="6" max="6" width="12.42578125"/>
-    <col min="7" max="7" width="19.42578125"/>
-    <col min="8" max="8" width="11.5703125"/>
-    <col min="9" max="9" width="15.7109375"/>
-    <col min="10" max="1025" width="11.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="19">
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21" t="n">
         <v>20151127</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="20" t="n">
         <v>20151211</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="29" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="E4" s="29" t="n">
+        <v>0.8676</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25" t="n">
+        <f aca="false">AVERAGE(D4:F4)</f>
+        <v>0.8623</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="25" t="n">
+        <f aca="false">AVERAGE(D5:F5)</f>
+        <v>0.775</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="25" t="e">
+        <f aca="false">AVERAGE(D6:F6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="25" t="n">
+        <f aca="false">AVERAGE(D7:F7)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="25" t="n">
+        <f aca="false">AVERAGE(D8:F8)</f>
+        <v>0.8571</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="26"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="F10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.86760000000000004</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="23">
-        <f>AVERAGE(D4:F4)</f>
-        <v>0.86230000000000007</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="C12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25" t="e">
+        <f aca="false">AVERAGE(D12:F12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="27">
-        <v>0.95</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="23">
-        <f>AVERAGE(D5:F5)</f>
-        <v>0.77499999999999991</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="C13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25" t="e">
+        <f aca="false">AVERAGE(D13:F13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="23" t="e">
-        <f>AVERAGE(D6:F6)</f>
+      <c r="C14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25" t="e">
+        <f aca="false">AVERAGE(D14:F14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="27">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="23">
-        <f>AVERAGE(D7:F7)</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="23" t="e">
-        <f>AVERAGE(D8:F8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23" t="e">
-        <f>AVERAGE(D12:F12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
-        <v>2</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23" t="e">
-        <f>AVERAGE(D13:F13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
-        <v>3</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23" t="e">
-        <f>AVERAGE(D14:F14)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="31"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="33"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="notEqual">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="notEqual">
+    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="notEqual">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="notEqual">
+    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="notEqual">
+    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="notEqual">
+    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="notEqual">
+    <cfRule type="cellIs" priority="8" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="notEqual">
+    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B14">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="notEqual">
+    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="notEqual">
+    <cfRule type="cellIs" priority="11" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="notEqual">
+    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F14">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="notEqual">
+    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="notEqual">
+    <cfRule type="cellIs" priority="14" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="notEqual">
+    <cfRule type="cellIs" priority="15" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125"/>
-    <col min="2" max="2" width="4.42578125"/>
-    <col min="3" max="3" width="32.140625"/>
-    <col min="4" max="4" width="11.7109375" style="15"/>
-    <col min="5" max="5" width="11.7109375"/>
-    <col min="6" max="6" width="12.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="11.5703125"/>
-    <col min="9" max="9" width="15.7109375"/>
-    <col min="10" max="1025" width="11.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="21" t="n">
         <v>20151127</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="20" t="n">
         <v>20151211</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="C4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="23">
-        <f>AVERAGE(D4:F4)</f>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25" t="n">
+        <f aca="false">AVERAGE(D4:F4)</f>
         <v>0.75</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="C5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="29" t="n">
         <v>0.67</v>
       </c>
-      <c r="E5" s="27">
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="23">
-        <f>AVERAGE(D5:F5)</f>
-        <v>0.75124999999999997</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="E5" s="29" t="n">
+        <v>0.8325</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="25" t="n">
+        <f aca="false">AVERAGE(D5:F5)</f>
+        <v>0.75125</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="23" t="e">
-        <f>AVERAGE(D6:F6)</f>
+      <c r="C6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="25" t="e">
+        <f aca="false">AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="24"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="31"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="26"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="33"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="notEqual">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
+    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="notEqual">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2"/>
-    <col min="2" max="2" width="4.42578125" style="2"/>
-    <col min="3" max="3" width="32.140625" style="2"/>
-    <col min="4" max="4" width="11.7109375" style="15"/>
-    <col min="5" max="5" width="11.7109375" style="2"/>
-    <col min="6" max="6" width="12.42578125" style="2"/>
-    <col min="7" max="7" width="19.140625" style="2"/>
-    <col min="8" max="8" width="11.5703125" style="2"/>
-    <col min="9" max="9" width="15.7109375" style="2"/>
-    <col min="10" max="1025" width="11.5703125" style="2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.42914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.42914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="21" t="n">
         <v>20151127</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="20" t="n">
         <v>2015121</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="C4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="29" t="n">
         <v>0.67</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="29" t="n">
         <v>0.67</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="23">
-        <f>AVERAGE(D4:F4)</f>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25" t="n">
+        <f aca="false">AVERAGE(D4:F4)</f>
         <v>0.67</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="C5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="29" t="n">
         <v>0.75</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="23">
-        <f>AVERAGE(D5:F5)</f>
+      <c r="F5" s="29"/>
+      <c r="G5" s="25" t="n">
+        <f aca="false">AVERAGE(D5:F5)</f>
         <v>0.875</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="23" t="e">
-        <f>AVERAGE(D6:F6)</f>
+      <c r="C6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="25" t="e">
+        <f aca="false">AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C7"/>
-      <c r="D7" s="24"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="31"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0"/>
+      <c r="D7" s="26"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="33"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="notEqual">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A13:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125"/>
-    <col min="2" max="2" width="15.28515625"/>
-    <col min="3" max="3" width="14.140625"/>
-    <col min="4" max="5" width="10.5703125"/>
-    <col min="6" max="6" width="20.5703125"/>
-    <col min="7" max="7" width="16"/>
-    <col min="8" max="8" width="15.42578125"/>
-    <col min="9" max="9" width="15"/>
-    <col min="10" max="1025" width="10.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5748987854251"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="35" t="s">
+      <c r="C14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="38">
+      <c r="H14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="41" t="n">
         <v>202000</v>
       </c>
-      <c r="C15" s="38">
-        <f>SUM(C16:C17)</f>
-        <v>130775.29999999999</v>
-      </c>
-      <c r="D15" s="39">
-        <f>(C15 * 100)/B15</f>
-        <v>64.740247524752462</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41">
+      <c r="C15" s="41" t="n">
+        <f aca="false">SUM(C16:C17)</f>
+        <v>130775.3</v>
+      </c>
+      <c r="D15" s="42" t="n">
+        <f aca="false">(C15 * 100)/B15</f>
+        <v>64.7402475247525</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44" t="n">
         <v>2424000</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="41" t="n">
         <v>130775.3</v>
       </c>
-      <c r="I15" s="42">
-        <f>(H15 * 100)/G15</f>
-        <v>5.3950206270627064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="I15" s="45" t="n">
+        <f aca="false">(H15 * 100)/G15</f>
+        <v>5.39502062706271</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="44" t="n">
+        <f aca="false">B15/2</f>
+        <v>101000</v>
+      </c>
+      <c r="C16" s="46" t="n">
+        <v>54818.4</v>
+      </c>
+      <c r="D16" s="47" t="n">
+        <f aca="false">(C16 * 100)/B16</f>
+        <v>54.2756435643564</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="44" t="n">
+        <f aca="false">B15/2</f>
+        <v>101000</v>
+      </c>
+      <c r="C17" s="46" t="n">
+        <v>75956.9</v>
+      </c>
+      <c r="D17" s="50" t="n">
+        <f aca="false">(C17 * 100)/B17</f>
+        <v>75.2048514851485</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="41">
-        <f>B15/2</f>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="41" t="n">
+        <v>202000</v>
+      </c>
+      <c r="C34" s="41" t="n">
+        <f aca="false">SUM(C35:C36)</f>
+        <v>32780</v>
+      </c>
+      <c r="D34" s="42" t="n">
+        <f aca="false">(C34 * 100)/B34</f>
+        <v>16.2277227722772</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="44" t="n">
+        <f aca="false">B34/2</f>
         <v>101000</v>
       </c>
-      <c r="C16" s="43">
-        <v>54818.400000000001</v>
-      </c>
-      <c r="D16" s="44">
-        <f>(C16 * 100)/B16</f>
-        <v>54.275643564356436</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="41">
-        <f>B15/2</f>
+      <c r="C35" s="46" t="n">
+        <v>10775</v>
+      </c>
+      <c r="D35" s="47" t="n">
+        <f aca="false">(C35 * 100)/B35</f>
+        <v>10.6683168316832</v>
+      </c>
+      <c r="G35" s="44" t="n">
+        <v>2424000</v>
+      </c>
+      <c r="H35" s="41" t="n">
+        <v>2220588.2</v>
+      </c>
+      <c r="I35" s="45" t="n">
+        <f aca="false">(H35 * 100)/G35</f>
+        <v>91.6084240924092</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="44" t="n">
+        <f aca="false">B34/2</f>
         <v>101000</v>
       </c>
-      <c r="C17" s="43">
-        <v>75956.899999999994</v>
-      </c>
-      <c r="D17" s="47">
-        <f>(C17 * 100)/B17</f>
-        <v>75.204851485148509</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="38">
-        <v>202000</v>
-      </c>
-      <c r="C34" s="38">
-        <f>SUM(C35:C36)</f>
-        <v>32780</v>
-      </c>
-      <c r="D34" s="39">
-        <f>(C34 * 100)/B34</f>
-        <v>16.227722772277229</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="41">
-        <f>B34/2</f>
-        <v>101000</v>
-      </c>
-      <c r="C35" s="43">
-        <v>10775</v>
-      </c>
-      <c r="D35" s="44">
-        <f>(C35 * 100)/B35</f>
-        <v>10.668316831683168</v>
-      </c>
-      <c r="G35" s="41">
-        <v>2424000</v>
-      </c>
-      <c r="H35" s="38">
-        <v>2220588.2000000002</v>
-      </c>
-      <c r="I35" s="42">
-        <f>(H35 * 100)/G35</f>
-        <v>91.608424092409251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="41">
-        <f>B34/2</f>
-        <v>101000</v>
-      </c>
-      <c r="C36" s="43">
+      <c r="C36" s="46" t="n">
         <v>22005</v>
       </c>
-      <c r="D36" s="47">
-        <f>(C36 * 100)/B36</f>
-        <v>21.787128712871286</v>
+      <c r="D36" s="50" t="n">
+        <f aca="false">(C36 * 100)/B36</f>
+        <v>21.7871287128713</v>
       </c>
     </row>
   </sheetData>
@@ -7993,103 +7632,98 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G33:I33"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C1:E6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3" style="2"/>
-    <col min="2" max="2" width="4" style="2"/>
-    <col min="3" max="1024" width="11.5703125" style="2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4"/>
+    <col collapsed="false" hidden="false" max="1023" min="3" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2"/>
-      <c r="D2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="19">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="21" t="n">
         <v>20151127</v>
       </c>
-      <c r="E3" s="18">
+      <c r="D3" s="20" t="n">
         <v>20151211</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="19">
+      <c r="E3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27">
-        <v>1</v>
-      </c>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="19">
-        <v>2</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="19">
-        <v>3</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C6">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="D3:E3">
+    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
@@ -160,19 +160,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0%"/>
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="GENERAL"/>
     <numFmt numFmtId="167" formatCode="MMM\-YY"/>
-    <numFmt numFmtId="168" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.00%"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
-    <numFmt numFmtId="171" formatCode="DD\-MMM"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="\$#,##0.00;[RED]&quot;-$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="DD\-MMM"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="\$#,##0.00;[RED]&quot;-$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,15 +210,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -415,7 +406,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -492,19 +483,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,7 +503,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,11 +511,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -532,7 +523,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,7 +531,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,7 +567,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,7 +575,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -596,19 +587,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -616,7 +603,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,7 +616,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="10">
     <dxf>
       <font>
         <sz val="11"/>
@@ -750,234 +737,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1042,7 +801,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1221,11 +980,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="41402102"/>
-        <c:axId val="84788040"/>
+        <c:axId val="57573923"/>
+        <c:axId val="19259157"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41402102"/>
+        <c:axId val="57573923"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1001,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84788040"/>
+        <c:crossAx val="19259157"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84788040"/>
+        <c:axId val="19259157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1035,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41402102"/>
+        <c:crossAx val="57573923"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1311,7 +1070,1707 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$F$18:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$20:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.82352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.39130434782609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126760563380282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="78514224"/>
+        <c:axId val="94039154"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="78514224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="94039154"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94039154"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="78514224"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$E$37:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.637254901960784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.614285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.510869565217391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.558333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.184859154929577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="68739564"/>
+        <c:axId val="76774782"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68739564"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="76774782"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76774782"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="68739564"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$C$37:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$D$37:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="71352136"/>
+        <c:axId val="27481200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71352136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="27481200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27481200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="71352136"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$C$18:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$C$20:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$D$18:$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="38311296"/>
+        <c:axId val="69054638"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38311296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="69054638"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69054638"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="38311296"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$E$18:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.12270488132557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.436082474226804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.49090909090909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="10983491"/>
+        <c:axId val="37520821"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10983491"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="37520821"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37520821"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="10983491"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$C$31:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>89.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$D$31:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17.9334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.4896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="30013311"/>
+        <c:axId val="75952407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="30013311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="75952407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75952407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="30013311"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$E$31:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.799223018360949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.171590909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.496463917525773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.502954545454545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.171111111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="83129128"/>
+        <c:axId val="70813376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83129128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="70813376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70813376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="83129128"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Procesos'!$C$4:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Prospectación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Garantía</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Procesos'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="43628116"/>
+        <c:axId val="29083646"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43628116"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="29083646"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29083646"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="43628116"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1377,11 +2836,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="79371479"/>
-        <c:axId val="93097140"/>
+        <c:axId val="68680355"/>
+        <c:axId val="4233713"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79371479"/>
+        <c:axId val="68680355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,14 +2857,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93097140"/>
+        <c:crossAx val="4233713"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93097140"/>
+        <c:axId val="4233713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1433,7 +2892,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79371479"/>
+        <c:crossAx val="68680355"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1463,7 +2922,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1541,11 +3000,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="52984951"/>
-        <c:axId val="98292936"/>
+        <c:axId val="15103657"/>
+        <c:axId val="85612490"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52984951"/>
+        <c:axId val="15103657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,14 +3021,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98292936"/>
+        <c:crossAx val="85612490"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98292936"/>
+        <c:axId val="85612490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1597,7 +3056,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52984951"/>
+        <c:crossAx val="15103657"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1627,7 +3086,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1693,11 +3152,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="70344810"/>
-        <c:axId val="73766238"/>
+        <c:axId val="44810733"/>
+        <c:axId val="80839513"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70344810"/>
+        <c:axId val="44810733"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,14 +3173,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73766238"/>
+        <c:crossAx val="80839513"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73766238"/>
+        <c:axId val="80839513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1749,7 +3208,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70344810"/>
+        <c:crossAx val="44810733"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1779,7 +3238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1845,11 +3304,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="72326397"/>
-        <c:axId val="79024392"/>
+        <c:axId val="95937460"/>
+        <c:axId val="30710537"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72326397"/>
+        <c:axId val="95937460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,14 +3325,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79024392"/>
+        <c:crossAx val="30710537"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79024392"/>
+        <c:axId val="30710537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1901,7 +3360,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72326397"/>
+        <c:crossAx val="95937460"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1931,7 +3390,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1997,11 +3456,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="37213918"/>
-        <c:axId val="79468550"/>
+        <c:axId val="48509245"/>
+        <c:axId val="17171804"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37213918"/>
+        <c:axId val="48509245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,14 +3477,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79468550"/>
+        <c:crossAx val="17171804"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79468550"/>
+        <c:axId val="17171804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2053,7 +3512,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37213918"/>
+        <c:crossAx val="48509245"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2083,7 +3542,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2220,11 +3679,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="73575000"/>
-        <c:axId val="16305565"/>
+        <c:axId val="64982595"/>
+        <c:axId val="90448152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73575000"/>
+        <c:axId val="64982595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,14 +3700,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16305565"/>
+        <c:crossAx val="90448152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16305565"/>
+        <c:axId val="90448152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,7 +3757,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73575000"/>
+        <c:crossAx val="64982595"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2323,7 +3782,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2472,11 +3931,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="71059607"/>
-        <c:axId val="22254425"/>
+        <c:axId val="23049673"/>
+        <c:axId val="91298012"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71059607"/>
+        <c:axId val="23049673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,14 +3952,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22254425"/>
+        <c:crossAx val="91298012"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22254425"/>
+        <c:axId val="91298012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +4009,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71059607"/>
+        <c:crossAx val="23049673"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2575,7 +4034,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2706,11 +4165,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="93444083"/>
-        <c:axId val="56979944"/>
+        <c:axId val="24490848"/>
+        <c:axId val="36359917"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93444083"/>
+        <c:axId val="24490848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,14 +4186,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56979944"/>
+        <c:crossAx val="36359917"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56979944"/>
+        <c:axId val="36359917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,7 +4217,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93444083"/>
+        <c:crossAx val="24490848"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2793,7 +4252,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2936,11 +4395,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="59229479"/>
-        <c:axId val="52845014"/>
+        <c:axId val="88385450"/>
+        <c:axId val="60319563"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59229479"/>
+        <c:axId val="88385450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,14 +4416,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52845014"/>
+        <c:crossAx val="60319563"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52845014"/>
+        <c:axId val="60319563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,7 +4450,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="59229479"/>
+        <c:crossAx val="88385450"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3026,7 +4485,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3086,11 +4545,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="15995124"/>
-        <c:axId val="37667920"/>
+        <c:axId val="87951037"/>
+        <c:axId val="37613832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15995124"/>
+        <c:axId val="87951037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,14 +4566,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37667920"/>
+        <c:crossAx val="37613832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37667920"/>
+        <c:axId val="37613832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,7 +4600,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15995124"/>
+        <c:crossAx val="87951037"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3176,184 +4635,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$F$18:$F$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$20:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-2.82352941176471</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.39130434782609</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.126760563380282</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="384040"/>
-        <c:axId val="19708082"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="384040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="19708082"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="19708082"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="384040"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3541,11 +4823,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="29824300"/>
-        <c:axId val="55806363"/>
+        <c:axId val="31147312"/>
+        <c:axId val="51830018"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29824300"/>
+        <c:axId val="31147312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,14 +4844,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55806363"/>
+        <c:crossAx val="51830018"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55806363"/>
+        <c:axId val="51830018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3596,7 +4878,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="29824300"/>
+        <c:crossAx val="31147312"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3631,1589 +4913,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Desviación</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$E$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$E$37:$E$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.637254901960784</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.614285714285714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.510869565217391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.07777777777778</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.184859154929577</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="73996970"/>
-        <c:axId val="8614310"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="73996970"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="8614310"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="8614310"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="73996970"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$C$37:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>568</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$D$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$D$37:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>463</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="1926703"/>
-        <c:axId val="83276172"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1926703"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="83276172"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83276172"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="1926703"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$C$18:$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$C$20:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>22.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$D$18:$D$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$D$20:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>47.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="17265608"/>
-        <c:axId val="1419233"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="17265608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="1419233"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1419233"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="17265608"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$E$18:$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$E$20:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-1.12270488132557</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.436082474226804</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.49090909090909</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="37839398"/>
-        <c:axId val="56119294"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="37839398"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="56119294"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="56119294"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="37839398"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$C$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$C$31:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>89.32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$D$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$D$31:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>17.9334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.122</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7686</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.4896</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="29928376"/>
-        <c:axId val="19284038"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="29928376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="19284038"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="19284038"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="29928376"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Desviación</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$E$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$E$31:$E$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.799223018360949</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.171590909090909</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.496463917525773</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.502954545454545</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.568606896551724</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.171111111111111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="73481343"/>
-        <c:axId val="16046824"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="73481343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="16046824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="16046824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="73481343"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Apego a Procesos'!$C$4:$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Prospectación</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Garantía</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Apego a Procesos'!$G$4:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.665</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="77088402"/>
-        <c:axId val="48722070"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="77088402"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="48722070"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="48722070"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="77088402"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>744480</xdr:colOff>
+      <xdr:colOff>798480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>461160</xdr:colOff>
+      <xdr:colOff>514440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5221,8 +4934,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="947520" y="183600"/>
-        <a:ext cx="8988120" cy="2743560"/>
+        <a:off x="1001520" y="165600"/>
+        <a:ext cx="8987400" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5235,15 +4948,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>355320</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>599040</xdr:colOff>
+      <xdr:colOff>652320</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5251,8 +4964,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7048800" y="3339360"/>
-        <a:ext cx="7850880" cy="2995920"/>
+        <a:off x="7102800" y="3321360"/>
+        <a:ext cx="7850160" cy="2995200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5265,15 +4978,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259920</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>313920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>545400</xdr:colOff>
+      <xdr:colOff>598680</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5281,8 +4994,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6953400" y="8622720"/>
-        <a:ext cx="5987520" cy="2743200"/>
+        <a:off x="7007400" y="8604720"/>
+        <a:ext cx="5986800" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5295,15 +5008,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>48240</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>102240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>322920</xdr:colOff>
+      <xdr:colOff>376200</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5311,8 +5024,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="251280" y="8622720"/>
-        <a:ext cx="6003000" cy="2743200"/>
+        <a:off x="305280" y="8604720"/>
+        <a:ext cx="6002280" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5330,15 +5043,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
+      <xdr:colOff>208080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>247680</xdr:colOff>
+      <xdr:colOff>300960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5346,8 +5059,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="357120" y="183600"/>
-        <a:ext cx="6177600" cy="2817720"/>
+        <a:off x="411120" y="165600"/>
+        <a:ext cx="6176880" cy="2817000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5360,15 +5073,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>344520</xdr:colOff>
+      <xdr:colOff>398520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>495360</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5376,8 +5089,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6631560" y="164520"/>
-        <a:ext cx="6030720" cy="2798640"/>
+        <a:off x="6685560" y="146520"/>
+        <a:ext cx="6030000" cy="2797920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5390,15 +5103,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
+      <xdr:colOff>218520</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>217440</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5406,8 +5119,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="367560" y="7551720"/>
-        <a:ext cx="6083640" cy="2742840"/>
+        <a:off x="421560" y="7581600"/>
+        <a:ext cx="6082920" cy="3456360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5420,15 +5133,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:colOff>112680</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>225000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>121680</xdr:colOff>
+      <xdr:colOff>174960</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5436,8 +5149,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7247160" y="7562160"/>
-        <a:ext cx="6070320" cy="2742840"/>
+        <a:off x="7301160" y="7639200"/>
+        <a:ext cx="6069600" cy="3409200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5455,15 +5168,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>59040</xdr:colOff>
+      <xdr:colOff>113040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>390600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>443880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5471,8 +5184,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="363600" y="2945520"/>
-        <a:ext cx="9704160" cy="2855520"/>
+        <a:off x="417600" y="2927520"/>
+        <a:ext cx="9703440" cy="2854800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5485,15 +5198,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>468000</xdr:colOff>
+      <xdr:colOff>522000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>961560</xdr:colOff>
+      <xdr:colOff>1014840</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5501,8 +5214,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10691280" y="2822040"/>
-        <a:ext cx="5154480" cy="2846160"/>
+        <a:off x="10745280" y="2804040"/>
+        <a:ext cx="5153760" cy="2845440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5520,15 +5233,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>59040</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:colOff>113040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>319680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5536,8 +5249,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="363600" y="2659680"/>
-        <a:ext cx="6647040" cy="2855880"/>
+        <a:off x="417600" y="2641680"/>
+        <a:ext cx="6646320" cy="2855160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5550,15 +5263,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>392040</xdr:colOff>
+      <xdr:colOff>446040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>352080</xdr:colOff>
+      <xdr:colOff>405360</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5566,8 +5279,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8863560" y="2621520"/>
-        <a:ext cx="6500520" cy="2855880"/>
+        <a:off x="8917560" y="2603520"/>
+        <a:ext cx="6499800" cy="2855160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5585,15 +5298,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>135000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:colOff>189000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>590400</xdr:colOff>
+      <xdr:colOff>643680</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5601,8 +5314,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="439560" y="1335960"/>
-        <a:ext cx="5790240" cy="2855520"/>
+        <a:off x="493560" y="1317960"/>
+        <a:ext cx="5789520" cy="2854800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5620,15 +5333,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>105480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>575280</xdr:colOff>
+      <xdr:colOff>628560</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5636,8 +5349,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="356040" y="1366560"/>
-        <a:ext cx="5858640" cy="2855520"/>
+        <a:off x="410040" y="1348560"/>
+        <a:ext cx="5857920" cy="2854800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5655,15 +5368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>135000</xdr:colOff>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>595800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5671,8 +5384,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="135000" y="31320"/>
-        <a:ext cx="6059520" cy="2398680"/>
+        <a:off x="189000" y="13320"/>
+        <a:ext cx="6058800" cy="2397960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5685,15 +5398,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>144360</xdr:colOff>
+      <xdr:colOff>198360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28080</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5701,8 +5414,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8565480" y="3141720"/>
-        <a:ext cx="5891400" cy="2772360"/>
+        <a:off x="8619480" y="3123720"/>
+        <a:ext cx="5890680" cy="2771640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5715,15 +5428,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1135080</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>647640</xdr:colOff>
+      <xdr:colOff>700920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5731,8 +5444,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9556200" y="40680"/>
-        <a:ext cx="5520240" cy="2084040"/>
+        <a:off x="9610200" y="22680"/>
+        <a:ext cx="5519520" cy="2083320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5745,15 +5458,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579600</xdr:colOff>
+      <xdr:colOff>633600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>207720</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:colOff>261000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5761,8 +5474,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="579600" y="7587000"/>
-        <a:ext cx="6219720" cy="2742840"/>
+        <a:off x="633600" y="7569000"/>
+        <a:ext cx="6219000" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5775,15 +5488,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1055880</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:colOff>1109880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>455400</xdr:colOff>
+      <xdr:colOff>508680</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5791,8 +5504,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7647480" y="7672680"/>
-        <a:ext cx="6297120" cy="2742840"/>
+        <a:off x="7701480" y="7654680"/>
+        <a:ext cx="6296400" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5810,15 +5523,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265320</xdr:colOff>
+      <xdr:colOff>319320</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>712800</xdr:colOff>
+      <xdr:colOff>766080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5826,8 +5539,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="531720" y="1529280"/>
-        <a:ext cx="4917960" cy="2743200"/>
+        <a:off x="585720" y="1511280"/>
+        <a:ext cx="4917240" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5848,7 +5561,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6123,14 +5836,14 @@
         <v>9</v>
       </c>
       <c r="C41" s="8" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8" t="n">
         <v>187</v>
       </c>
       <c r="E41" s="9" t="n">
         <f aca="false">(C41-D41)/C41</f>
-        <v>-1.07777777777778</v>
+        <v>-0.558333333333333</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,7 +5882,7 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6407,7 +6120,8 @@
         <v>9</v>
       </c>
       <c r="C35" s="13" t="n">
-        <v>29</v>
+        <f aca="false">2*14.58</f>
+        <v>29.16</v>
       </c>
       <c r="D35" s="13" t="n">
         <f aca="false">3.12*14.58</f>
@@ -6415,7 +6129,7 @@
       </c>
       <c r="E35" s="15" t="n">
         <f aca="false">(C35-D35)/C35</f>
-        <v>-0.568606896551724</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6454,8 +6168,8 @@
   </sheetPr>
   <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6569,12 +6283,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="24" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="25" t="n">
         <f aca="false">AVERAGE(D7:F7)</f>
-        <v>0.625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7063,22 +6777,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F14">
-    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" priority="14" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="14" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" priority="15" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="15" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7517,9 +7231,9 @@
         <v>54.2756435643564</v>
       </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
@@ -7532,14 +7246,14 @@
       <c r="C17" s="46" t="n">
         <v>75956.9</v>
       </c>
-      <c r="D17" s="50" t="n">
+      <c r="D17" s="49" t="n">
         <f aca="false">(C17 * 100)/B17</f>
         <v>75.2048514851485</v>
       </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="35" t="s">
@@ -7622,7 +7336,7 @@
       <c r="C36" s="46" t="n">
         <v>22005</v>
       </c>
-      <c r="D36" s="50" t="n">
+      <c r="D36" s="49" t="n">
         <f aca="false">(C36 * 100)/B36</f>
         <v>21.7871287128713</v>
       </c>
@@ -7650,7 +7364,7 @@
   </sheetPr>
   <dimension ref="C1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>

--- a/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
   <si>
     <t>Versión 1.0</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE</t>
   </si>
   <si>
     <t>Planeado</t>
@@ -54,7 +57,13 @@
     <t>Soporte</t>
   </si>
   <si>
+    <t>204/60*sueldo de involucrados en el proceso</t>
+  </si>
+  <si>
     <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
   </si>
   <si>
     <t>&lt;Periodo&gt;</t>
@@ -145,9 +154,6 @@
   </si>
   <si>
     <t>Marisol</t>
-  </si>
-  <si>
-    <t>&lt;cliente&gt;</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,6 +447,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,6 +468,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,10 +599,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -602,7 +616,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="10">
     <dxf>
       <font>
         <sz val="11"/>
@@ -611,7 +625,6 @@
         <family val="2"/>
         <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -621,7 +634,6 @@
         <family val="2"/>
         <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -631,7 +643,6 @@
         <family val="2"/>
         <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -641,7 +652,6 @@
         <family val="2"/>
         <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -654,10 +664,9 @@
       <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -667,7 +676,6 @@
         <family val="2"/>
         <charset val="1"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -680,10 +688,9 @@
       <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -696,10 +703,9 @@
       <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -712,10 +718,9 @@
       <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -728,68 +733,9 @@
       <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -836,7 +782,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF9BBB59"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -855,7 +801,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1034,11 +980,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="66597604"/>
-        <c:axId val="2237685"/>
+        <c:axId val="57573923"/>
+        <c:axId val="19259157"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66597604"/>
+        <c:axId val="57573923"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,14 +1001,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2237685"/>
+        <c:crossAx val="19259157"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2237685"/>
+        <c:axId val="19259157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1035,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66597604"/>
+        <c:crossAx val="57573923"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1124,7 +1070,2327 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$F$18:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$20:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.82352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.39130434782609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126760563380282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="78514224"/>
+        <c:axId val="94039154"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="78514224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="94039154"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94039154"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="78514224"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$E$37:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.637254901960784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.614285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.510869565217391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.558333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.184859154929577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="68739564"/>
+        <c:axId val="76774782"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68739564"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="76774782"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76774782"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="68739564"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$C$37:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$37:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$D$37:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="71352136"/>
+        <c:axId val="27481200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71352136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="27481200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27481200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="71352136"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$C$18:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$C$20:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$D$18:$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="38311296"/>
+        <c:axId val="69054638"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38311296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="69054638"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69054638"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="38311296"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$E$18:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.12270488132557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.436082474226804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.49090909090909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="10983491"/>
+        <c:axId val="37520821"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10983491"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="37520821"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37520821"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="10983491"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$C$31:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>89.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$D$31:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17.9334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.4896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="30013311"/>
+        <c:axId val="75952407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="30013311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="75952407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75952407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="30013311"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$E$31:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.799223018360949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.171590909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.496463917525773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.502954545454545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.171111111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="83129128"/>
+        <c:axId val="70813376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83129128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="70813376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70813376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="83129128"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Procesos'!$C$4:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Prospectación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Garantía</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Procesos'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="43628116"/>
+        <c:axId val="29083646"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43628116"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="29083646"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29083646"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="43628116"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Procesos'!$C$13:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Metricas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cambios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Procesos'!$G$13:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="68680355"/>
+        <c:axId val="4233713"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68680355"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="4233713"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4233713"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="68680355"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Productos'!$C$4:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Plan de Proyecto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Estimación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tickets de Servicio</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Carta de aceptación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Reporte de Monitoreo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Productos'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="15103657"/>
+        <c:axId val="85612490"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="15103657"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="85612490"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85612490"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="15103657"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Productos'!$C$12:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Plan de métricas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plan de configuración</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plan de Calidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Productos'!$G$12:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="44810733"/>
+        <c:axId val="80839513"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44810733"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="80839513"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80839513"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="44810733"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Física!$C$4:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Elementos de Configuración</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Línea Base</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cambios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Física!$G$4:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="95937460"/>
+        <c:axId val="30710537"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="95937460"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="30710537"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="30710537"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="95937460"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1179,7 +3445,7 @@
                   <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v/>
@@ -1190,11 +3456,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="26531676"/>
-        <c:axId val="49815176"/>
+        <c:axId val="48509245"/>
+        <c:axId val="17171804"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26531676"/>
+        <c:axId val="48509245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,14 +3477,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49815176"/>
+        <c:crossAx val="17171804"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49815176"/>
+        <c:axId val="17171804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1246,7 +3512,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="26531676"/>
+        <c:crossAx val="48509245"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1276,7 +3542,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1413,11 +3679,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="85475275"/>
-        <c:axId val="80559131"/>
+        <c:axId val="64982595"/>
+        <c:axId val="90448152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85475275"/>
+        <c:axId val="64982595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,14 +3700,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80559131"/>
+        <c:crossAx val="90448152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80559131"/>
+        <c:axId val="90448152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,7 +3757,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85475275"/>
+        <c:crossAx val="64982595"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1516,7 +3782,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1665,11 +3931,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="76667871"/>
-        <c:axId val="1132918"/>
+        <c:axId val="23049673"/>
+        <c:axId val="91298012"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76667871"/>
+        <c:axId val="23049673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,14 +3952,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1132918"/>
+        <c:crossAx val="91298012"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1132918"/>
+        <c:axId val="91298012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +4009,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="76667871"/>
+        <c:crossAx val="23049673"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1768,7 +4034,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1899,11 +4165,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="22047535"/>
-        <c:axId val="88925429"/>
+        <c:axId val="24490848"/>
+        <c:axId val="36359917"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22047535"/>
+        <c:axId val="24490848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,14 +4186,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88925429"/>
+        <c:crossAx val="36359917"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88925429"/>
+        <c:axId val="36359917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +4217,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22047535"/>
+        <c:crossAx val="24490848"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1986,7 +4252,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2000,11 +4266,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Indice de Satisfacción'!$E$2</c:f>
+              <c:f>'Crecimiento anual de ventas'!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Noviembre</c:v>
+                  <c:v>Planeado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2027,154 +4293,57 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Indice de Satisfacción'!$D$4:$D$6</c:f>
+              <c:f>'Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>&lt;cliente&gt;</c:v>
+                  <c:v>Diciembre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&lt;cliente&gt;</c:v>
+                  <c:v>Oriana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>&lt;cliente&gt;</c:v>
+                  <c:v>Marisol</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Indice de Satisfacción'!$E$4:$E$6</c:f>
+              <c:f>'Crecimiento anual de ventas'!$B$34:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>202000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>101000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="54293765"/>
-        <c:axId val="38280187"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="54293765"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="38280187"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="38280187"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="54293765"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$F$18:$F$19</c:f>
+              <c:f>'Crecimiento anual de ventas'!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2190,53 +4359,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$20:$B$25</c:f>
+              <c:f>'Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Diciembre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Planeación</c:v>
+                  <c:v>Oriana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
+                  <c:v>Marisol</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
+              <c:f>'Crecimiento anual de ventas'!$C$34:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-2.82352941176471</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32780</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.39130434782609</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.126760563380282</c:v>
+                  <c:v>22005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,11 +4395,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="88966187"/>
-        <c:axId val="88321111"/>
+        <c:axId val="88385450"/>
+        <c:axId val="60319563"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88966187"/>
+        <c:axId val="88385450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,18 +4416,16 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88321111"/>
+        <c:crossAx val="60319563"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88321111"/>
+        <c:axId val="60319563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2301,266 +4450,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88966187"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$C$18:$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$C$20:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>22.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$D$18:$D$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$D$20:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>47.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="15804618"/>
-        <c:axId val="16028719"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="15804618"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="16028719"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="16028719"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="15804618"/>
+        <c:crossAx val="88385450"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2595,184 +4485,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$E$18:$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$E$20:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-1.12270488132557</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.436082474226804</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.49090909090909</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="71245217"/>
-        <c:axId val="6063734"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="71245217"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="6063734"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="6063734"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="71245217"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2802,53 +4515,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Procesos'!$C$4:$C$9</c:f>
+              <c:f>'Crecimiento anual de ventas'!$G$34:$H$34</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Prospectación</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Garantía</c:v>
+                  <c:v>Real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$G$4:$G$9</c:f>
+              <c:f>'Crecimiento anual de ventas'!$G$35:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2424000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
+                  <c:v>2220588.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2856,17 +4545,17 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="7828885"/>
-        <c:axId val="65259803"/>
+        <c:axId val="87951037"/>
+        <c:axId val="37613832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="7828885"/>
+        <c:axId val="87951037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2877,14 +4566,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="65259803"/>
+        <c:crossAx val="37613832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65259803"/>
+        <c:axId val="37613832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +4589,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2911,14 +4600,9 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7828885"/>
+        <c:crossAx val="87951037"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -2928,6 +4612,16 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:spPr>
@@ -2941,7 +4635,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2953,6 +4647,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4f81bd"/>
@@ -2971,143 +4676,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Procesos'!$C$13:$C$15</c:f>
+              <c:f>'Indice de Satisfacción'!$C$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Metricas</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Noviembre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Calidad</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cambios</c:v>
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$G$13:$G$15</c:f>
+              <c:f>'Indice de Satisfacción'!$C$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="89351905"/>
-        <c:axId val="47999787"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="89351905"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="47999787"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="47999787"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="89351905"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="c0504d"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3123,155 +4733,51 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Productos'!$C$4:$C$8</c:f>
+              <c:f>'Indice de Satisfacción'!$C$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Plan de Proyecto</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Noviembre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Estimación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tickets de Servicio</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Carta de aceptación</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Reporte de Monitoreo</c:v>
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$G$4:$G$8</c:f>
+              <c:f>'Indice de Satisfacción'!$C$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.857</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="33581245"/>
-        <c:axId val="11578033"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="33581245"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="11578033"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="11578033"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="33581245"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="9bbb59"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3287,35 +4793,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Productos'!$C$12:$C$14</c:f>
+              <c:f>'Indice de Satisfacción'!$C$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Plan de métricas</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Noviembre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Plan de configuración</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Plan de Calidad</c:v>
+                  <c:v>Diciembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$G$12:$G$14</c:f>
+              <c:f>'Indice de Satisfacción'!$C$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3323,17 +4823,17 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="62849316"/>
-        <c:axId val="55935409"/>
+        <c:axId val="31147312"/>
+        <c:axId val="51830018"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62849316"/>
+        <c:axId val="31147312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3344,17 +4844,16 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55935409"/>
+        <c:crossAx val="51830018"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55935409"/>
+        <c:axId val="51830018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3368,7 +4867,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3379,14 +4878,9 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62849316"/>
+        <c:crossAx val="31147312"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -3396,158 +4890,16 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Física!$C$4:$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Elementos de Configuración</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Línea Base</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cambios</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Física!$G$4:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="8096856"/>
-        <c:axId val="27183761"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="8096856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="27183761"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="27183761"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="8096856"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-      </c:dTable>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:spPr>
@@ -3566,15 +4918,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>717480</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>798480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>434520</xdr:colOff>
+      <xdr:colOff>514440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3582,8 +4934,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="920520" y="192600"/>
-        <a:ext cx="8988480" cy="2743920"/>
+        <a:off x="1001520" y="165600"/>
+        <a:ext cx="8987400" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3596,15 +4948,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>307080</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:colOff>409320</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>551160</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:colOff>652320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3612,12 +4964,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7000560" y="3189600"/>
-        <a:ext cx="7851240" cy="3001680"/>
+        <a:off x="7102800" y="3321360"/>
+        <a:ext cx="7850160" cy="2995200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>172800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>598680</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="7 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7007400" y="8604720"/>
+        <a:ext cx="5986800" cy="2742480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>102240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>172800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="8 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="305280" y="8604720"/>
+        <a:ext cx="6002280" cy="2742480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3631,24 +5043,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>208080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>221040</xdr:colOff>
+      <xdr:colOff>300960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="4" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="330120" y="192600"/>
-        <a:ext cx="6172920" cy="2818080"/>
+        <a:off x="411120" y="165600"/>
+        <a:ext cx="6176880" cy="2817000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3661,28 +5073,88 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>398520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>468720</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="5" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6599520" y="173520"/>
-        <a:ext cx="6031080" cy="2799000"/>
+        <a:off x="6685560" y="146520"/>
+        <a:ext cx="6030000" cy="2797920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>218520</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217440</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>51840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="421560" y="7581600"/>
+        <a:ext cx="6082920" cy="3456360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>112680</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>225000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>174960</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>62280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="5 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7301160" y="7639200"/>
+        <a:ext cx="6069600" cy="3409200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3696,24 +5168,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
+      <xdr:colOff>113040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1182960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>443880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="4 Gráfico"/>
+        <xdr:cNvPr id="8" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="336600" y="2954520"/>
-        <a:ext cx="9431280" cy="2855880"/>
+        <a:off x="417600" y="2927520"/>
+        <a:ext cx="9703440" cy="2854800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3725,25 +5197,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1279440</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>522000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>144360</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1014840</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="6 Gráfico"/>
+        <xdr:cNvPr id="9" name="6 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9864360" y="2926080"/>
-        <a:ext cx="6307200" cy="2846520"/>
+        <a:off x="10745280" y="2804040"/>
+        <a:ext cx="5153760" cy="2845440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3761,24 +5233,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:colOff>113040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>239760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>319680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="1 Gráfico"/>
+        <xdr:cNvPr id="10" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="336600" y="2668680"/>
-        <a:ext cx="6647400" cy="2856240"/>
+        <a:off x="417600" y="2641680"/>
+        <a:ext cx="6646320" cy="2855160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3791,24 +5263,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>384120</xdr:colOff>
+      <xdr:colOff>446040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>344520</xdr:colOff>
+      <xdr:colOff>405360</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="4 Gráfico"/>
+        <xdr:cNvPr id="11" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8855640" y="2602080"/>
-        <a:ext cx="6500880" cy="2856240"/>
+        <a:off x="8917560" y="2603520"/>
+        <a:ext cx="6499800" cy="2855160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3826,24 +5298,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:colOff>189000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>563760</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>643680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="1 Gráfico"/>
+        <xdr:cNvPr id="12" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="412560" y="1344960"/>
-        <a:ext cx="5790600" cy="2855880"/>
+        <a:off x="493560" y="1317960"/>
+        <a:ext cx="5789520" cy="2854800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3861,24 +5333,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>24480</xdr:colOff>
+      <xdr:colOff>105480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>628560</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="1 Gráfico"/>
+        <xdr:cNvPr id="13" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="329040" y="1375560"/>
-        <a:ext cx="5859000" cy="2855880"/>
+        <a:off x="410040" y="1348560"/>
+        <a:ext cx="5857920" cy="2854800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3896,24 +5368,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>515880</xdr:colOff>
+      <xdr:colOff>595800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="1 Gráfico"/>
+        <xdr:cNvPr id="14" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="108000" y="40320"/>
-        <a:ext cx="6059880" cy="2399040"/>
+        <a:off x="189000" y="13320"/>
+        <a:ext cx="6058800" cy="2397960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3926,24 +5398,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
+      <xdr:colOff>198360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>753840</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="2 Gráfico"/>
+        <xdr:cNvPr id="15" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8538480" y="3135600"/>
-        <a:ext cx="5704560" cy="2742120"/>
+        <a:off x="8619480" y="3123720"/>
+        <a:ext cx="5890680" cy="2771640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3956,28 +5428,88 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1108080</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>621000</xdr:colOff>
+      <xdr:colOff>700920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="8 Gráfico"/>
+        <xdr:cNvPr id="16" name="8 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9529200" y="49680"/>
-        <a:ext cx="5520600" cy="2084400"/>
+        <a:off x="9610200" y="22680"/>
+        <a:ext cx="5519520" cy="2083320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>633600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="633600" y="7569000"/>
+        <a:ext cx="6219000" cy="2742120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1109880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>187200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508680</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7701480" y="7654680"/>
+        <a:ext cx="6296400" cy="2742120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3990,25 +5522,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>319320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>766080</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="1 Gráfico"/>
+        <xdr:cNvPr id="19" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="783360" y="1415520"/>
-        <a:ext cx="5751720" cy="2855880"/>
+        <a:off x="585720" y="1511280"/>
+        <a:ext cx="4917240" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4026,10 +5558,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4064,9 +5596,13 @@
     <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4078,19 +5614,19 @@
         <v>46692</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>51</v>
@@ -4106,7 +5642,7 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8" t="n">
         <v>35</v>
@@ -4122,7 +5658,7 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="8" t="n">
         <v>80</v>
@@ -4138,7 +5674,7 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="8" t="n">
         <v>23</v>
@@ -4154,7 +5690,7 @@
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="8" t="n">
         <v>90</v>
@@ -4170,7 +5706,7 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="8" t="n">
         <v>142</v>
@@ -4189,9 +5725,143 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <f aca="false">51*4</f>
+        <v>204</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <f aca="false">(C37-D37)/C37</f>
+        <v>0.637254901960784</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="8" t="n">
+        <f aca="false">35*4</f>
+        <v>140</v>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="E38" s="9" t="n">
+        <f aca="false">(C38-D38)/C38</f>
+        <v>0.614285714285714</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="D39" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <f aca="false">(C39-D39)/C39</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="8" t="n">
+        <f aca="false">23*4</f>
+        <v>92</v>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <f aca="false">(C40-D40)/C40</f>
+        <v>0.510869565217391</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>187</v>
+      </c>
+      <c r="E41" s="9" t="n">
+        <f aca="false">(C41-D41)/C41</f>
+        <v>-0.558333333333333</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="8" t="n">
+        <f aca="false">142*4</f>
+        <v>568</v>
+      </c>
+      <c r="D42" s="8" t="n">
+        <v>463</v>
+      </c>
+      <c r="E42" s="9" t="n">
+        <f aca="false">(C42-D42)/C42</f>
+        <v>0.184859154929577</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4209,19 +5879,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4291497975709"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1417004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.71255060728745"/>
     <col collapsed="false" hidden="false" max="15" min="8" style="0" width="11.5708502024291"/>
@@ -4252,28 +5922,28 @@
       <c r="B19" s="2" t="n">
         <v>46692</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13" t="n">
         <v>22.33</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="13" t="n">
         <v>47.4</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="14" t="n">
         <f aca="false">(C20-D20)/C20</f>
         <v>-1.12270488132557</v>
       </c>
@@ -4281,15 +5951,15 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13" t="n">
         <v>3.96</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="15" t="n">
         <f aca="false">(C21-D21)/C21</f>
         <v>1</v>
       </c>
@@ -4297,15 +5967,15 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13" t="n">
         <v>19.4</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="13" t="n">
         <v>10.94</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="15" t="n">
         <f aca="false">(C22-D22)/C22</f>
         <v>0.436082474226804</v>
       </c>
@@ -4313,15 +5983,15 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13" t="n">
         <v>5.5</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="13" t="n">
         <v>35.7</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="14" t="n">
         <f aca="false">(C23-D23)/C23</f>
         <v>-5.49090909090909</v>
       </c>
@@ -4329,15 +5999,15 @@
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="13" t="n">
+      <c r="E24" s="15" t="n">
         <f aca="false">(C24-D24)/C24</f>
         <v>1</v>
       </c>
@@ -4345,15 +6015,15 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13" t="n">
         <v>22.5</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="14" t="n">
         <f aca="false">(C25-D25)/C25</f>
         <v>0.2</v>
       </c>
@@ -4361,9 +6031,124 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D27" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="13" t="n">
+        <f aca="false">22.33*4</f>
+        <v>89.32</v>
+      </c>
+      <c r="D31" s="13" t="n">
+        <f aca="false">1.23*14.58</f>
+        <v>17.9334</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <f aca="false">(C31-D31)/C31</f>
+        <v>0.799223018360949</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="13" t="n">
+        <f aca="false">3.96*4</f>
+        <v>15.84</v>
+      </c>
+      <c r="D32" s="13" t="n">
+        <f aca="false">0.9*14.58</f>
+        <v>13.122</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <f aca="false">(C32-D32)/C32</f>
+        <v>0.171590909090909</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="13" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D33" s="13" t="n">
+        <f aca="false">0.67 * 14.58</f>
+        <v>9.7686</v>
+      </c>
+      <c r="E33" s="15" t="n">
+        <f aca="false">(C33-D33)/C33</f>
+        <v>0.496463917525773</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="13" t="n">
+        <f aca="false">5.5*4</f>
+        <v>22</v>
+      </c>
+      <c r="D34" s="13" t="n">
+        <f aca="false">0.75*14.58</f>
+        <v>10.935</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <f aca="false">(C34-D34)/C34</f>
+        <v>0.502954545454545</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="13" t="n">
+        <f aca="false">2*14.58</f>
+        <v>29.16</v>
+      </c>
+      <c r="D35" s="13" t="n">
+        <f aca="false">3.12*14.58</f>
+        <v>45.4896</v>
+      </c>
+      <c r="E35" s="15" t="n">
+        <f aca="false">(C35-D35)/C35</f>
+        <v>-0.56</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="13" t="n">
+        <f aca="false">22.5*4</f>
+        <v>90</v>
+      </c>
+      <c r="D36" s="13" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <f aca="false">(C36-D36)/C36</f>
+        <v>-0.171111111111111</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4383,8 +6168,8 @@
   </sheetPr>
   <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4392,14 +6177,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="13.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2793522267206"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="6.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -4407,211 +6190,219 @@
       <c r="D1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21" t="n">
+        <v>20151127</v>
+      </c>
+      <c r="E3" s="22" t="n">
+        <v>20151211</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19" t="n">
+      <c r="B4" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22" t="e">
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25" t="e">
         <f aca="false">AVERAGE(D4:F4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19" t="n">
+      <c r="B5" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="21" t="n">
+      <c r="C5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22" t="n">
+      <c r="E5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25" t="n">
         <f aca="false">AVERAGE(D5:F5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="19" t="n">
+      <c r="B6" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="n">
+        <f aca="false">AVERAGE(D6:F6)</f>
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="C7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22" t="n">
-        <f aca="false">AVERAGE(D6:F6)</f>
+      <c r="E7" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22" t="n">
+      <c r="F7" s="24"/>
+      <c r="G7" s="25" t="n">
         <f aca="false">AVERAGE(D7:F7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25" t="n">
+        <f aca="false">AVERAGE(D8:F8)</f>
+        <v>0.665</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="21" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="n">
-        <f aca="false">AVERAGE(D8:F8)</f>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22" t="e">
+      <c r="C9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25" t="e">
         <f aca="false">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="23"/>
-      <c r="O10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="24"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="O12" s="24"/>
+      <c r="E12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="O12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="22" t="e">
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="25" t="e">
         <f aca="false">AVERAGE(D13:F13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="19" t="n">
+      <c r="B14" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="22" t="e">
+      <c r="C14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="25" t="e">
         <f aca="false">AVERAGE(D14:F14)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="19" t="n">
+      <c r="B15" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="22" t="e">
+      <c r="C15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="25" t="e">
         <f aca="false">AVERAGE(D15:F15)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4686,8 +6477,8 @@
   </sheetPr>
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4695,7 +6486,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="11.7125506072874"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4251012145749"/>
@@ -4708,222 +6499,230 @@
       <c r="D1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="18" t="n">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21" t="n">
         <v>20151127</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="E3" s="20" t="n">
+        <v>20151211</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="26" t="n">
+      <c r="C4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="29" t="n">
         <v>0.857</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="22" t="n">
+      <c r="E4" s="29" t="n">
+        <v>0.8676</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25" t="n">
         <f aca="false">AVERAGE(D4:F4)</f>
-        <v>0.857</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+        <v>0.8623</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="26" t="n">
+      <c r="C5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="29" t="n">
         <v>0.6</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="22" t="n">
+      <c r="E5" s="29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="25" t="n">
         <f aca="false">AVERAGE(D5:F5)</f>
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+        <v>0.775</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22" t="e">
+      <c r="C6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="25" t="e">
         <f aca="false">AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="26" t="n">
+      <c r="C7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="22" t="n">
+      <c r="E7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="25" t="n">
         <f aca="false">AVERAGE(D7:F7)</f>
         <v>1</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="17" t="n">
+      <c r="B8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="22" t="e">
+      <c r="C8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="25" t="n">
         <f aca="false">AVERAGE(D8:F8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+        <v>0.8571</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="23"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="E11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17" t="n">
+      <c r="B12" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22" t="e">
+      <c r="C12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25" t="e">
         <f aca="false">AVERAGE(D12:F12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="17" t="n">
+      <c r="B13" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22" t="e">
+      <c r="C13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25" t="e">
         <f aca="false">AVERAGE(D13:F13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22" t="e">
+      <c r="C14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25" t="e">
         <f aca="false">AVERAGE(D14:F14)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="30"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -5015,8 +6814,8 @@
   </sheetPr>
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5024,7 +6823,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="11.7125506072874"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7085020242915"/>
@@ -5037,102 +6836,106 @@
       <c r="D1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="18" t="n">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="21" t="n">
         <v>20151127</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="E3" s="20" t="n">
+        <v>20151211</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="26" t="n">
+      <c r="C4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="22" t="n">
+      <c r="E4" s="29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25" t="n">
         <f aca="false">AVERAGE(D4:F4)</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="26" t="n">
+      <c r="C5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="29" t="n">
         <v>0.67</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="22" t="n">
+      <c r="E5" s="29" t="n">
+        <v>0.8325</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="25" t="n">
         <f aca="false">AVERAGE(D5:F5)</f>
-        <v>0.67</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+        <v>0.75125</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22" t="e">
+      <c r="C6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="25" t="e">
         <f aca="false">AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="23"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="30"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -5170,7 +6973,7 @@
   <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5178,7 +6981,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="11.7125506072874"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7125506072874"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
@@ -5200,103 +7003,107 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
-      <c r="D2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="18" t="n">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="21" t="n">
         <v>20151127</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="E3" s="20" t="n">
+        <v>2015121</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="26" t="n">
+      <c r="C4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="29" t="n">
         <v>0.67</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="22" t="n">
+      <c r="E4" s="29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25" t="n">
         <f aca="false">AVERAGE(D4:F4)</f>
         <v>0.67</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="26" t="n">
+      <c r="C5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="22" t="n">
+      <c r="E5" s="29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="25" t="n">
         <f aca="false">AVERAGE(D5:F5)</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+        <v>0.875</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22" t="e">
+      <c r="C6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="25" t="e">
         <f aca="false">AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0"/>
-      <c r="D7" s="23"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="30"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -5331,10 +7138,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A13:I17"/>
+  <dimension ref="A13:I36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5351,110 +7158,197 @@
   </cols>
   <sheetData>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="G13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="35" t="s">
+      <c r="C14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="38" t="n">
+      <c r="H14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="41" t="n">
         <v>202000</v>
       </c>
-      <c r="C15" s="38" t="n">
+      <c r="C15" s="41" t="n">
         <f aca="false">SUM(C16:C17)</f>
         <v>130775.3</v>
       </c>
-      <c r="D15" s="39" t="n">
+      <c r="D15" s="42" t="n">
         <f aca="false">(C15 * 100)/B15</f>
         <v>64.7402475247525</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41" t="n">
+      <c r="F15" s="43"/>
+      <c r="G15" s="44" t="n">
         <v>2424000</v>
       </c>
-      <c r="H15" s="38" t="n">
+      <c r="H15" s="41" t="n">
         <v>130775.3</v>
       </c>
-      <c r="I15" s="42" t="n">
+      <c r="I15" s="45" t="n">
         <f aca="false">(H15 * 100)/G15</f>
         <v>5.39502062706271</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" s="44" t="n">
         <f aca="false">B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C16" s="43" t="n">
+      <c r="C16" s="46" t="n">
         <v>54818.4</v>
       </c>
-      <c r="D16" s="44" t="n">
+      <c r="D16" s="47" t="n">
         <f aca="false">(C16 * 100)/B16</f>
         <v>54.2756435643564</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="43"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="41" t="n">
+        <v>43</v>
+      </c>
+      <c r="B17" s="44" t="n">
         <f aca="false">B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C17" s="43" t="n">
+      <c r="C17" s="46" t="n">
         <v>75956.9</v>
       </c>
-      <c r="D17" s="47" t="n">
+      <c r="D17" s="49" t="n">
         <f aca="false">(C17 * 100)/B17</f>
         <v>75.2048514851485</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="48"/>
+    </row>
+    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="41" t="n">
+        <v>202000</v>
+      </c>
+      <c r="C34" s="41" t="n">
+        <f aca="false">SUM(C35:C36)</f>
+        <v>32780</v>
+      </c>
+      <c r="D34" s="42" t="n">
+        <f aca="false">(C34 * 100)/B34</f>
+        <v>16.2277227722772</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="44" t="n">
+        <f aca="false">B34/2</f>
+        <v>101000</v>
+      </c>
+      <c r="C35" s="46" t="n">
+        <v>10775</v>
+      </c>
+      <c r="D35" s="47" t="n">
+        <f aca="false">(C35 * 100)/B35</f>
+        <v>10.6683168316832</v>
+      </c>
+      <c r="G35" s="44" t="n">
+        <v>2424000</v>
+      </c>
+      <c r="H35" s="41" t="n">
+        <v>2220588.2</v>
+      </c>
+      <c r="I35" s="45" t="n">
+        <f aca="false">(H35 * 100)/G35</f>
+        <v>91.6084240924092</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="44" t="n">
+        <f aca="false">B34/2</f>
+        <v>101000</v>
+      </c>
+      <c r="C36" s="46" t="n">
+        <v>22005</v>
+      </c>
+      <c r="D36" s="49" t="n">
+        <f aca="false">(C36 * 100)/B36</f>
+        <v>21.7871287128713</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G33:I33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5468,98 +7362,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:G6"/>
+  <dimension ref="C1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="1023" min="3" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="21" t="n">
         <v>20151127</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="18" t="n">
+      <c r="D3" s="20" t="n">
+        <v>20151211</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C6">
+  <conditionalFormatting sqref="D3:E3">
     <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:G3">
+  <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Desviacion de costos" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Apego a Procesos" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Apego a Productos" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Física" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Funcional" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Crecimiento anual de ventas" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Indice de Satisfacción" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Desviacion de esfuerzo" sheetId="1" r:id="rId1"/>
+    <sheet name="Desviacion de costos" sheetId="2" r:id="rId2"/>
+    <sheet name="Apego a Procesos" sheetId="3" r:id="rId3"/>
+    <sheet name="Apego a Productos" sheetId="4" r:id="rId4"/>
+    <sheet name="Física" sheetId="5" r:id="rId5"/>
+    <sheet name="Funcional" sheetId="6" r:id="rId6"/>
+    <sheet name="Crecimiento anual de ventas" sheetId="7" r:id="rId7"/>
+    <sheet name="Indice de Satisfacción" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
   <si>
     <t>Versión 1.0</t>
   </si>
@@ -155,24 +154,19 @@
   <si>
     <t>Marisol</t>
   </si>
+  <si>
+    <t>P1345</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="164" formatCode="0%"/>
-    <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="GENERAL"/>
-    <numFmt numFmtId="167" formatCode="MMM\-YY"/>
-    <numFmt numFmtId="168" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.00%"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
-    <numFmt numFmtId="171" formatCode="DD\-MMM"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="\$#,##0.00;[RED]&quot;-$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]&quot;-$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -181,22 +175,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -210,20 +189,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -238,14 +204,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,23 +255,37 @@
         <bgColor rgb="FFE5E0EC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -311,7 +298,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -326,21 +313,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF604A7B"/>
@@ -349,7 +346,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF604A7B"/>
       </left>
@@ -360,14 +357,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF604A7B"/>
@@ -378,256 +381,171 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="54">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="32">
     <dxf>
@@ -635,8 +553,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -644,8 +560,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -653,8 +567,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -662,8 +574,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -671,10 +581,64 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
@@ -686,19 +650,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
@@ -710,10 +663,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
@@ -725,10 +676,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
@@ -740,10 +689,15 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
@@ -755,8 +709,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -764,8 +716,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -773,8 +723,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -782,8 +730,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -791,10 +737,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
@@ -806,19 +750,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
@@ -830,10 +763,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
@@ -845,10 +776,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
@@ -860,10 +789,15 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
@@ -875,8 +809,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -884,8 +816,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -893,8 +823,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -902,83 +830,10 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1037,20 +892,38 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1067,12 +940,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1080,6 +954,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1134,6 +1010,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1151,12 +1041,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1164,6 +1055,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1218,14 +1111,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="41402102"/>
-        <c:axId val="84788040"/>
+        <c:axId val="108407424"/>
+        <c:axId val="108417408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41402102"/>
+        <c:axId val="108407424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1156,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84788040"/>
+        <c:crossAx val="108417408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84788040"/>
+        <c:axId val="108417408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,6 +1180,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1276,12 +1192,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41402102"/>
+        <c:crossAx val="108407424"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1290,6 +1207,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1299,38 +1217,51 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1338,6 +1269,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1360,28 +1293,49 @@
             <c:numRef>
               <c:f>'Apego a Procesos'!$G$13:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="79371479"/>
-        <c:axId val="93097140"/>
+        <c:axId val="117606656"/>
+        <c:axId val="117620736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79371479"/>
+        <c:axId val="117606656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,14 +1352,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93097140"/>
+        <c:crossAx val="117620736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93097140"/>
+        <c:axId val="117620736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1422,6 +1377,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1433,17 +1389,19 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79371479"/>
+        <c:crossAx val="117606656"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1451,38 +1409,51 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1490,6 +1461,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1518,34 +1491,55 @@
             <c:numRef>
               <c:f>'Apego a Productos'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.8623</c:v>
+                  <c:v>0.86230000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.775</c:v>
+                  <c:v>0.77499999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8571</c:v>
+                  <c:v>0.85709999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="52984951"/>
-        <c:axId val="98292936"/>
+        <c:axId val="117757824"/>
+        <c:axId val="117759360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52984951"/>
+        <c:axId val="117757824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,14 +1556,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98292936"/>
+        <c:crossAx val="117759360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98292936"/>
+        <c:axId val="117759360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1586,6 +1581,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1597,17 +1593,19 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52984951"/>
+        <c:crossAx val="117757824"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1615,38 +1613,51 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1654,6 +1665,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1676,28 +1689,49 @@
             <c:numRef>
               <c:f>'Apego a Productos'!$G$12:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="70344810"/>
-        <c:axId val="73766238"/>
+        <c:axId val="117802112"/>
+        <c:axId val="117803648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70344810"/>
+        <c:axId val="117802112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,14 +1748,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73766238"/>
+        <c:crossAx val="117803648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73766238"/>
+        <c:axId val="117803648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1738,6 +1773,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1749,17 +1785,19 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70344810"/>
+        <c:crossAx val="117802112"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1767,38 +1805,51 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1806,6 +1857,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1828,28 +1881,49 @@
             <c:numRef>
               <c:f>Física!$G$4:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75125</c:v>
+                  <c:v>0.75124999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="72326397"/>
-        <c:axId val="79024392"/>
+        <c:axId val="118891264"/>
+        <c:axId val="118892800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72326397"/>
+        <c:axId val="118891264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,14 +1940,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79024392"/>
+        <c:crossAx val="118892800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79024392"/>
+        <c:axId val="118892800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1890,6 +1965,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1901,17 +1977,19 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72326397"/>
+        <c:crossAx val="118891264"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1919,38 +1997,51 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1958,6 +2049,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1980,7 +2073,7 @@
             <c:numRef>
               <c:f>Funcional!$G$4:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.67</c:v>
@@ -1989,19 +2082,40 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="37213918"/>
-        <c:axId val="79468550"/>
+        <c:axId val="119828864"/>
+        <c:axId val="119830400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37213918"/>
+        <c:axId val="119828864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,14 +2132,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79468550"/>
+        <c:crossAx val="119830400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79468550"/>
+        <c:axId val="119830400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2042,6 +2157,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2053,17 +2169,19 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37213918"/>
+        <c:crossAx val="119828864"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2071,58 +2189,65 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Planeado"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Planeado</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2130,6 +2255,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2146,7 +2273,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>202000</c:v>
@@ -2154,38 +2281,47 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Real"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Real</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2193,6 +2329,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2209,22 +2347,43 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$C$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>130775.3</c:v>
+                  <c:v>130775.29999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="73575000"/>
-        <c:axId val="16305565"/>
+        <c:axId val="119616640"/>
+        <c:axId val="119618176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73575000"/>
+        <c:axId val="119616640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,14 +2400,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16305565"/>
+        <c:crossAx val="119618176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16305565"/>
+        <c:axId val="119618176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2434,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000">
+                  <a:rPr lang="es-MX" sz="1000" b="1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2286,7 +2446,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2298,12 +2460,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73575000"/>
+        <c:crossAx val="119616640"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2311,27 +2474,39 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2348,21 +2523,24 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2370,20 +2548,16 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Crecimiento anual de ventas'!$G$13:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Monto Total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2392,7 +2566,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>2424000</c:v>
@@ -2400,6 +2574,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2417,21 +2605,24 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
             </c:dLbl>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2439,20 +2630,16 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Crecimiento anual de ventas'!$G$13:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Monto Total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2461,7 +2648,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>130775.3</c:v>
@@ -2469,14 +2656,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="71059607"/>
-        <c:axId val="22254425"/>
+        <c:axId val="119660928"/>
+        <c:axId val="119662464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71059607"/>
+        <c:axId val="119660928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,14 +2701,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22254425"/>
+        <c:crossAx val="119662464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22254425"/>
+        <c:axId val="119662464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,7 +2735,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000">
+                  <a:rPr lang="es-MX" sz="1000" b="1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2538,7 +2747,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2550,12 +2761,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71059607"/>
+        <c:crossAx val="119660928"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2563,27 +2775,39 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2600,12 +2824,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2613,6 +2838,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2632,17 +2859,31 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$16:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.00;[Red]"-$"#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
                   <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54818.4</c:v>
+                  <c:v>54818.400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2660,12 +2901,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2673,6 +2915,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2692,25 +2936,47 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$17:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.00;[Red]"-$"#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
                   <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75956.9</c:v>
+                  <c:v>75956.899999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="93444083"/>
-        <c:axId val="56979944"/>
+        <c:axId val="119774592"/>
+        <c:axId val="119780480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93444083"/>
+        <c:axId val="119774592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,14 +2993,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56979944"/>
+        <c:crossAx val="119780480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56979944"/>
+        <c:axId val="119780480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,6 +3017,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2758,12 +3026,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93444083"/>
+        <c:crossAx val="119774592"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2772,6 +3041,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2781,27 +3051,39 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2818,12 +3100,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2831,10 +3114,12 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36</c:f>
+              <c:f>('Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2853,7 +3138,7 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$B$34:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>202000</c:v>
@@ -2867,6 +3152,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2884,12 +3183,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -2897,10 +3197,12 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36</c:f>
+              <c:f>('Crecimiento anual de ventas'!$A$33,'Crecimiento anual de ventas'!$A$35:$A$36)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2919,9 +3221,9 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$C$34:$C$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.00;[Red]"-$"#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-">
                   <c:v>32780</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2933,14 +3235,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="59229479"/>
-        <c:axId val="52845014"/>
+        <c:axId val="133843584"/>
+        <c:axId val="133861760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59229479"/>
+        <c:axId val="133843584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,14 +3280,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52845014"/>
+        <c:crossAx val="133861760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52845014"/>
+        <c:axId val="133861760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,6 +3304,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2991,12 +3316,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="59229479"/>
+        <c:crossAx val="133843584"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3005,6 +3331,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3014,38 +3341,51 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3053,6 +3393,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3072,25 +3414,46 @@
             <c:numRef>
               <c:f>'Crecimiento anual de ventas'!$G$35:$H$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2424000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2220588.2</c:v>
+                  <c:v>2220588.2000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="15995124"/>
-        <c:axId val="37667920"/>
+        <c:axId val="133882624"/>
+        <c:axId val="133884160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15995124"/>
+        <c:axId val="133882624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,14 +3470,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37667920"/>
+        <c:crossAx val="133884160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37667920"/>
+        <c:axId val="133884160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,6 +3494,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3141,12 +3506,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15995124"/>
+        <c:crossAx val="133882624"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3155,6 +3521,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3164,27 +3531,39 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3194,19 +3573,20 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Desviación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3214,6 +3594,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3245,10 +3627,10 @@
             <c:numRef>
               <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-2.82352941176471</c:v>
+                  <c:v>-2.8235294117647061</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3257,25 +3639,46 @@
                   <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.39130434782609</c:v>
+                  <c:v>-5.3913043478260869</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.126760563380282</c:v>
+                  <c:v>0.12676056338028169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="384040"/>
-        <c:axId val="19708082"/>
+        <c:axId val="108431616"/>
+        <c:axId val="108457984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384040"/>
+        <c:axId val="108431616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3292,14 +3695,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19708082"/>
+        <c:crossAx val="108457984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19708082"/>
+        <c:axId val="108457984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3317,6 +3721,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3328,12 +3733,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="384040"/>
+        <c:crossAx val="108431616"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3341,27 +3747,39 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3370,20 +3788,18 @@
               <c:f>'Indice de Satisfacción'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3391,6 +3807,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3413,11 +3831,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3427,20 +3859,18 @@
               <c:f>'Indice de Satisfacción'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3448,6 +3878,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3470,14 +3902,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3487,20 +3933,18 @@
               <c:f>'Indice de Satisfacción'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
+              <a:srgbClr val="9BBB59"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3508,6 +3952,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3527,25 +3973,43 @@
             <c:numRef>
               <c:f>'Indice de Satisfacción'!$C$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="29824300"/>
-        <c:axId val="55806363"/>
+        <c:axId val="134039040"/>
+        <c:axId val="134040576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29824300"/>
+        <c:axId val="134039040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,14 +4026,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55806363"/>
+        <c:crossAx val="134040576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55806363"/>
+        <c:axId val="134040576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3585,6 +4050,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3596,12 +4062,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="29824300"/>
+        <c:crossAx val="134039040"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3610,6 +4077,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3619,21 +4087,31 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3645,7 +4123,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1">
+              <a:rPr lang="es-MX" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3657,12 +4135,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3679,12 +4160,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3692,6 +4174,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3723,37 +4207,58 @@
             <c:numRef>
               <c:f>'Desviacion de esfuerzo'!$E$37:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.637254901960784</c:v>
+                  <c:v>0.63725490196078427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.614285714285714</c:v>
+                  <c:v>0.61428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.510869565217391</c:v>
+                  <c:v>0.51086956521739135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.07777777777778</c:v>
+                  <c:v>-1.0777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.184859154929577</c:v>
+                  <c:v>0.18485915492957747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="73996970"/>
-        <c:axId val="8614310"/>
+        <c:axId val="108482560"/>
+        <c:axId val="108484096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73996970"/>
+        <c:axId val="108482560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,14 +4275,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8614310"/>
+        <c:crossAx val="108484096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8614310"/>
+        <c:axId val="108484096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3793,6 +4299,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3804,12 +4311,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73996970"/>
+        <c:crossAx val="108482560"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3818,6 +4326,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3827,27 +4336,39 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3864,12 +4385,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3877,6 +4399,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3931,6 +4455,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3948,12 +4486,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -3961,6 +4500,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4015,14 +4556,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="1926703"/>
-        <c:axId val="83276172"/>
+        <c:axId val="109890944"/>
+        <c:axId val="109909120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1926703"/>
+        <c:axId val="109890944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4039,14 +4601,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83276172"/>
+        <c:crossAx val="109909120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83276172"/>
+        <c:axId val="109909120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4062,6 +4625,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4073,12 +4637,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1926703"/>
+        <c:crossAx val="109890944"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -4087,6 +4652,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4096,27 +4662,39 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4133,12 +4711,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4146,6 +4725,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4177,7 +4758,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$C$20:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>22.33</c:v>
@@ -4186,7 +4767,7 @@
                   <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.4</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.5</c:v>
@@ -4200,6 +4781,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4217,12 +4812,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4230,6 +4826,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4261,7 +4859,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$D$20:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>47.4</c:v>
@@ -4273,7 +4871,7 @@
                   <c:v>10.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.7</c:v>
+                  <c:v>35.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4284,14 +4882,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="17265608"/>
-        <c:axId val="1419233"/>
+        <c:axId val="116737536"/>
+        <c:axId val="116739072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17265608"/>
+        <c:axId val="116737536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,14 +4927,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1419233"/>
+        <c:crossAx val="116739072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1419233"/>
+        <c:axId val="116739072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4331,6 +4951,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4342,12 +4963,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="17265608"/>
+        <c:crossAx val="116737536"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -4356,6 +4978,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4365,27 +4988,39 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4402,12 +5037,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4415,6 +5051,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4446,19 +5084,19 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$E$20:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1.12270488132557</c:v>
+                  <c:v>-1.1227048813255711</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.436082474226804</c:v>
+                  <c:v>0.43608247422680413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.49090909090909</c:v>
+                  <c:v>-5.4909090909090912</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -4469,14 +5107,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="37839398"/>
-        <c:axId val="56119294"/>
+        <c:axId val="116776960"/>
+        <c:axId val="116778496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37839398"/>
+        <c:axId val="116776960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,14 +5152,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56119294"/>
+        <c:crossAx val="116778496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56119294"/>
+        <c:axId val="116778496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4518,6 +5178,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4529,12 +5190,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37839398"/>
+        <c:crossAx val="116776960"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -4542,27 +5204,39 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4579,12 +5253,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4592,6 +5267,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4623,7 +5300,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$C$31:$C$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>89.32</c:v>
@@ -4632,7 +5309,7 @@
                   <c:v>15.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.4</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22</c:v>
@@ -4646,6 +5323,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4663,12 +5354,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4676,6 +5368,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4707,22 +5401,22 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$D$31:$D$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.9334</c:v>
+                  <c:v>17.933399999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7686</c:v>
+                  <c:v>9.7686000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.4896</c:v>
+                  <c:v>45.489600000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>105.4</c:v>
@@ -4730,14 +5424,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="29928376"/>
-        <c:axId val="19284038"/>
+        <c:axId val="117479680"/>
+        <c:axId val="117485568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29928376"/>
+        <c:axId val="117479680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4754,14 +5469,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19284038"/>
+        <c:crossAx val="117485568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19284038"/>
+        <c:axId val="117485568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4777,6 +5493,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4788,12 +5505,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="29928376"/>
+        <c:crossAx val="117479680"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -4802,6 +5520,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4811,21 +5530,31 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4837,7 +5566,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1">
+              <a:rPr lang="es-MX" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4849,12 +5578,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4871,12 +5603,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -4884,6 +5617,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4915,37 +5650,58 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$E$31:$E$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.799223018360949</c:v>
+                  <c:v>0.79922301836094933</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.171590909090909</c:v>
+                  <c:v>0.1715909090909091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.496463917525773</c:v>
+                  <c:v>0.49646391752577312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.502954545454545</c:v>
+                  <c:v>0.50295454545454543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.568606896551724</c:v>
+                  <c:v>-0.56860689655172425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.171111111111111</c:v>
+                  <c:v>-0.17111111111111119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="73481343"/>
-        <c:axId val="16046824"/>
+        <c:axId val="117502336"/>
+        <c:axId val="117503872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73481343"/>
+        <c:axId val="117502336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4962,14 +5718,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16046824"/>
+        <c:crossAx val="117503872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16046824"/>
+        <c:axId val="117503872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4985,6 +5742,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4996,12 +5754,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73481343"/>
+        <c:crossAx val="117502336"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5010,6 +5769,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5019,38 +5779,51 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -5058,6 +5831,8 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5089,10 +5864,10 @@
             <c:numRef>
               <c:f>'Apego a Procesos'!$G$4:$G$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -5104,22 +5879,43 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.665</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
-        <c:axId val="77088402"/>
-        <c:axId val="48722070"/>
+        <c:axId val="117545984"/>
+        <c:axId val="117547776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77088402"/>
+        <c:axId val="117545984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5136,14 +5932,15 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="48722070"/>
+        <c:crossAx val="117547776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48722070"/>
+        <c:axId val="117547776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5159,6 +5956,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5170,17 +5968,19 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77088402"/>
+        <c:crossAx val="117545984"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5188,20 +5988,27 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5210,19 +6017,19 @@
       <xdr:rowOff>183600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>461160</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514077</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="2 Gráfico"/>
+        <xdr:cNvPr id="2" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="947520" y="183600"/>
-        <a:ext cx="8988120" cy="2743560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5241,18 +6048,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>599040</xdr:colOff>
+      <xdr:colOff>599039</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="4 Gráfico"/>
+        <xdr:cNvPr id="3" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7048800" y="3339360"/>
-        <a:ext cx="7850880" cy="2995920"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5275,14 +6082,14 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="7 Gráfico"/>
+        <xdr:cNvPr id="4" name="7 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6953400" y="8622720"/>
-        <a:ext cx="5987520" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5300,19 +6107,19 @@
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>322920</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>291170</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="8 Gráfico"/>
+        <xdr:cNvPr id="5" name="8 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="251280" y="8622720"/>
-        <a:ext cx="6003000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5326,7 +6133,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5340,14 +6147,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="357120" y="183600"/>
-        <a:ext cx="6177600" cy="2817720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5370,14 +6177,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6631560" y="164520"/>
-        <a:ext cx="6030720" cy="2798640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5400,14 +6207,14 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="367560" y="7551720"/>
-        <a:ext cx="6083640" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5430,14 +6237,14 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="5 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7247160" y="7562160"/>
-        <a:ext cx="6070320" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5451,7 +6258,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5465,14 +6272,14 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="363600" y="2945520"/>
-        <a:ext cx="9704160" cy="2855520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5495,14 +6302,14 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="6 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10691280" y="2822040"/>
-        <a:ext cx="5154480" cy="2846160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5516,7 +6323,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5530,14 +6337,14 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="363600" y="2659680"/>
-        <a:ext cx="6647040" cy="2855880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5560,14 +6367,14 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="4 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8863560" y="2621520"/>
-        <a:ext cx="6500520" cy="2855880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5581,7 +6388,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5595,14 +6402,14 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="12" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="439560" y="1335960"/>
-        <a:ext cx="5790240" cy="2855520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5616,7 +6423,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5630,14 +6437,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="13" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="356040" y="1366560"/>
-        <a:ext cx="5858640" cy="2855520"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5651,7 +6458,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5665,14 +6472,14 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="14" name="1 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="135000" y="31320"/>
-        <a:ext cx="6059520" cy="2398680"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5695,14 +6502,14 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="15" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8565480" y="3141720"/>
-        <a:ext cx="5891400" cy="2772360"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5725,14 +6532,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="16" name="8 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9556200" y="40680"/>
-        <a:ext cx="5520240" cy="2084040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5755,14 +6562,14 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="17" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="579600" y="7587000"/>
-        <a:ext cx="6219720" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5785,14 +6592,14 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="18" name="3 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7647480" y="7672680"/>
-        <a:ext cx="6297120" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5806,7 +6613,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5820,14 +6627,14 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="19" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="531720" y="1529280"/>
-        <a:ext cx="4917960" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5840,1627 +6647,1982 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4291497975709"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.4251012145749"/>
+    <col min="1" max="1" width="2.28515625"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625"/>
+    <col min="4" max="4" width="9.7109375"/>
+    <col min="5" max="5" width="10.140625"/>
+    <col min="6" max="6" width="8.5703125"/>
+    <col min="7" max="7" width="10.140625"/>
+    <col min="8" max="8" width="9.7109375"/>
+    <col min="9" max="10" width="11.42578125"/>
+    <col min="11" max="16" width="10.7109375"/>
+    <col min="17" max="17" width="13"/>
+    <col min="18" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="n">
-        <v>46692</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="51">
+        <v>42335</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="6">
         <v>51</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="6">
         <v>195</v>
       </c>
-      <c r="E20" s="6" t="n">
-        <f aca="false">(C20-D20)/C20</f>
-        <v>-2.82352941176471</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:E25" si="0">(C20-D20)/C20</f>
+        <v>-2.8235294117647061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="9">
         <v>35</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" s="9" t="n">
-        <f aca="false">(C21-D21)/C21</f>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="9">
         <v>80</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="9">
         <v>45</v>
       </c>
-      <c r="E22" s="9" t="n">
-        <f aca="false">(C22-D22)/C22</f>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="9">
         <v>23</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="9">
         <v>147</v>
       </c>
-      <c r="E23" s="9" t="n">
-        <f aca="false">(C23-D23)/C23</f>
-        <v>-5.39130434782609</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="7" t="s">
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>-5.3913043478260869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="9">
         <v>90</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="9">
         <v>0</v>
       </c>
-      <c r="E24" s="9" t="n">
-        <f aca="false">(C24-D24)/C24</f>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="9">
         <v>142</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="9">
         <v>124</v>
       </c>
-      <c r="E25" s="9" t="n">
-        <f aca="false">(C25-D25)/C25</f>
-        <v>0.126760563380282</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12676056338028169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="n">
-        <v>40878</v>
-      </c>
-      <c r="C36" s="3" t="s">
+    <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B36" s="51">
+        <v>42339</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="5" t="n">
-        <f aca="false">51*4</f>
+      <c r="C37" s="6">
+        <f>51*4</f>
         <v>204</v>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="D37" s="6">
         <v>74</v>
       </c>
-      <c r="E37" s="6" t="n">
-        <f aca="false">(C37-D37)/C37</f>
-        <v>0.637254901960784</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="s">
+      <c r="E37" s="7">
+        <f t="shared" ref="E37:E42" si="1">(C37-D37)/C37</f>
+        <v>0.63725490196078427</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="8" t="n">
-        <f aca="false">35*4</f>
+      <c r="C38" s="9">
+        <f>35*4</f>
         <v>140</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="9">
         <v>54</v>
       </c>
-      <c r="E38" s="9" t="n">
-        <f aca="false">(C38-D38)/C38</f>
-        <v>0.614285714285714</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="s">
+      <c r="E38" s="10">
+        <f t="shared" si="1"/>
+        <v>0.61428571428571432</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="8" t="n">
+      <c r="C39" s="9">
         <v>80</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="9">
         <v>40</v>
       </c>
-      <c r="E39" s="9" t="n">
-        <f aca="false">(C39-D39)/C39</f>
+      <c r="E39" s="10">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="7" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="8" t="n">
-        <f aca="false">23*4</f>
+      <c r="C40" s="9">
+        <f>23*4</f>
         <v>92</v>
       </c>
-      <c r="D40" s="8" t="n">
+      <c r="D40" s="9">
         <v>45</v>
       </c>
-      <c r="E40" s="9" t="n">
-        <f aca="false">(C40-D40)/C40</f>
-        <v>0.510869565217391</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="7" t="s">
+      <c r="E40" s="10">
+        <f t="shared" si="1"/>
+        <v>0.51086956521739135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="8" t="n">
+      <c r="C41" s="9">
         <v>90</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="9">
         <v>187</v>
       </c>
-      <c r="E41" s="9" t="n">
-        <f aca="false">(C41-D41)/C41</f>
-        <v>-1.07777777777778</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="7" t="s">
+      <c r="E41" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.0777777777777777</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="8" t="n">
-        <f aca="false">142*4</f>
+      <c r="C42" s="9">
+        <f>142*4</f>
         <v>568</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="9">
         <v>463</v>
       </c>
-      <c r="E42" s="9" t="n">
-        <f aca="false">(C42-D42)/C42</f>
-        <v>0.184859154929577</v>
+      <c r="E42" s="10">
+        <f t="shared" si="1"/>
+        <v>0.18485915492957747</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B62" s="51">
+        <v>42366</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="6">
+        <v>51</v>
+      </c>
+      <c r="D64" s="6">
+        <v>195</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" ref="E64:E69" si="2">(C64-D64)/C64</f>
+        <v>-2.8235294117647061</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="9">
+        <v>35</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="9">
+        <v>80</v>
+      </c>
+      <c r="D66" s="9">
+        <v>45</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="2"/>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="9">
+        <v>23</v>
+      </c>
+      <c r="D67" s="9">
+        <v>147</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="2"/>
+        <v>-5.3913043478260869</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="9">
+        <v>90</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="9">
+        <v>142</v>
+      </c>
+      <c r="D69" s="9">
+        <v>124</v>
+      </c>
+      <c r="E69" s="10">
+        <f t="shared" si="2"/>
+        <v>0.12676056338028169</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4291497975709"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5708502024291"/>
+    <col min="1" max="1" width="2.28515625"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="12.140625"/>
+    <col min="4" max="4" width="11.140625"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="6" width="10.140625"/>
+    <col min="7" max="7" width="9.7109375"/>
+    <col min="8" max="15" width="11.5703125"/>
+    <col min="16" max="16" width="13"/>
+    <col min="17" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="1" customFormat="true" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="n">
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3">
         <v>46692</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="14">
         <v>22.33</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="14">
         <v>47.4</v>
       </c>
-      <c r="E20" s="14" t="n">
-        <f aca="false">(C20-D20)/C20</f>
-        <v>-1.12270488132557</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
+      <c r="E20" s="15">
+        <f t="shared" ref="E20:E25" si="0">(C20-D20)/C20</f>
+        <v>-1.1227048813255711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="14">
         <v>3.96</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="14">
         <v>0</v>
       </c>
-      <c r="E21" s="15" t="n">
-        <f aca="false">(C21-D21)/C21</f>
+      <c r="E21" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="13" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D22" s="13" t="n">
+      <c r="C22" s="14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D22" s="14">
         <v>10.94</v>
       </c>
-      <c r="E22" s="15" t="n">
-        <f aca="false">(C22-D22)/C22</f>
-        <v>0.436082474226804</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="7" t="s">
+      <c r="E22" s="16">
+        <f t="shared" si="0"/>
+        <v>0.43608247422680413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="14">
         <v>5.5</v>
       </c>
-      <c r="D23" s="13" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="E23" s="14" t="n">
-        <f aca="false">(C23-D23)/C23</f>
-        <v>-5.49090909090909</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="7" t="s">
+      <c r="D23" s="14">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="0"/>
+        <v>-5.4909090909090912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="13" t="n">
+      <c r="C24" s="14">
         <v>29</v>
       </c>
-      <c r="D24" s="13" t="n">
+      <c r="D24" s="14">
         <v>0</v>
       </c>
-      <c r="E24" s="15" t="n">
-        <f aca="false">(C24-D24)/C24</f>
+      <c r="E24" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="13" t="n">
+      <c r="C25" s="14">
         <v>22.5</v>
       </c>
-      <c r="D25" s="13" t="n">
+      <c r="D25" s="14">
         <v>18</v>
       </c>
-      <c r="E25" s="14" t="n">
-        <f aca="false">(C25-D25)/C25</f>
+      <c r="E25" s="15">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D27" s="16"/>
-    </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <v>40878</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="n">
-        <f aca="false">22.33*4</f>
+      <c r="C31" s="14">
+        <f>22.33*4</f>
         <v>89.32</v>
       </c>
-      <c r="D31" s="13" t="n">
-        <f aca="false">1.23*14.58</f>
-        <v>17.9334</v>
-      </c>
-      <c r="E31" s="14" t="n">
-        <f aca="false">(C31-D31)/C31</f>
-        <v>0.799223018360949</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="s">
+      <c r="D31" s="14">
+        <f>1.23*14.58</f>
+        <v>17.933399999999999</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" ref="E31:E36" si="1">(C31-D31)/C31</f>
+        <v>0.79922301836094933</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="13" t="n">
-        <f aca="false">3.96*4</f>
+      <c r="C32" s="14">
+        <f>3.96*4</f>
         <v>15.84</v>
       </c>
-      <c r="D32" s="13" t="n">
-        <f aca="false">0.9*14.58</f>
+      <c r="D32" s="14">
+        <f>0.9*14.58</f>
         <v>13.122</v>
       </c>
-      <c r="E32" s="15" t="n">
-        <f aca="false">(C32-D32)/C32</f>
-        <v>0.171590909090909</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="s">
+      <c r="E32" s="16">
+        <f t="shared" si="1"/>
+        <v>0.1715909090909091</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="13" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D33" s="13" t="n">
-        <f aca="false">0.67 * 14.58</f>
-        <v>9.7686</v>
-      </c>
-      <c r="E33" s="15" t="n">
-        <f aca="false">(C33-D33)/C33</f>
-        <v>0.496463917525773</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="s">
+      <c r="C33" s="14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D33" s="14">
+        <f>0.67 * 14.58</f>
+        <v>9.7686000000000011</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="1"/>
+        <v>0.49646391752577312</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="13" t="n">
-        <f aca="false">5.5*4</f>
+      <c r="C34" s="14">
+        <f>5.5*4</f>
         <v>22</v>
       </c>
-      <c r="D34" s="13" t="n">
-        <f aca="false">0.75*14.58</f>
+      <c r="D34" s="14">
+        <f>0.75*14.58</f>
         <v>10.935</v>
       </c>
-      <c r="E34" s="14" t="n">
-        <f aca="false">(C34-D34)/C34</f>
-        <v>0.502954545454545</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="s">
+      <c r="E34" s="15">
+        <f t="shared" si="1"/>
+        <v>0.50295454545454543</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="13" t="n">
+      <c r="C35" s="14">
         <v>29</v>
       </c>
-      <c r="D35" s="13" t="n">
-        <f aca="false">3.12*14.58</f>
-        <v>45.4896</v>
-      </c>
-      <c r="E35" s="15" t="n">
-        <f aca="false">(C35-D35)/C35</f>
-        <v>-0.568606896551724</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="s">
+      <c r="D35" s="14">
+        <f>3.12*14.58</f>
+        <v>45.489600000000003</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.56860689655172425</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="13" t="n">
-        <f aca="false">22.5*4</f>
+      <c r="C36" s="14">
+        <f>22.5*4</f>
         <v>90</v>
       </c>
-      <c r="D36" s="13" t="n">
+      <c r="D36" s="14">
         <v>105.4</v>
       </c>
-      <c r="E36" s="14" t="n">
-        <f aca="false">(C36-D36)/C36</f>
-        <v>-0.171111111111111</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E36" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.17111111111111119</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="6.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5708502024291"/>
+    <col min="1" max="1" width="3.42578125"/>
+    <col min="2" max="2" width="4.42578125"/>
+    <col min="3" max="3" width="19.7109375"/>
+    <col min="4" max="4" width="13.42578125" style="18"/>
+    <col min="5" max="5" width="13.42578125"/>
+    <col min="6" max="6" width="13.7109375"/>
+    <col min="7" max="7" width="23.28515625"/>
+    <col min="8" max="8" width="5.140625"/>
+    <col min="9" max="12" width="6.140625"/>
+    <col min="13" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="18" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="22">
         <v>20151127</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="23">
         <v>20151211</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="22" t="n">
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="23">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25" t="e">
-        <f aca="false">AVERAGE(D4:F4)</f>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26" t="e">
+        <f t="shared" ref="G4:G9" si="0">AVERAGE(D4:F4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="22" t="n">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="23">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24" t="n">
+      <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="25">
         <v>1</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25" t="n">
-        <f aca="false">AVERAGE(D5:F5)</f>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="22" t="n">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="25">
         <v>1</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="25">
         <v>0.8125</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25" t="n">
-        <f aca="false">AVERAGE(D6:F6)</f>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26">
+        <f t="shared" si="0"/>
         <v>0.90625</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="22" t="n">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24" t="n">
+      <c r="D7" s="25">
         <v>1</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="25">
         <v>0.25</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25" t="n">
-        <f aca="false">AVERAGE(D7:F7)</f>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26">
+        <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="22" t="n">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
         <v>6</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="25">
         <v>0.33</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="25">
         <v>1</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25" t="n">
-        <f aca="false">AVERAGE(D8:F8)</f>
-        <v>0.665</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="22" t="n">
+      <c r="F8" s="25"/>
+      <c r="G8" s="26">
+        <f t="shared" si="0"/>
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
         <v>7</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25" t="e">
-        <f aca="false">AVERAGE(D9:F9)</f>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="26"/>
-      <c r="O10" s="27"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="18" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="27"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="27"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="O12" s="27"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="22" t="n">
+      <c r="G12" s="29"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
         <v>1</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="25" t="e">
-        <f aca="false">AVERAGE(D13:F13)</f>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26" t="e">
+        <f>AVERAGE(D13:F13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="22" t="n">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="25" t="e">
-        <f aca="false">AVERAGE(D14:F14)</f>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="26" t="e">
+        <f>AVERAGE(D14:F14)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="22" t="n">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
         <v>3</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="25" t="e">
-        <f aca="false">AVERAGE(D15:F15)</f>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26" t="e">
+        <f>AVERAGE(D15:F15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:F15">
-    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C15">
-    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" priority="8" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F12">
-    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" priority="11" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5708502024291"/>
+    <col min="1" max="1" width="3.42578125"/>
+    <col min="2" max="2" width="4.42578125"/>
+    <col min="3" max="3" width="32.140625"/>
+    <col min="4" max="4" width="11.7109375" style="18"/>
+    <col min="5" max="5" width="11.7109375"/>
+    <col min="6" max="6" width="12.42578125"/>
+    <col min="7" max="7" width="19.42578125"/>
+    <col min="8" max="8" width="11.5703125"/>
+    <col min="9" max="9" width="15.7109375"/>
+    <col min="10" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="18" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="22">
         <v>20151127</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="21">
         <v>20151211</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="n">
+      <c r="G3" s="24"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="29" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="E4" s="29" t="n">
-        <v>0.8676</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25" t="n">
-        <f aca="false">AVERAGE(D4:F4)</f>
-        <v>0.8623</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="20" t="n">
+      <c r="D4" s="30">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="26">
+        <f>AVERAGE(D4:F4)</f>
+        <v>0.86230000000000007</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="29" t="n">
+      <c r="D5" s="30">
         <v>0.6</v>
       </c>
-      <c r="E5" s="29" t="n">
+      <c r="E5" s="30">
         <v>0.95</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="25" t="n">
-        <f aca="false">AVERAGE(D5:F5)</f>
-        <v>0.775</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="20" t="n">
+      <c r="F5" s="30"/>
+      <c r="G5" s="26">
+        <f>AVERAGE(D5:F5)</f>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25" t="e">
-        <f aca="false">AVERAGE(D6:F6)</f>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="26" t="e">
+        <f>AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="n">
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="29" t="n">
+      <c r="D7" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="29" t="n">
+      <c r="E7" s="30">
         <v>1</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="25" t="n">
-        <f aca="false">AVERAGE(D7:F7)</f>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26">
+        <f>AVERAGE(D7:F7)</f>
         <v>1</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="20" t="n">
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="21">
         <v>5</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29" t="n">
-        <v>0.8571</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="25" t="n">
-        <f aca="false">AVERAGE(D8:F8)</f>
-        <v>0.8571</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="26"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="18" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="26">
+        <f>AVERAGE(D8:F8)</f>
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="27"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="20" t="n">
+      <c r="G11" s="29"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="21">
         <v>1</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25" t="e">
-        <f aca="false">AVERAGE(D12:F12)</f>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26" t="e">
+        <f>AVERAGE(D12:F12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="20" t="n">
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
         <v>2</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25" t="e">
-        <f aca="false">AVERAGE(D13:F13)</f>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26" t="e">
+        <f>AVERAGE(D13:F13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="20" t="n">
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="21">
         <v>3</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25" t="e">
-        <f aca="false">AVERAGE(D14:F14)</f>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26" t="e">
+        <f>AVERAGE(D14:F14)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="33"/>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="34"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" priority="8" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B14">
-    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" priority="11" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F14">
-    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" priority="14" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" priority="15" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5708502024291"/>
+    <col min="1" max="1" width="3.42578125"/>
+    <col min="2" max="2" width="4.42578125"/>
+    <col min="3" max="3" width="32.140625"/>
+    <col min="4" max="4" width="11.7109375" style="18"/>
+    <col min="5" max="5" width="11.7109375"/>
+    <col min="6" max="6" width="12.42578125"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="11.5703125"/>
+    <col min="9" max="9" width="15.7109375"/>
+    <col min="10" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="18" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="22">
         <v>20151127</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="21">
         <v>20151211</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="n">
+      <c r="G3" s="24"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="29" t="n">
+      <c r="D4" s="30">
         <v>1</v>
       </c>
-      <c r="E4" s="29" t="n">
+      <c r="E4" s="30">
         <v>0.5</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25" t="n">
-        <f aca="false">AVERAGE(D4:F4)</f>
+      <c r="F4" s="30"/>
+      <c r="G4" s="26">
+        <f>AVERAGE(D4:F4)</f>
         <v>0.75</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="20" t="n">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="29" t="n">
+      <c r="D5" s="30">
         <v>0.67</v>
       </c>
-      <c r="E5" s="29" t="n">
-        <v>0.8325</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="25" t="n">
-        <f aca="false">AVERAGE(D5:F5)</f>
-        <v>0.75125</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="20" t="n">
+      <c r="E5" s="30">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="26">
+        <f>AVERAGE(D5:F5)</f>
+        <v>0.75124999999999997</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25" t="e">
-        <f aca="false">AVERAGE(D6:F6)</f>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="26" t="e">
+        <f>AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="26"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="33"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="27"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="34"/>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.5708502024291"/>
+    <col min="1" max="1" width="3.42578125" style="2"/>
+    <col min="2" max="2" width="4.42578125" style="2"/>
+    <col min="3" max="3" width="32.140625" style="2"/>
+    <col min="4" max="4" width="11.7109375" style="18"/>
+    <col min="5" max="5" width="11.7109375" style="2"/>
+    <col min="6" max="6" width="12.42578125" style="2"/>
+    <col min="7" max="7" width="19.140625" style="2"/>
+    <col min="8" max="8" width="11.5703125" style="2"/>
+    <col min="9" max="9" width="15.7109375" style="2"/>
+    <col min="10" max="1025" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="18" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="22">
         <v>20151127</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="21">
         <v>2015121</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="n">
+      <c r="G3" s="24"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="29" t="n">
+      <c r="D4" s="30">
         <v>0.67</v>
       </c>
-      <c r="E4" s="29" t="n">
+      <c r="E4" s="30">
         <v>0.67</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25" t="n">
-        <f aca="false">AVERAGE(D4:F4)</f>
+      <c r="F4" s="30"/>
+      <c r="G4" s="26">
+        <f>AVERAGE(D4:F4)</f>
         <v>0.67</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="20" t="n">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="29" t="n">
+      <c r="D5" s="30">
         <v>1</v>
       </c>
-      <c r="E5" s="29" t="n">
+      <c r="E5" s="30">
         <v>0.75</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="25" t="n">
-        <f aca="false">AVERAGE(D5:F5)</f>
+      <c r="F5" s="30"/>
+      <c r="G5" s="26">
+        <f>AVERAGE(D5:F5)</f>
         <v>0.875</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="20" t="n">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25" t="e">
-        <f aca="false">AVERAGE(D6:F6)</f>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="26" t="e">
+        <f>AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0"/>
-      <c r="D7" s="26"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="33"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7"/>
+      <c r="D7" s="27"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="34"/>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:I36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5708502024292"/>
+    <col min="1" max="1" width="23.5703125"/>
+    <col min="2" max="2" width="15.28515625"/>
+    <col min="3" max="3" width="14.140625"/>
+    <col min="4" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="20.5703125"/>
+    <col min="7" max="7" width="16"/>
+    <col min="8" max="8" width="15.42578125"/>
+    <col min="9" max="9" width="15"/>
+    <col min="10" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="34" t="s">
+    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="36"/>
@@ -7474,106 +8636,106 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="41" t="n">
+      <c r="B15" s="41">
         <v>202000</v>
       </c>
-      <c r="C15" s="41" t="n">
-        <f aca="false">SUM(C16:C17)</f>
+      <c r="C15" s="41">
+        <f>SUM(C16:C17)</f>
+        <v>130775.29999999999</v>
+      </c>
+      <c r="D15" s="42">
+        <f>(C15 * 100)/B15</f>
+        <v>64.740247524752462</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44">
+        <v>2424000</v>
+      </c>
+      <c r="H15" s="41">
         <v>130775.3</v>
       </c>
-      <c r="D15" s="42" t="n">
-        <f aca="false">(C15 * 100)/B15</f>
-        <v>64.7402475247525</v>
-      </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44" t="n">
-        <v>2424000</v>
-      </c>
-      <c r="H15" s="41" t="n">
-        <v>130775.3</v>
-      </c>
-      <c r="I15" s="45" t="n">
-        <f aca="false">(H15 * 100)/G15</f>
-        <v>5.39502062706271</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="I15" s="45">
+        <f>(H15 * 100)/G15</f>
+        <v>5.3950206270627064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="44" t="n">
-        <f aca="false">B15/2</f>
+      <c r="B16" s="44">
+        <f>B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C16" s="46" t="n">
-        <v>54818.4</v>
-      </c>
-      <c r="D16" s="47" t="n">
-        <f aca="false">(C16 * 100)/B16</f>
-        <v>54.2756435643564</v>
+      <c r="C16" s="46">
+        <v>54818.400000000001</v>
+      </c>
+      <c r="D16" s="47">
+        <f>(C16 * 100)/B16</f>
+        <v>54.275643564356436</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="44" t="n">
-        <f aca="false">B15/2</f>
+      <c r="B17" s="44">
+        <f>B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C17" s="46" t="n">
-        <v>75956.9</v>
-      </c>
-      <c r="D17" s="50" t="n">
-        <f aca="false">(C17 * 100)/B17</f>
-        <v>75.2048514851485</v>
+      <c r="C17" s="46">
+        <v>75956.899999999994</v>
+      </c>
+      <c r="D17" s="50">
+        <f>(C17 * 100)/B17</f>
+        <v>75.204851485148509</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="48"/>
       <c r="H17" s="48"/>
       <c r="I17" s="49"/>
     </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="41" t="n">
+      <c r="B34" s="41">
         <v>202000</v>
       </c>
-      <c r="C34" s="41" t="n">
-        <f aca="false">SUM(C35:C36)</f>
+      <c r="C34" s="41">
+        <f>SUM(C35:C36)</f>
         <v>32780</v>
       </c>
-      <c r="D34" s="42" t="n">
-        <f aca="false">(C34 * 100)/B34</f>
-        <v>16.2277227722772</v>
+      <c r="D34" s="42">
+        <f>(C34 * 100)/B34</f>
+        <v>16.227722772277229</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>2</v>
@@ -7585,46 +8747,46 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="44" t="n">
-        <f aca="false">B34/2</f>
+      <c r="B35" s="44">
+        <f>B34/2</f>
         <v>101000</v>
       </c>
-      <c r="C35" s="46" t="n">
+      <c r="C35" s="46">
         <v>10775</v>
       </c>
-      <c r="D35" s="47" t="n">
-        <f aca="false">(C35 * 100)/B35</f>
-        <v>10.6683168316832</v>
-      </c>
-      <c r="G35" s="44" t="n">
+      <c r="D35" s="47">
+        <f>(C35 * 100)/B35</f>
+        <v>10.668316831683168</v>
+      </c>
+      <c r="G35" s="44">
         <v>2424000</v>
       </c>
-      <c r="H35" s="41" t="n">
-        <v>2220588.2</v>
-      </c>
-      <c r="I35" s="45" t="n">
-        <f aca="false">(H35 * 100)/G35</f>
-        <v>91.6084240924092</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="H35" s="41">
+        <v>2220588.2000000002</v>
+      </c>
+      <c r="I35" s="45">
+        <f>(H35 * 100)/G35</f>
+        <v>91.608424092409251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="44" t="n">
-        <f aca="false">B34/2</f>
+      <c r="B36" s="44">
+        <f>B34/2</f>
         <v>101000</v>
       </c>
-      <c r="C36" s="46" t="n">
+      <c r="C36" s="46">
         <v>22005</v>
       </c>
-      <c r="D36" s="50" t="n">
-        <f aca="false">(C36 * 100)/B36</f>
-        <v>21.7871287128713</v>
+      <c r="D36" s="50">
+        <f>(C36 * 100)/B36</f>
+        <v>21.787128712871286</v>
       </c>
     </row>
   </sheetData>
@@ -7632,98 +8794,85 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G33:I33"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4"/>
-    <col collapsed="false" hidden="false" max="1023" min="3" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5708502024291"/>
+    <col min="1" max="1" width="3" style="2"/>
+    <col min="2" max="2" width="4" style="2"/>
+    <col min="3" max="1023" width="11.5703125" style="2"/>
+    <col min="1024" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="18" t="s">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="21" t="n">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="22">
         <v>20151127</v>
       </c>
-      <c r="D3" s="20" t="n">
+      <c r="D3" s="21">
         <v>20151211</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="n">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30">
         <v>1</v>
       </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:E3">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" priority="3" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="762"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Crecimiento anual de ventas" sheetId="7" r:id="rId7"/>
     <sheet name="Indice de Satisfacción" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="49">
   <si>
     <t>Versión 1.0</t>
   </si>
@@ -157,6 +157,18 @@
   <si>
     <t>P1345</t>
   </si>
+  <si>
+    <t>P1347</t>
+  </si>
+  <si>
+    <t>P1356</t>
+  </si>
+  <si>
+    <t>P1334</t>
+  </si>
+  <si>
+    <t>P1346</t>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -394,21 +406,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF604A7B"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF604A7B"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -535,11 +552,21 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1135,11 +1162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108407424"/>
-        <c:axId val="108417408"/>
+        <c:axId val="119136640"/>
+        <c:axId val="119138176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108407424"/>
+        <c:axId val="119136640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1183,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108417408"/>
+        <c:crossAx val="119138176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1164,7 +1191,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108417408"/>
+        <c:axId val="119138176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1219,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108407424"/>
+        <c:crossAx val="119136640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1243,7 +1270,31 @@
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Desviación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1253,6 +1304,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4F81BD"/>
@@ -1274,35 +1336,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Procesos'!$C$13:$C$15</c:f>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Metricas</c:v>
+                  <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Calidad</c:v>
+                  <c:v>Planeación</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Cambios</c:v>
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$G$13:$G$15</c:f>
+              <c:f>'Desviacion de costos'!$E$31:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.79922301836094933</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.1715909090909091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.49646391752577312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50295454545454543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.56860689655172425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.17111111111111119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,17 +1411,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117606656"/>
-        <c:axId val="117620736"/>
+        <c:axId val="163185408"/>
+        <c:axId val="163186944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117606656"/>
+        <c:axId val="163185408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1352,7 +1432,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="117620736"/>
+        <c:crossAx val="163186944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1360,10 +1440,9 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117620736"/>
+        <c:axId val="163186944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1378,7 +1457,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1389,16 +1468,10 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="117606656"/>
+        <c:crossAx val="163185408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -1408,6 +1481,17 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -1432,99 +1516,160 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Productos'!$C$4:$C$8</c:f>
+              <c:f>'Desviacion de costos'!$B$46:$B$51</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Plan de Proyecto</c:v>
+                  <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Estimación</c:v>
+                  <c:v>Planeación</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Tickets de Servicio</c:v>
+                  <c:v>Implementación</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Carta de aceptación</c:v>
+                  <c:v>Cierre</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Reporte de Monitoreo</c:v>
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$G$4:$G$8</c:f>
+              <c:f>'Desviacion de costos'!$C$46:$C$51</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.86230000000000007</c:v>
+                  <c:v>22.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77499999999999991</c:v>
+                  <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85709999999999997</c:v>
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$46:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$D$46:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1535,95 +1680,52 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117757824"/>
-        <c:axId val="117759360"/>
+        <c:axId val="193046400"/>
+        <c:axId val="193047936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117757824"/>
+        <c:axId val="193046400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="117759360"/>
+        <c:crossAx val="193047936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117759360"/>
+        <c:axId val="193047936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="117757824"/>
+        <c:crossAx val="193046400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1636,87 +1738,95 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Productos'!$C$12:$C$14</c:f>
+              <c:f>'Desviacion de costos'!$B$46:$B$51</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Plan de métricas</c:v>
+                  <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Plan de configuración</c:v>
+                  <c:v>Planeación</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Plan de Calidad</c:v>
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$G$12:$G$14</c:f>
+              <c:f>'Desviacion de costos'!$E$46:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.93470667263770724</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.28863636363636358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46981818181818175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47466666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1727,95 +1837,52 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117802112"/>
-        <c:axId val="117803648"/>
+        <c:axId val="199845376"/>
+        <c:axId val="199846912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117802112"/>
+        <c:axId val="199845376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="117803648"/>
+        <c:crossAx val="199846912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117803648"/>
+        <c:axId val="199846912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="117802112"/>
+        <c:crossAx val="199845376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1862,34 +1929,52 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Física!$C$4:$C$6</c:f>
+              <c:f>'Apego a Procesos'!$C$4:$C$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Elementos de Configuración</c:v>
+                  <c:v>Prospectación</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Línea Base</c:v>
+                  <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Cambios</c:v>
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Garantía</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Física!$G$4:$G$6</c:f>
+              <c:f>'Apego a Procesos'!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75124999999999997</c:v>
+                  <c:v>0.97958571428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.9017857142857143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57094285714285709</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1919,11 +2004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118891264"/>
-        <c:axId val="118892800"/>
+        <c:axId val="163232384"/>
+        <c:axId val="163246464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118891264"/>
+        <c:axId val="163232384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +2025,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="118892800"/>
+        <c:crossAx val="163246464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,10 +2033,9 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118892800"/>
+        <c:axId val="163246464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1977,7 +2061,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="118891264"/>
+        <c:crossAx val="163232384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2054,32 +2138,32 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Funcional!$C$4:$C$6</c:f>
+              <c:f>'Apego a Procesos'!$C$13:$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Línea Base</c:v>
+                  <c:v>Metricas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Entregables</c:v>
+                  <c:v>Calidad</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Control de Cambios</c:v>
+                  <c:v>Cambios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Funcional!$G$4:$G$6</c:f>
+              <c:f>'Apego a Procesos'!$K$13:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2111,11 +2195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119828864"/>
-        <c:axId val="119830400"/>
+        <c:axId val="164323328"/>
+        <c:axId val="164324864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119828864"/>
+        <c:axId val="164323328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2216,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119830400"/>
+        <c:crossAx val="164324864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2140,7 +2224,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119830400"/>
+        <c:axId val="164324864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2169,7 +2253,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119828864"/>
+        <c:crossAx val="164323328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2209,6 +2293,786 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Productos'!$C$4:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Plan de Proyecto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Estimación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tickets de Servicio</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Carta de aceptación</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Reporte de Monitoreo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Productos'!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92705714285714291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85709999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="137088000"/>
+        <c:axId val="137097984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="137088000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="137097984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137097984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="137088000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Apego a Productos'!$C$12:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Plan de métricas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plan de configuración</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plan de Calidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apego a Productos'!$K$12:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="164382592"/>
+        <c:axId val="164384128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164382592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="164384128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164384128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="164382592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Física!$C$4:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Elementos de Configuración</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Línea Base</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cambios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Física!$K$4:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88178571428571417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="168895616"/>
+        <c:axId val="168897152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="168895616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="168897152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168897152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="168895616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Funcional!$C$4:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Línea Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entregables</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Control de Cambios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Funcional!$K$4:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="169050496"/>
+        <c:axId val="169052032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="169050496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="169052032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="169052032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="169050496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -2379,11 +3243,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119616640"/>
-        <c:axId val="119618176"/>
+        <c:axId val="169489152"/>
+        <c:axId val="169490688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119616640"/>
+        <c:axId val="169489152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,7 +3264,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119618176"/>
+        <c:crossAx val="169490688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2408,7 +3272,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119618176"/>
+        <c:axId val="169490688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +3324,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119616640"/>
+        <c:crossAx val="169489152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2493,7 +3357,223 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$F$18:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$20:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.8235294117647061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.3913043478260869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12676056338028169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="119195520"/>
+        <c:axId val="119197056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="119195520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="119197056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119197056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="119195520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -2680,11 +3760,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119660928"/>
-        <c:axId val="119662464"/>
+        <c:axId val="169528704"/>
+        <c:axId val="169538688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119660928"/>
+        <c:axId val="169528704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,7 +3781,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119662464"/>
+        <c:crossAx val="169538688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2709,7 +3789,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119662464"/>
+        <c:axId val="169538688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,7 +3841,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119660928"/>
+        <c:crossAx val="169528704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2794,7 +3874,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -2972,11 +4052,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="119774592"/>
-        <c:axId val="119780480"/>
+        <c:axId val="169445632"/>
+        <c:axId val="169459712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119774592"/>
+        <c:axId val="169445632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,7 +4073,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119780480"/>
+        <c:crossAx val="169459712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3001,7 +4081,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119780480"/>
+        <c:axId val="169459712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +4106,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119774592"/>
+        <c:crossAx val="169445632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3070,7 +4150,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -3259,11 +4339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133843584"/>
-        <c:axId val="133861760"/>
+        <c:axId val="169571456"/>
+        <c:axId val="169572992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133843584"/>
+        <c:axId val="169571456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +4360,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="133861760"/>
+        <c:crossAx val="169572992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3288,7 +4368,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133861760"/>
+        <c:axId val="169572992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,7 +4396,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="133843584"/>
+        <c:crossAx val="169571456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3360,7 +4440,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -3449,11 +4529,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133882624"/>
-        <c:axId val="133884160"/>
+        <c:axId val="169585280"/>
+        <c:axId val="169599360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133882624"/>
+        <c:axId val="169585280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,7 +4550,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="133884160"/>
+        <c:crossAx val="169599360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3478,7 +4558,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133884160"/>
+        <c:axId val="169599360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3506,7 +4586,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="133882624"/>
+        <c:crossAx val="169585280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3521,7 +4601,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3550,223 +4629,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$F$18:$F$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$B$20:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$E$20:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-2.8235294117647061</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.3913043478260869</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12676056338028169</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="108431616"/>
-        <c:axId val="108457984"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="108431616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="108457984"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="108457984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="108431616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -4005,11 +4868,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="134039040"/>
-        <c:axId val="134040576"/>
+        <c:axId val="170085376"/>
+        <c:axId val="170095360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134039040"/>
+        <c:axId val="170085376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4026,7 +4889,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="134040576"/>
+        <c:crossAx val="170095360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4034,7 +4897,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134040576"/>
+        <c:axId val="170095360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4062,7 +4925,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="134039040"/>
+        <c:crossAx val="170085376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4254,11 +5117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108482560"/>
-        <c:axId val="108484096"/>
+        <c:axId val="119208960"/>
+        <c:axId val="142304000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108482560"/>
+        <c:axId val="119208960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4275,7 +5138,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108484096"/>
+        <c:crossAx val="142304000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4283,7 +5146,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108484096"/>
+        <c:axId val="142304000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,7 +5174,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108482560"/>
+        <c:crossAx val="119208960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4580,11 +5443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="109890944"/>
-        <c:axId val="109909120"/>
+        <c:axId val="142334208"/>
+        <c:axId val="142340096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109890944"/>
+        <c:axId val="142334208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4601,7 +5464,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="109909120"/>
+        <c:crossAx val="142340096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4609,7 +5472,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109909120"/>
+        <c:axId val="142340096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4637,7 +5500,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="109890944"/>
+        <c:crossAx val="142334208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4685,6 +5548,385 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$C$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$64:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$C$64:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$D$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$64:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$D$64:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="174861312"/>
+        <c:axId val="174912640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="174861312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174912640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="174912640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174861312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de esfuerzo'!$B$64:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de esfuerzo'!$E$64:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88235294117647056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47826086956521741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43661971830985913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="189562880"/>
+        <c:axId val="189564416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="189562880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="189564416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="189564416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="189562880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -4906,11 +6148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116737536"/>
-        <c:axId val="116739072"/>
+        <c:axId val="162618752"/>
+        <c:axId val="162620544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116737536"/>
+        <c:axId val="162618752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4927,7 +6169,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="116739072"/>
+        <c:crossAx val="162620544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4935,7 +6177,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116739072"/>
+        <c:axId val="162620544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,549 +6205,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="116737536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$E$18:$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$E$20:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-1.1227048813255711</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43608247422680413</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.4909090909090912</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="116776960"/>
-        <c:axId val="116778496"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="116776960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="116778496"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="116778496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="116776960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$C$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$C$31:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>89.32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$D$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C0504D"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Desviacion de costos'!$D$31:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>17.933399999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.122</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7686000000000011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.489600000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="117479680"/>
-        <c:axId val="117485568"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="117479680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="117485568"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="117485568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="117479680"/>
+        <c:crossAx val="162618752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5556,31 +6256,7 @@
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-MX" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Desviación</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -5592,7 +6268,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$E$30</c:f>
+              <c:f>'Desviacion de costos'!$E$18:$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5622,7 +6298,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:f>'Desviacion de costos'!$B$20:$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5648,27 +6324,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$E$31:$E$36</c:f>
+              <c:f>'Desviacion de costos'!$E$20:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.79922301836094933</c:v>
+                  <c:v>-1.1227048813255711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1715909090909091</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49646391752577312</c:v>
+                  <c:v>0.43608247422680413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50295454545454543</c:v>
+                  <c:v>-5.4909090909090912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.56860689655172425</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.17111111111111119</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5697,11 +6373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117502336"/>
-        <c:axId val="117503872"/>
+        <c:axId val="162645120"/>
+        <c:axId val="162646656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117502336"/>
+        <c:axId val="162645120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5718,7 +6394,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="117503872"/>
+        <c:crossAx val="162646656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5726,9 +6402,11 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117503872"/>
+        <c:axId val="162646656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5754,7 +6432,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="117502336"/>
+        <c:crossAx val="162645120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5767,17 +6445,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -5815,6 +6482,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4F81BD"/>
@@ -5836,53 +6514,154 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Procesos'!$C$4:$C$9</c:f>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Prospectación</c:v>
+                  <c:v>Ventas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ventas</c:v>
+                  <c:v>Planeación</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Planeación</c:v>
+                  <c:v>Implementación</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Implementación</c:v>
+                  <c:v>Cierre</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cierre</c:v>
+                  <c:v>Garantia</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Garantía</c:v>
+                  <c:v>Soporte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$G$4:$G$9</c:f>
+              <c:f>'Desviacion de costos'!$C$31:$C$36</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>89.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>15.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90625</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.625</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C0504D"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Desviacion de costos'!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Desviacion de costos'!$D$31:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>_-\$* #,##0.00_-;"-$"* #,##0.00_-;_-\$* \-??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17.933399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7686000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.489600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5911,17 +6690,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117545984"/>
-        <c:axId val="117547776"/>
+        <c:axId val="161246592"/>
+        <c:axId val="161248384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117545984"/>
+        <c:axId val="161246592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5932,7 +6711,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="117547776"/>
+        <c:crossAx val="161248384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5940,7 +6719,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117547776"/>
+        <c:axId val="161248384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5956,8 +6735,8 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5968,16 +6747,10 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="117545984"/>
+        <c:crossAx val="161246592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -5987,6 +6760,17 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -6129,6 +6913,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275166</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>83608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="13 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="20 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6196,16 +7040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280937</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439327</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28226</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6226,15 +7070,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355013</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>121680</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>195763</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6254,6 +7098,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560916</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6268,7 +7172,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>390600</xdr:colOff>
+      <xdr:colOff>666825</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
@@ -6291,14 +7195,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>468000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>961560</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>771060</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
@@ -6334,8 +7238,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>660</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6356,13 +7260,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>392040</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>352080</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>153000</xdr:rowOff>
@@ -6399,8 +7303,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>660</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6934,10 +7838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6956,174 +7860,174 @@
     <col min="18" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="51">
+      <c r="A19" s="1"/>
+      <c r="B19" s="49">
         <v>42335</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>51</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>195</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <f t="shared" ref="E20:E25" si="0">(C20-D20)/C20</f>
         <v>-2.8235294117647061</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>35</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>0</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>80</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>45</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>147</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <f t="shared" si="0"/>
         <v>-5.3913043478260869</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>90</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>0</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>142</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>124</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>0.12676056338028169</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -7131,109 +8035,109 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B36" s="51">
+      <c r="B36" s="49">
         <v>42339</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <f>51*4</f>
         <v>204</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>74</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <f t="shared" ref="E37:E42" si="1">(C37-D37)/C37</f>
         <v>0.63725490196078427</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="7">
         <f>35*4</f>
         <v>140</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="7">
         <v>54</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <f t="shared" si="1"/>
         <v>0.61428571428571432</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <v>80</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="7">
         <v>40</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="7">
         <f>23*4</f>
         <v>92</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="7">
         <v>45</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <f t="shared" si="1"/>
         <v>0.51086956521739135</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="7">
         <v>90</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <v>187</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <f t="shared" si="1"/>
         <v>-1.0777777777777777</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="7">
         <f>142*4</f>
         <v>568</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="7">
         <v>463</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="8">
         <f t="shared" si="1"/>
         <v>0.18485915492957747</v>
       </c>
@@ -7244,115 +8148,552 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B62" s="51">
+      <c r="B62" s="49">
         <v>42366</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="51" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="4">
         <v>51</v>
       </c>
-      <c r="D64" s="6">
-        <v>195</v>
-      </c>
-      <c r="E64" s="7">
+      <c r="D64" s="4">
+        <v>6</v>
+      </c>
+      <c r="E64" s="5">
         <f t="shared" ref="E64:E69" si="2">(C64-D64)/C64</f>
-        <v>-2.8235294117647061</v>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="7">
         <v>35</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="7">
+        <v>21</v>
+      </c>
+      <c r="E65" s="8">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="7">
+        <v>80</v>
+      </c>
+      <c r="D66" s="7">
         <v>0</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E66" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="9">
-        <v>80</v>
-      </c>
-      <c r="D66" s="9">
-        <v>45</v>
-      </c>
-      <c r="E66" s="10">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="7">
+        <v>23</v>
+      </c>
+      <c r="D67" s="7">
+        <v>12</v>
+      </c>
+      <c r="E67" s="8">
         <f t="shared" si="2"/>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="9">
-        <v>23</v>
-      </c>
-      <c r="D67" s="9">
-        <v>147</v>
-      </c>
-      <c r="E67" s="10">
-        <f t="shared" si="2"/>
-        <v>-5.3913043478260869</v>
+        <v>0.47826086956521741</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="7">
         <v>90</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="7">
         <v>0</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="7">
         <v>142</v>
       </c>
-      <c r="D69" s="9">
-        <v>124</v>
-      </c>
-      <c r="E69" s="10">
+      <c r="D69" s="7">
+        <f>39+41</f>
+        <v>80</v>
+      </c>
+      <c r="E69" s="8">
         <f t="shared" si="2"/>
-        <v>0.12676056338028169</v>
+        <v>0.43661971830985913</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B75" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B76" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="4">
+        <v>51</v>
+      </c>
+      <c r="D77" s="4">
+        <v>6</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" ref="E77:E82" si="3">(C77-D77)/C77</f>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="7">
+        <v>35</v>
+      </c>
+      <c r="D78" s="7">
+        <v>15</v>
+      </c>
+      <c r="E78" s="8">
+        <f t="shared" si="3"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="7">
+        <v>240</v>
+      </c>
+      <c r="D79" s="7">
+        <v>244</v>
+      </c>
+      <c r="E79" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="7">
+        <v>23</v>
+      </c>
+      <c r="D80" s="7">
+        <v>15</v>
+      </c>
+      <c r="E80" s="8">
+        <f t="shared" si="3"/>
+        <v>0.34782608695652173</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="7">
+        <v>90</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0</v>
+      </c>
+      <c r="E81" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="7">
+        <v>142</v>
+      </c>
+      <c r="D82" s="7">
+        <v>66</v>
+      </c>
+      <c r="E82" s="8">
+        <f t="shared" si="3"/>
+        <v>0.53521126760563376</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B87" s="54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B88" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="4">
+        <v>51</v>
+      </c>
+      <c r="D89" s="4">
+        <v>7</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" ref="E89:E94" si="4">(C89-D89)/C89</f>
+        <v>0.86274509803921573</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="7">
+        <v>35</v>
+      </c>
+      <c r="D90" s="7">
+        <v>10</v>
+      </c>
+      <c r="E90" s="8">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="7">
+        <v>240</v>
+      </c>
+      <c r="D91" s="7">
+        <v>76</v>
+      </c>
+      <c r="E91" s="8">
+        <f t="shared" si="4"/>
+        <v>0.68333333333333335</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="7">
+        <v>23</v>
+      </c>
+      <c r="D92" s="7">
+        <v>23</v>
+      </c>
+      <c r="E92" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="7">
+        <v>90</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0</v>
+      </c>
+      <c r="E93" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="7">
+        <v>142</v>
+      </c>
+      <c r="D94" s="7">
+        <v>73</v>
+      </c>
+      <c r="E94" s="8">
+        <f t="shared" si="4"/>
+        <v>0.4859154929577465</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B98" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B99" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="4">
+        <v>51</v>
+      </c>
+      <c r="D100" s="4">
+        <v>988</v>
+      </c>
+      <c r="E100" s="5">
+        <f t="shared" ref="E100:E105" si="5">(C100-D100)/C100</f>
+        <v>-18.372549019607842</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="7">
+        <v>35</v>
+      </c>
+      <c r="D101" s="7">
+        <v>15</v>
+      </c>
+      <c r="E101" s="8">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="7">
+        <v>240</v>
+      </c>
+      <c r="D102" s="7">
+        <v>0</v>
+      </c>
+      <c r="E102" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="7">
+        <v>23</v>
+      </c>
+      <c r="D103" s="7">
+        <v>41</v>
+      </c>
+      <c r="E103" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="7">
+        <v>90</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0</v>
+      </c>
+      <c r="E104" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="7">
+        <v>142</v>
+      </c>
+      <c r="D105" s="7">
+        <v>64</v>
+      </c>
+      <c r="E105" s="8">
+        <f t="shared" si="5"/>
+        <v>0.54929577464788737</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B110" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B111" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="4">
+        <v>51</v>
+      </c>
+      <c r="D112" s="4">
+        <v>15</v>
+      </c>
+      <c r="E112" s="5">
+        <f t="shared" ref="E112:E117" si="6">(C112-D112)/C112</f>
+        <v>0.70588235294117652</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="7">
+        <v>35</v>
+      </c>
+      <c r="D113" s="7">
+        <v>90</v>
+      </c>
+      <c r="E113" s="8">
+        <f t="shared" si="6"/>
+        <v>-1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="7">
+        <v>240</v>
+      </c>
+      <c r="D114" s="7">
+        <v>89</v>
+      </c>
+      <c r="E114" s="8">
+        <f t="shared" si="6"/>
+        <v>0.62916666666666665</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="7">
+        <v>23</v>
+      </c>
+      <c r="D115" s="7">
+        <v>8</v>
+      </c>
+      <c r="E115" s="8">
+        <f t="shared" si="6"/>
+        <v>0.65217391304347827</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="7">
+        <v>90</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0</v>
+      </c>
+      <c r="E116" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="7">
+        <v>142</v>
+      </c>
+      <c r="D117" s="7">
+        <v>17</v>
+      </c>
+      <c r="E117" s="8">
+        <f t="shared" si="6"/>
+        <v>0.88028169014084512</v>
       </c>
     </row>
   </sheetData>
@@ -7369,10 +8710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7389,267 +8730,867 @@
     <col min="17" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3">
-        <v>46692</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>22.33</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>47.4</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <f t="shared" ref="E20:E25" si="0">(C20-D20)/C20</f>
         <v>-1.1227048813255711</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>3.96</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>0</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="12">
         <v>19.399999999999999</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>10.94</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <f t="shared" si="0"/>
         <v>0.43608247422680413</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>5.5</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>35.700000000000003</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>-5.4909090909090912</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <v>29</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>22.5</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>18</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="13">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="17"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <v>40878</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="49">
+        <v>42349</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="12">
         <f>22.33*4</f>
         <v>89.32</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <f>1.23*14.58</f>
         <v>17.933399999999999</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="13">
         <f t="shared" ref="E31:E36" si="1">(C31-D31)/C31</f>
         <v>0.79922301836094933</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="12">
         <f>3.96*4</f>
         <v>15.84</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <f>0.9*14.58</f>
         <v>13.122</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="14">
         <f t="shared" si="1"/>
         <v>0.1715909090909091</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>19.399999999999999</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <f>0.67 * 14.58</f>
         <v>9.7686000000000011</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="14">
         <f t="shared" si="1"/>
         <v>0.49646391752577312</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="12">
         <f>5.5*4</f>
         <v>22</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <f>0.75*14.58</f>
         <v>10.935</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="13">
         <f t="shared" si="1"/>
         <v>0.50295454545454543</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <v>29</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <f>3.12*14.58</f>
         <v>45.489600000000003</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="14">
         <f t="shared" si="1"/>
         <v>-0.56860689655172425</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="12">
         <f>22.5*4</f>
         <v>90</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <v>105.4</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="13">
         <f t="shared" si="1"/>
         <v>-0.17111111111111119</v>
       </c>
     </row>
+    <row r="44" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B45" s="49">
+        <v>42367</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="12">
+        <v>22.33</v>
+      </c>
+      <c r="D46" s="12">
+        <f>6/60*14.58</f>
+        <v>1.4580000000000002</v>
+      </c>
+      <c r="E46" s="13">
+        <f t="shared" ref="E46:E51" si="2">(C46-D46)/C46</f>
+        <v>0.93470667263770724</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="D47" s="12">
+        <f>21/60*14.58</f>
+        <v>5.1029999999999998</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.28863636363636358</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="D49" s="12">
+        <f>12/60*14.58</f>
+        <v>2.9160000000000004</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="2"/>
+        <v>0.46981818181818175</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="12">
+        <v>29</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="D51" s="12">
+        <v>11.82</v>
+      </c>
+      <c r="E51" s="13">
+        <f t="shared" si="2"/>
+        <v>0.47466666666666668</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="53"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="53"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="53"/>
+    </row>
+    <row r="56" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B57" s="49">
+        <v>42367</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="12">
+        <v>22.33</v>
+      </c>
+      <c r="D58" s="12">
+        <f>6/60*14.58</f>
+        <v>1.4580000000000002</v>
+      </c>
+      <c r="E58" s="13">
+        <f t="shared" ref="E58:E63" si="3">(C58-D58)/C58</f>
+        <v>0.93470667263770724</v>
+      </c>
+      <c r="G58" s="53"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="D59" s="12">
+        <f>15/60*14.58</f>
+        <v>3.645</v>
+      </c>
+      <c r="E59" s="14">
+        <f t="shared" si="3"/>
+        <v>7.954545454545453E-2</v>
+      </c>
+      <c r="G59" s="53"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D60" s="12">
+        <f>244/60*14.58</f>
+        <v>59.291999999999994</v>
+      </c>
+      <c r="E60" s="14">
+        <f t="shared" si="3"/>
+        <v>-2.0562886597938146</v>
+      </c>
+      <c r="G60" s="53"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="D61" s="12">
+        <f>15/60*14.58</f>
+        <v>3.645</v>
+      </c>
+      <c r="E61" s="13">
+        <f t="shared" si="3"/>
+        <v>0.33727272727272728</v>
+      </c>
+      <c r="G61" s="53"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="12">
+        <v>29</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="53"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="D63" s="12">
+        <v>10.72</v>
+      </c>
+      <c r="E63" s="13">
+        <f t="shared" si="3"/>
+        <v>0.52355555555555555</v>
+      </c>
+      <c r="G63" s="53"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="53"/>
+    </row>
+    <row r="68" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B68" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="53"/>
+    </row>
+    <row r="69" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B69" s="49">
+        <v>42367</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="53"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="12">
+        <v>22.33</v>
+      </c>
+      <c r="D70" s="12">
+        <f>7/60*14.58</f>
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="E70" s="13">
+        <f t="shared" ref="E70:E75" si="4">(C70-D70)/C70</f>
+        <v>0.92382445141065828</v>
+      </c>
+      <c r="G70" s="53"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="D71" s="12">
+        <f>10/60*14.58</f>
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="E71" s="14">
+        <f t="shared" si="4"/>
+        <v>0.38636363636363641</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D72" s="12">
+        <f>76/60*14.58</f>
+        <v>18.468</v>
+      </c>
+      <c r="E72" s="14">
+        <f t="shared" si="4"/>
+        <v>4.8041237113401997E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="D73" s="12">
+        <f>23/60*14.58</f>
+        <v>5.5890000000000004</v>
+      </c>
+      <c r="E73" s="13">
+        <f t="shared" si="4"/>
+        <v>-1.6181818181818255E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="12">
+        <v>29</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0</v>
+      </c>
+      <c r="E74" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="D75" s="12">
+        <v>12.3</v>
+      </c>
+      <c r="E75" s="13">
+        <f t="shared" si="4"/>
+        <v>0.45333333333333331</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="53"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="53"/>
+    </row>
+    <row r="81" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B81" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="G81" s="53"/>
+    </row>
+    <row r="82" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B82" s="49">
+        <v>42367</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="53"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="12">
+        <v>22.33</v>
+      </c>
+      <c r="D83" s="12">
+        <f>988/60*14.58</f>
+        <v>240.08399999999997</v>
+      </c>
+      <c r="E83" s="13">
+        <f t="shared" ref="E83:E88" si="5">(C83-D83)/C83</f>
+        <v>-9.7516345723242264</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="D84" s="12">
+        <f>15/60*14.58</f>
+        <v>3.645</v>
+      </c>
+      <c r="E84" s="14">
+        <f t="shared" si="5"/>
+        <v>7.954545454545453E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D85" s="12">
+        <v>0</v>
+      </c>
+      <c r="E85" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="D86" s="12">
+        <f>41/60*14.58</f>
+        <v>9.963000000000001</v>
+      </c>
+      <c r="E86" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.81145454545454565</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="12">
+        <v>29</v>
+      </c>
+      <c r="D87" s="12">
+        <v>0</v>
+      </c>
+      <c r="E87" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="D88" s="12">
+        <v>10.58</v>
+      </c>
+      <c r="E88" s="13">
+        <f t="shared" si="5"/>
+        <v>0.52977777777777779</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F91" s="53"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F92" s="53"/>
+    </row>
+    <row r="93" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B93" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" s="53"/>
+    </row>
+    <row r="94" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B94" s="49">
+        <v>42367</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="53"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="12">
+        <v>22.33</v>
+      </c>
+      <c r="D95" s="12">
+        <f>15/60*14.58</f>
+        <v>3.645</v>
+      </c>
+      <c r="E95" s="13">
+        <f t="shared" ref="E95:E100" si="6">(C95-D95)/C95</f>
+        <v>0.83676668159426781</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="D96" s="12">
+        <f>90/60*14.58</f>
+        <v>21.87</v>
+      </c>
+      <c r="E96" s="14">
+        <f t="shared" si="6"/>
+        <v>-4.5227272727272725</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D97" s="12">
+        <f>89/60*14.58</f>
+        <v>21.627000000000002</v>
+      </c>
+      <c r="E97" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.1147938144329899</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="D98" s="12">
+        <f>8/60*14.58</f>
+        <v>1.944</v>
+      </c>
+      <c r="E98" s="13">
+        <f t="shared" si="6"/>
+        <v>0.64654545454545453</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="12">
+        <v>29</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="D100" s="12">
+        <v>2.38</v>
+      </c>
+      <c r="E100" s="13">
+        <f t="shared" si="6"/>
+        <v>0.89422222222222225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O28"/>
+  <dimension ref="B1:S28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7657,232 +9598,340 @@
     <col min="1" max="1" width="3.42578125"/>
     <col min="2" max="2" width="4.42578125"/>
     <col min="3" max="3" width="19.7109375"/>
-    <col min="4" max="4" width="13.42578125" style="18"/>
+    <col min="4" max="4" width="13.42578125" style="16"/>
     <col min="5" max="5" width="13.42578125"/>
     <col min="6" max="6" width="13.7109375"/>
-    <col min="7" max="7" width="23.28515625"/>
-    <col min="8" max="8" width="5.140625"/>
-    <col min="9" max="12" width="6.140625"/>
-    <col min="13" max="1025" width="11.5703125"/>
+    <col min="11" max="11" width="23.28515625"/>
+    <col min="12" max="12" width="5.140625"/>
+    <col min="13" max="16" width="6.140625"/>
+    <col min="17" max="1029" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D1"/>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="19" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="20">
+        <v>20151127</v>
+      </c>
+      <c r="E3" s="21">
+        <v>20151211</v>
+      </c>
+      <c r="F3" s="21">
+        <v>20151229</v>
+      </c>
+      <c r="G3" s="21">
+        <v>20151229</v>
+      </c>
+      <c r="H3" s="21">
+        <v>20151229</v>
+      </c>
+      <c r="I3" s="21">
+        <v>20151229</v>
+      </c>
+      <c r="J3" s="21">
+        <v>20151229</v>
+      </c>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24" t="e">
+        <f>AVERAGE(D4:F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24">
+        <f>AVERAGE(D5:J5)</f>
+        <v>0.97958571428571428</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.8125</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23">
+        <v>1</v>
+      </c>
+      <c r="K6" s="24">
+        <f>AVERAGE(D6:J6)</f>
+        <v>0.9017857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1</v>
+      </c>
+      <c r="K7" s="24">
+        <f>AVERAGE(D7:J7)</f>
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="21">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="K8" s="24">
+        <f>AVERAGE(D8:J8)</f>
+        <v>0.57094285714285709</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24" t="e">
+        <f>AVERAGE(D9:F9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="25"/>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="F11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="22">
-        <v>20151127</v>
-      </c>
-      <c r="E3" s="23">
-        <v>20151211</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="E12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="27"/>
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="e">
-        <f t="shared" ref="G4:G9" si="0">AVERAGE(D4:F4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
-        <v>2</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="25">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0.8125</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26">
-        <f t="shared" si="0"/>
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
-        <v>5</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="25">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
-        <v>6</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.33</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26">
-        <f t="shared" si="0"/>
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
-        <v>7</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="27"/>
-      <c r="O10" s="28"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="28"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="O12" s="28"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="26" t="e">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="24" t="e">
         <f>AVERAGE(D13:F13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="26" t="e">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="24" t="e">
         <f>AVERAGE(D14:F14)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
         <v>3</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="26" t="e">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="24" t="e">
         <f>AVERAGE(D15:F15)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7899,17 +9948,17 @@
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="K11">
     <cfRule type="cellIs" dxfId="29" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="F11:J11">
     <cfRule type="cellIs" dxfId="28" priority="5" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:F15">
+  <conditionalFormatting sqref="D13:J15">
     <cfRule type="cellIs" dxfId="27" priority="6" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
@@ -7919,12 +9968,12 @@
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F3">
+  <conditionalFormatting sqref="E3:J3">
     <cfRule type="cellIs" dxfId="25" priority="8" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:F12">
+  <conditionalFormatting sqref="E12:J12">
     <cfRule type="cellIs" dxfId="24" priority="9" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
@@ -7947,10 +9996,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I33"/>
+  <dimension ref="B1:M33"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7958,243 +10007,337 @@
     <col min="1" max="1" width="3.42578125"/>
     <col min="2" max="2" width="4.42578125"/>
     <col min="3" max="3" width="32.140625"/>
-    <col min="4" max="4" width="11.7109375" style="18"/>
+    <col min="4" max="4" width="11.7109375" style="16"/>
     <col min="5" max="5" width="11.7109375"/>
     <col min="6" max="6" width="12.42578125"/>
-    <col min="7" max="7" width="19.42578125"/>
-    <col min="8" max="8" width="11.5703125"/>
-    <col min="9" max="9" width="15.7109375"/>
-    <col min="10" max="1025" width="11.5703125"/>
+    <col min="11" max="11" width="19.42578125"/>
+    <col min="12" max="12" width="11.5703125"/>
+    <col min="13" max="13" width="15.7109375"/>
+    <col min="14" max="1029" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D1"/>
     </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="19" t="s">
+    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>20151127</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>20151211</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+      <c r="F3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="G3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="H3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="I3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="J3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="28">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>0.86760000000000004</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="26">
-        <f>AVERAGE(D4:F4)</f>
-        <v>0.86230000000000007</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="F4" s="28">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="I4" s="28">
+        <v>1</v>
+      </c>
+      <c r="J4" s="28">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="K4" s="24">
+        <f>AVERAGE(D4:J4)</f>
+        <v>0.92705714285714291</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>0.6</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <v>0.95</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="26">
-        <f>AVERAGE(D5:F5)</f>
-        <v>0.77499999999999991</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+      <c r="I5" s="28">
+        <v>1</v>
+      </c>
+      <c r="J5" s="28">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24">
+        <f>AVERAGE(D5:J5)</f>
+        <v>0.93571428571428572</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="26" t="e">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="24" t="e">
         <f>AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="28">
         <v>1</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>1</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="26">
-        <f>AVERAGE(D7:F7)</f>
+      <c r="F7" s="28">
         <v>1</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="21">
+      <c r="G7" s="28">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28">
+        <v>1</v>
+      </c>
+      <c r="I7" s="28">
+        <v>1</v>
+      </c>
+      <c r="J7" s="28">
+        <v>1</v>
+      </c>
+      <c r="K7" s="24">
+        <f>AVERAGE(D7:J7)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28">
         <v>0.85709999999999997</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="26">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="24">
         <f>AVERAGE(D8:F8)</f>
         <v>0.85709999999999997</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="27"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="19" t="s">
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="25"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
         <v>1</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26" t="e">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24" t="e">
         <f>AVERAGE(D12:F12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="21">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>2</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26" t="e">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24" t="e">
         <f>AVERAGE(D13:F13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
         <v>3</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26" t="e">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24" t="e">
         <f>AVERAGE(D14:F14)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
-      <c r="D15" s="27"/>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="32"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8208,12 +10351,12 @@
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F10:J10">
     <cfRule type="cellIs" dxfId="19" priority="4" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="K10">
     <cfRule type="cellIs" dxfId="18" priority="5" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
@@ -8243,17 +10386,17 @@
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F3">
+  <conditionalFormatting sqref="E3:J3">
     <cfRule type="cellIs" dxfId="12" priority="11" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:F11">
+  <conditionalFormatting sqref="E11:J11">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:F14">
+  <conditionalFormatting sqref="E12:J14">
     <cfRule type="cellIs" dxfId="10" priority="13" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
@@ -8276,10 +10419,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8287,119 +10430,175 @@
     <col min="1" max="1" width="3.42578125"/>
     <col min="2" max="2" width="4.42578125"/>
     <col min="3" max="3" width="32.140625"/>
-    <col min="4" max="4" width="11.7109375" style="18"/>
+    <col min="4" max="4" width="11.7109375" style="16"/>
     <col min="5" max="5" width="11.7109375"/>
     <col min="6" max="6" width="12.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="11.5703125"/>
-    <col min="9" max="9" width="15.7109375"/>
-    <col min="10" max="1025" width="11.5703125"/>
+    <col min="11" max="11" width="18.7109375"/>
+    <col min="12" max="12" width="11.5703125"/>
+    <col min="13" max="13" width="15.7109375"/>
+    <col min="14" max="1029" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D1"/>
     </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="19" t="s">
+    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>20151127</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>20151211</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+      <c r="F3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="G3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="H3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="I3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="J3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="28">
         <v>1</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>0.5</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="26">
-        <f>AVERAGE(D4:F4)</f>
-        <v>0.75</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+      <c r="I4" s="28">
+        <v>1</v>
+      </c>
+      <c r="J4" s="28">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24">
+        <f>AVERAGE(D4:J4)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>0.67</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <v>0.83250000000000002</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="26">
-        <f>AVERAGE(D5:F5)</f>
-        <v>0.75124999999999997</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+      <c r="F5" s="28">
+        <v>0.67</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+      <c r="I5" s="28">
+        <v>1</v>
+      </c>
+      <c r="J5" s="28">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24">
+        <f>AVERAGE(D5:J5)</f>
+        <v>0.88178571428571417</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="26" t="e">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="24" t="e">
         <f>AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="27"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
-      <c r="D8" s="27"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="25"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="32"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8408,7 +10607,7 @@
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F3">
+  <conditionalFormatting sqref="E3:J3">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
@@ -8426,27 +10625,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK26"/>
+  <dimension ref="A1:AMO26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2"/>
-    <col min="2" max="2" width="4.42578125" style="2"/>
-    <col min="3" max="3" width="32.140625" style="2"/>
-    <col min="4" max="4" width="11.7109375" style="18"/>
-    <col min="5" max="5" width="11.7109375" style="2"/>
-    <col min="6" max="6" width="12.42578125" style="2"/>
-    <col min="7" max="7" width="19.140625" style="2"/>
-    <col min="8" max="8" width="11.5703125" style="2"/>
-    <col min="9" max="9" width="15.7109375" style="2"/>
-    <col min="10" max="1025" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="3.42578125" style="1"/>
+    <col min="2" max="2" width="4.42578125" style="1"/>
+    <col min="3" max="3" width="32.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="16"/>
+    <col min="5" max="5" width="11.7109375" style="1"/>
+    <col min="6" max="6" width="12.42578125" style="1"/>
+    <col min="7" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="19.140625" style="1"/>
+    <col min="12" max="12" width="11.5703125" style="1"/>
+    <col min="13" max="13" width="15.7109375" style="1"/>
+    <col min="14" max="1029" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -8455,111 +10655,171 @@
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>20151127</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>2015121</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+      <c r="F3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="G3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="H3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="I3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="J3" s="19">
+        <v>20151229</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="28">
         <v>0.67</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>0.67</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="26">
-        <f>AVERAGE(D4:F4)</f>
+      <c r="F4" s="28">
         <v>0.67</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="G4" s="28">
+        <v>0.67</v>
+      </c>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+      <c r="I4" s="28">
+        <v>1</v>
+      </c>
+      <c r="J4" s="28">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24">
+        <f>AVERAGE(D4:J4)</f>
+        <v>0.81142857142857139</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <v>0.75</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="26">
-        <f>AVERAGE(D5:F5)</f>
-        <v>0.875</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+      <c r="I5" s="28">
+        <v>1</v>
+      </c>
+      <c r="J5" s="28">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24">
+        <f>AVERAGE(D5:J5)</f>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="26" t="e">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="24" t="e">
         <f>AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7"/>
-      <c r="D7" s="27"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
-      <c r="D8" s="27"/>
+      <c r="D7" s="25"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="32"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8568,7 +10828,7 @@
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F3">
+  <conditionalFormatting sqref="E3:J3">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
@@ -8588,8 +10848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8606,185 +10866,185 @@
   </cols>
   <sheetData>
     <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="39">
         <v>202000</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <f>SUM(C16:C17)</f>
         <v>130775.29999999999</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="40">
         <f>(C15 * 100)/B15</f>
         <v>64.740247524752462</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44">
+      <c r="F15" s="41"/>
+      <c r="G15" s="42">
         <v>2424000</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="39">
         <v>130775.3</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="43">
         <f>(H15 * 100)/G15</f>
         <v>5.3950206270627064</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="42">
         <f>B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="44">
         <v>54818.400000000001</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="45">
         <f>(C16 * 100)/B16</f>
         <v>54.275643564356436</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="42">
         <f>B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="44">
         <v>75956.899999999994</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="48">
         <f>(C17 * 100)/B17</f>
         <v>75.204851485148509</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="39">
         <v>202000</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="39">
         <f>SUM(C35:C36)</f>
         <v>32780</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="40">
         <f>(C34 * 100)/B34</f>
         <v>16.227722772277229</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="42">
         <f>B34/2</f>
         <v>101000</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="44">
         <v>10775</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="45">
         <f>(C35 * 100)/B35</f>
         <v>10.668316831683168</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="42">
         <v>2424000</v>
       </c>
-      <c r="H35" s="41">
+      <c r="H35" s="39">
         <v>2220588.2000000002</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="43">
         <f>(H35 * 100)/G35</f>
         <v>91.608424092409251</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="42">
         <f>B34/2</f>
         <v>101000</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="44">
         <v>22005</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="48">
         <f>(C36 * 100)/B36</f>
         <v>21.787128712871286</v>
       </c>
@@ -8810,9 +11070,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="2"/>
-    <col min="2" max="2" width="4" style="2"/>
-    <col min="3" max="1023" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="3" style="1"/>
+    <col min="2" max="2" width="4" style="1"/>
+    <col min="3" max="1023" width="11.5703125" style="1"/>
     <col min="1024" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
@@ -8822,43 +11082,43 @@
       <c r="E1"/>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>20151127</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>20151211</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="30"/>
-      <c r="D4" s="30">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28">
         <v>1</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:E3">

--- a/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
+++ b/Proyectos/2015/Métricas y monitoreo/Concentrado_métricas_2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="762" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="78">
   <si>
     <t>Versión 1.0</t>
   </si>
@@ -168,6 +168,93 @@
   </si>
   <si>
     <t>P1346</t>
+  </si>
+  <si>
+    <t>P1358</t>
+  </si>
+  <si>
+    <t>P1336</t>
+  </si>
+  <si>
+    <t>P1366</t>
+  </si>
+  <si>
+    <t>P1370</t>
+  </si>
+  <si>
+    <t>P1371</t>
+  </si>
+  <si>
+    <t>P1367</t>
+  </si>
+  <si>
+    <t>P1365</t>
+  </si>
+  <si>
+    <t>P1364</t>
+  </si>
+  <si>
+    <t>P1343</t>
+  </si>
+  <si>
+    <t>P1361</t>
+  </si>
+  <si>
+    <t>P1374</t>
+  </si>
+  <si>
+    <t>P1348</t>
+  </si>
+  <si>
+    <t>P1349</t>
+  </si>
+  <si>
+    <t>P1368</t>
+  </si>
+  <si>
+    <t>P1376</t>
+  </si>
+  <si>
+    <t>P1350</t>
+  </si>
+  <si>
+    <t>P1360</t>
+  </si>
+  <si>
+    <t>P1402</t>
+  </si>
+  <si>
+    <t>P1380</t>
+  </si>
+  <si>
+    <t>P1389</t>
+  </si>
+  <si>
+    <t>P1392</t>
+  </si>
+  <si>
+    <t>P1388</t>
+  </si>
+  <si>
+    <t>P1386</t>
+  </si>
+  <si>
+    <t>P1394</t>
+  </si>
+  <si>
+    <t>P1384</t>
+  </si>
+  <si>
+    <t>P1396</t>
+  </si>
+  <si>
+    <t>P1379</t>
+  </si>
+  <si>
+    <t>P1391</t>
+  </si>
+  <si>
+    <t>P1375</t>
   </si>
 </sst>
 </file>
@@ -555,18 +642,18 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1162,11 +1249,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119136640"/>
-        <c:axId val="119138176"/>
+        <c:axId val="78932224"/>
+        <c:axId val="78954496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119136640"/>
+        <c:axId val="78932224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1270,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119138176"/>
+        <c:crossAx val="78954496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +1278,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119138176"/>
+        <c:axId val="78954496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1306,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119136640"/>
+        <c:crossAx val="78932224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,7 +1321,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1411,11 +1497,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163185408"/>
-        <c:axId val="163186944"/>
+        <c:axId val="56914688"/>
+        <c:axId val="56916224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163185408"/>
+        <c:axId val="56914688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1518,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="163186944"/>
+        <c:crossAx val="56916224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1440,7 +1526,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163186944"/>
+        <c:axId val="56916224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1554,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="163185408"/>
+        <c:crossAx val="56914688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1680,11 +1766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="193046400"/>
-        <c:axId val="193047936"/>
+        <c:axId val="56941568"/>
+        <c:axId val="77017856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193046400"/>
+        <c:axId val="56941568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193047936"/>
+        <c:crossAx val="77017856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1701,7 +1787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193047936"/>
+        <c:axId val="77017856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +1798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193046400"/>
+        <c:crossAx val="56941568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1837,11 +1923,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199845376"/>
-        <c:axId val="199846912"/>
+        <c:axId val="77046144"/>
+        <c:axId val="77047680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199845376"/>
+        <c:axId val="77046144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +1936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199846912"/>
+        <c:crossAx val="77047680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1858,7 +1944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199846912"/>
+        <c:axId val="77047680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,7 +1955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199845376"/>
+        <c:crossAx val="77046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1955,7 +2041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$K$4:$K$9</c:f>
+              <c:f>'Apego a Procesos'!$P$4:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2004,11 +2090,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163232384"/>
-        <c:axId val="163246464"/>
+        <c:axId val="56703616"/>
+        <c:axId val="56742272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163232384"/>
+        <c:axId val="56703616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2111,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="163246464"/>
+        <c:crossAx val="56742272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2033,7 +2119,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163246464"/>
+        <c:axId val="56742272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2147,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="163232384"/>
+        <c:crossAx val="56703616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2155,7 +2241,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Procesos'!$K$13:$K$15</c:f>
+              <c:f>'Apego a Procesos'!$P$13:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2195,11 +2281,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164323328"/>
-        <c:axId val="164324864"/>
+        <c:axId val="56751616"/>
+        <c:axId val="56753152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164323328"/>
+        <c:axId val="56751616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2302,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="164324864"/>
+        <c:crossAx val="56753152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2224,7 +2310,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164324864"/>
+        <c:axId val="56753152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2253,7 +2339,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="164323328"/>
+        <c:crossAx val="56751616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2399,11 +2485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137088000"/>
-        <c:axId val="137097984"/>
+        <c:axId val="56853248"/>
+        <c:axId val="56854784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137088000"/>
+        <c:axId val="56853248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,7 +2506,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="137097984"/>
+        <c:crossAx val="56854784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2428,7 +2514,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137097984"/>
+        <c:axId val="56854784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2457,7 +2543,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="137088000"/>
+        <c:crossAx val="56853248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2591,11 +2677,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164382592"/>
-        <c:axId val="164384128"/>
+        <c:axId val="56876416"/>
+        <c:axId val="77079680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164382592"/>
+        <c:axId val="56876416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,7 +2698,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="164384128"/>
+        <c:crossAx val="77079680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2620,7 +2706,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164384128"/>
+        <c:axId val="77079680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2649,7 +2735,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="164382592"/>
+        <c:crossAx val="56876416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2783,11 +2869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168895616"/>
-        <c:axId val="168897152"/>
+        <c:axId val="77097600"/>
+        <c:axId val="77115776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168895616"/>
+        <c:axId val="77097600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,7 +2890,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="168897152"/>
+        <c:crossAx val="77115776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2812,7 +2898,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168897152"/>
+        <c:axId val="77115776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2841,7 +2927,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="168895616"/>
+        <c:crossAx val="77097600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2975,11 +3061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169050496"/>
-        <c:axId val="169052032"/>
+        <c:axId val="56350592"/>
+        <c:axId val="56352128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169050496"/>
+        <c:axId val="56350592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2996,7 +3082,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169052032"/>
+        <c:crossAx val="56352128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3004,7 +3090,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169052032"/>
+        <c:axId val="56352128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3033,7 +3119,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169050496"/>
+        <c:crossAx val="56350592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3104,7 +3190,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3178,7 +3263,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3243,11 +3327,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169489152"/>
-        <c:axId val="169490688"/>
+        <c:axId val="56408320"/>
+        <c:axId val="56418304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169489152"/>
+        <c:axId val="56408320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,7 +3348,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169490688"/>
+        <c:crossAx val="56418304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3272,7 +3356,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169490688"/>
+        <c:axId val="56418304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,7 +3393,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
@@ -3324,7 +3407,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169489152"/>
+        <c:crossAx val="56408320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3481,11 +3564,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119195520"/>
-        <c:axId val="119197056"/>
+        <c:axId val="56050048"/>
+        <c:axId val="56051584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119195520"/>
+        <c:axId val="56050048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,7 +3585,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119197056"/>
+        <c:crossAx val="56051584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3510,7 +3593,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119197056"/>
+        <c:axId val="56051584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3540,7 +3623,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119195520"/>
+        <c:crossAx val="56050048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3613,7 +3696,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3695,7 +3777,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3760,11 +3841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169528704"/>
-        <c:axId val="169538688"/>
+        <c:axId val="56517760"/>
+        <c:axId val="56519296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169528704"/>
+        <c:axId val="56517760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +3862,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169538688"/>
+        <c:crossAx val="56519296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3789,7 +3870,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169538688"/>
+        <c:axId val="56519296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,7 +3907,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-" sourceLinked="1"/>
@@ -3841,7 +3921,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169528704"/>
+        <c:crossAx val="56517760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4052,11 +4132,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="169445632"/>
-        <c:axId val="169459712"/>
+        <c:axId val="85676032"/>
+        <c:axId val="85677568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169445632"/>
+        <c:axId val="85676032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4073,7 +4153,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169459712"/>
+        <c:crossAx val="85677568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4081,7 +4161,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169459712"/>
+        <c:axId val="85677568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4106,7 +4186,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169445632"/>
+        <c:crossAx val="85676032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4121,7 +4201,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4339,11 +4418,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169571456"/>
-        <c:axId val="169572992"/>
+        <c:axId val="85707392"/>
+        <c:axId val="86581632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169571456"/>
+        <c:axId val="85707392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4360,7 +4439,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169572992"/>
+        <c:crossAx val="86581632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4368,7 +4447,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169572992"/>
+        <c:axId val="86581632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4396,7 +4475,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169571456"/>
+        <c:crossAx val="85707392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4411,7 +4490,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4529,11 +4607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169585280"/>
-        <c:axId val="169599360"/>
+        <c:axId val="86606208"/>
+        <c:axId val="86607744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169585280"/>
+        <c:axId val="86606208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4550,7 +4628,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169599360"/>
+        <c:crossAx val="86607744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4558,7 +4636,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169599360"/>
+        <c:axId val="86607744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4586,7 +4664,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169585280"/>
+        <c:crossAx val="86606208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4868,11 +4946,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170085376"/>
-        <c:axId val="170095360"/>
+        <c:axId val="86700800"/>
+        <c:axId val="86702336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170085376"/>
+        <c:axId val="86700800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4889,7 +4967,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="170095360"/>
+        <c:crossAx val="86702336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4897,7 +4975,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170095360"/>
+        <c:axId val="86702336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4925,7 +5003,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="170085376"/>
+        <c:crossAx val="86700800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4940,7 +5018,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5117,11 +5194,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119208960"/>
-        <c:axId val="142304000"/>
+        <c:axId val="56084352"/>
+        <c:axId val="56085888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119208960"/>
+        <c:axId val="56084352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5138,7 +5215,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="142304000"/>
+        <c:crossAx val="56085888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5146,7 +5223,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142304000"/>
+        <c:axId val="56085888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5174,7 +5251,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119208960"/>
+        <c:crossAx val="56084352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5443,11 +5520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142334208"/>
-        <c:axId val="142340096"/>
+        <c:axId val="55796480"/>
+        <c:axId val="55798016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142334208"/>
+        <c:axId val="55796480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5464,7 +5541,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="142340096"/>
+        <c:crossAx val="55798016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5472,7 +5549,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142340096"/>
+        <c:axId val="55798016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5500,7 +5577,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="142334208"/>
+        <c:crossAx val="55796480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5712,11 +5789,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174861312"/>
-        <c:axId val="174912640"/>
+        <c:axId val="55833344"/>
+        <c:axId val="55834880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174861312"/>
+        <c:axId val="55833344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5725,7 +5802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174912640"/>
+        <c:crossAx val="55834880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5733,7 +5810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174912640"/>
+        <c:axId val="55834880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5744,7 +5821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174861312"/>
+        <c:crossAx val="55833344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5869,11 +5946,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189562880"/>
-        <c:axId val="189564416"/>
+        <c:axId val="55867264"/>
+        <c:axId val="55868800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189562880"/>
+        <c:axId val="55867264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5882,7 +5959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189564416"/>
+        <c:crossAx val="55868800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5890,7 +5967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189564416"/>
+        <c:axId val="55868800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5901,7 +5978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189562880"/>
+        <c:crossAx val="55867264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6148,11 +6225,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162618752"/>
-        <c:axId val="162620544"/>
+        <c:axId val="56018432"/>
+        <c:axId val="56019968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162618752"/>
+        <c:axId val="56018432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6169,7 +6246,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="162620544"/>
+        <c:crossAx val="56019968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6177,7 +6254,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162620544"/>
+        <c:axId val="56019968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6205,7 +6282,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="162618752"/>
+        <c:crossAx val="56018432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6373,11 +6450,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162645120"/>
-        <c:axId val="162646656"/>
+        <c:axId val="56576640"/>
+        <c:axId val="56590720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162645120"/>
+        <c:axId val="56576640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6394,7 +6471,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="162646656"/>
+        <c:crossAx val="56590720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6402,7 +6479,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162646656"/>
+        <c:axId val="56590720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6432,7 +6509,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="162645120"/>
+        <c:crossAx val="56576640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6690,11 +6767,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161246592"/>
-        <c:axId val="161248384"/>
+        <c:axId val="56601984"/>
+        <c:axId val="56890496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161246592"/>
+        <c:axId val="56601984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6711,7 +6788,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="161248384"/>
+        <c:crossAx val="56890496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6719,7 +6796,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161248384"/>
+        <c:axId val="56890496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6747,7 +6824,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="161246592"/>
+        <c:crossAx val="56601984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7171,8 +7248,8 @@
       <xdr:rowOff>88200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666825</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57225</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
@@ -7195,13 +7272,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>468000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>771060</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>67680</xdr:rowOff>
@@ -7838,10 +7915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8151,13 +8228,13 @@
       <c r="B62" s="49">
         <v>42366</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="51" t="s">
+      <c r="E62" s="54" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8165,9 +8242,9 @@
       <c r="B63" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
@@ -8261,7 +8338,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="52" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8370,7 +8447,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B87" s="54" t="s">
+      <c r="B87" s="52" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8479,7 +8556,7 @@
       </c>
     </row>
     <row r="98" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="54" t="s">
+      <c r="B98" s="52" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8588,7 +8665,7 @@
       </c>
     </row>
     <row r="110" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B110" s="54" t="s">
+      <c r="B110" s="52" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8694,6 +8771,3276 @@
       <c r="E117" s="8">
         <f t="shared" si="6"/>
         <v>0.88028169014084512</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B121" s="52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B122" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="4">
+        <v>51</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0</v>
+      </c>
+      <c r="E123" s="5">
+        <f t="shared" ref="E123:E128" si="7">(C123-D123)/C123</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="7">
+        <v>35</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0</v>
+      </c>
+      <c r="E124" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="7">
+        <v>240</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0</v>
+      </c>
+      <c r="E125" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="7">
+        <v>23</v>
+      </c>
+      <c r="D126" s="7">
+        <v>0</v>
+      </c>
+      <c r="E126" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="7">
+        <v>90</v>
+      </c>
+      <c r="D127" s="7">
+        <v>0</v>
+      </c>
+      <c r="E127" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="7">
+        <v>142</v>
+      </c>
+      <c r="D128" s="7">
+        <v>0</v>
+      </c>
+      <c r="E128" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B132" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B133" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="4">
+        <v>51</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+      <c r="E134" s="5">
+        <f t="shared" ref="E134:E139" si="8">(C134-D134)/C134</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="7">
+        <v>35</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0</v>
+      </c>
+      <c r="E135" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="7">
+        <v>240</v>
+      </c>
+      <c r="D136" s="7">
+        <v>0</v>
+      </c>
+      <c r="E136" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="7">
+        <v>23</v>
+      </c>
+      <c r="D137" s="7">
+        <v>0</v>
+      </c>
+      <c r="E137" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="7">
+        <v>90</v>
+      </c>
+      <c r="D138" s="7">
+        <v>0</v>
+      </c>
+      <c r="E138" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="7">
+        <v>142</v>
+      </c>
+      <c r="D139" s="7">
+        <v>0</v>
+      </c>
+      <c r="E139" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B144" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B145" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="4">
+        <v>51</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0</v>
+      </c>
+      <c r="E146" s="5">
+        <f t="shared" ref="E146:E151" si="9">(C146-D146)/C146</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="7">
+        <v>35</v>
+      </c>
+      <c r="D147" s="7">
+        <v>0</v>
+      </c>
+      <c r="E147" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="7">
+        <v>240</v>
+      </c>
+      <c r="D148" s="7">
+        <v>0</v>
+      </c>
+      <c r="E148" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="7">
+        <v>23</v>
+      </c>
+      <c r="D149" s="7">
+        <v>0</v>
+      </c>
+      <c r="E149" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="7">
+        <v>90</v>
+      </c>
+      <c r="D150" s="7">
+        <v>0</v>
+      </c>
+      <c r="E150" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="7">
+        <v>142</v>
+      </c>
+      <c r="D151" s="7">
+        <v>0</v>
+      </c>
+      <c r="E151" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B156" s="52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B157" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="4">
+        <v>51</v>
+      </c>
+      <c r="D158" s="4">
+        <v>0</v>
+      </c>
+      <c r="E158" s="5">
+        <f t="shared" ref="E158:E163" si="10">(C158-D158)/C158</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="7">
+        <v>35</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0</v>
+      </c>
+      <c r="E159" s="8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="7">
+        <v>240</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0</v>
+      </c>
+      <c r="E160" s="8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="7">
+        <v>23</v>
+      </c>
+      <c r="D161" s="7">
+        <v>0</v>
+      </c>
+      <c r="E161" s="8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="7">
+        <v>90</v>
+      </c>
+      <c r="D162" s="7">
+        <v>0</v>
+      </c>
+      <c r="E162" s="8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="7">
+        <v>142</v>
+      </c>
+      <c r="D163" s="7">
+        <v>0</v>
+      </c>
+      <c r="E163" s="8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B168" s="52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B169" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="4">
+        <v>51</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0</v>
+      </c>
+      <c r="E170" s="5">
+        <f t="shared" ref="E170:E175" si="11">(C170-D170)/C170</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="7">
+        <v>35</v>
+      </c>
+      <c r="D171" s="7">
+        <v>0</v>
+      </c>
+      <c r="E171" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="7">
+        <v>240</v>
+      </c>
+      <c r="D172" s="7">
+        <v>0</v>
+      </c>
+      <c r="E172" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="7">
+        <v>23</v>
+      </c>
+      <c r="D173" s="7">
+        <v>0</v>
+      </c>
+      <c r="E173" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="7">
+        <v>90</v>
+      </c>
+      <c r="D174" s="7">
+        <v>0</v>
+      </c>
+      <c r="E174" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="7">
+        <v>142</v>
+      </c>
+      <c r="D175" s="7">
+        <v>0</v>
+      </c>
+      <c r="E175" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B180" s="52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B181" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="4">
+        <v>51</v>
+      </c>
+      <c r="D182" s="4">
+        <v>0</v>
+      </c>
+      <c r="E182" s="5">
+        <f t="shared" ref="E182:E187" si="12">(C182-D182)/C182</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="7">
+        <v>35</v>
+      </c>
+      <c r="D183" s="7">
+        <v>0</v>
+      </c>
+      <c r="E183" s="8">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="7">
+        <v>240</v>
+      </c>
+      <c r="D184" s="7">
+        <v>0</v>
+      </c>
+      <c r="E184" s="8">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="7">
+        <v>23</v>
+      </c>
+      <c r="D185" s="7">
+        <v>0</v>
+      </c>
+      <c r="E185" s="8">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="7">
+        <v>90</v>
+      </c>
+      <c r="D186" s="7">
+        <v>0</v>
+      </c>
+      <c r="E186" s="8">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="7">
+        <v>142</v>
+      </c>
+      <c r="D187" s="7">
+        <v>0</v>
+      </c>
+      <c r="E187" s="8">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B192" s="52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B193" s="49">
+        <v>42335</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x